--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Desktop\Icons\zzzMrGearboxAddon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Documents\GitHub\GearboxAddon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="0" windowWidth="13200" windowHeight="11520"/>
+    <workbookView xWindow="17160" yWindow="0" windowWidth="13200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ratio</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>extra range</t>
+  </si>
+  <si>
+    <t>rpm60</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.6666666666666662E-3</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
@@ -312,22 +315,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.11666666666666665</c:v>
+                  <c:v>0.140625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>24.839999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>29.160000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,7 +382,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.6666666666666662E-3</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
@@ -406,22 +409,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.18666666666666665</c:v>
+                  <c:v>0.26041666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.799999999999997</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.2</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,7 +476,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.6666666666666662E-3</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
@@ -500,22 +503,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>4.9999999999999996E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4285714285714288</c:v>
+                  <c:v>5.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8571428571428577</c:v>
+                  <c:v>8.831999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.714285714285714</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.571428571428571</c:v>
+                  <c:v>10.368000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>13.439999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +570,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.6666666666666662E-3</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
@@ -594,22 +597,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>7.9999999999999988E-2</c:v>
+                  <c:v>9.2592592592592587E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.285714285714286</c:v>
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.771428571428572</c:v>
+                  <c:v>16.355555555555554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.142857142857142</c:v>
+                  <c:v>17.777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.514285714285716</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.888888888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,8 +627,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331056016"/>
-        <c:axId val="331055624"/>
+        <c:axId val="297578568"/>
+        <c:axId val="297581312"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -675,7 +678,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.6666666666666662E-3</c:v>
+                  <c:v>5.208333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
@@ -732,11 +735,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331057584"/>
-        <c:axId val="331057192"/>
+        <c:axId val="297579744"/>
+        <c:axId val="297583272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331056016"/>
+        <c:axId val="297578568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,12 +796,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331055624"/>
+        <c:crossAx val="297581312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331055624"/>
+        <c:axId val="297581312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -856,12 +859,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331056016"/>
+        <c:crossAx val="297578568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331057192"/>
+        <c:axId val="297583272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,12 +907,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331057584"/>
+        <c:crossAx val="297579744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331057584"/>
+        <c:axId val="297579744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331057192"/>
+        <c:crossAx val="297583272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,9 +1627,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
-  <autoFilter ref="A1:Q2"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R2" totalsRowShown="0">
+  <autoFilter ref="A1:R2"/>
+  <tableColumns count="18">
     <tableColumn id="5" name="minSpeed"/>
     <tableColumn id="1" name="s1"/>
     <tableColumn id="11" name="s2"/>
@@ -1649,6 +1652,9 @@
     </tableColumn>
     <tableColumn id="16" name="rpm50">
       <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table2[rated]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="rpm60">
+      <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table2[rated]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1918,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,7 +1941,7 @@
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1987,13 +1993,16 @@
       <c r="Q1" t="s">
         <v>24</v>
       </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -2002,17 +2011,17 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G2">
-        <v>2100</v>
+        <v>2250</v>
       </c>
       <c r="H2">
         <f>Table2[minSpeed]/Table2[s1]/Table2[idle]*Table2[rated]</f>
-        <v>4.6666666666666662E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2037,14 +2046,18 @@
       </c>
       <c r="P2">
         <f>40/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
-        <v>1500</v>
+        <v>1285.7142857142856</v>
       </c>
       <c r="Q2">
         <f>50/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
-        <v>1875</v>
+        <v>1607.1428571428571</v>
+      </c>
+      <c r="R2">
+        <f>60/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
+        <v>1928.5714285714284</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2073,10 +2086,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Table2[minRatio]</f>
-        <v>4.6666666666666662E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="B5">
         <f>Table2[zeroEff]</f>
@@ -2084,34 +2097,34 @@
       </c>
       <c r="C5">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>0.11666666666666665</v>
+        <v>0.140625</v>
       </c>
       <c r="D5">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>0.18666666666666665</v>
+        <v>0.26041666666666663</v>
       </c>
       <c r="E5" s="3">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>4.9999999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F5" s="4">
         <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>7.9999999999999988E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="G5" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>6785.8401317539528</v>
+        <v>6031.8578948924032</v>
       </c>
       <c r="H5" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>4241.1500823462211</v>
+        <v>3257.2032632418982</v>
       </c>
       <c r="I5" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; ",A2," km/h @ ",F2," rpm")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.004667" factor="0.7"/&gt; 0.05 km/h @ 900 rpm</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.005208" factor="0.7"/&gt; 0.05 km/h @ 800 rpm</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>1-Table2[range]</f>
         <v>0.6</v>
@@ -2122,34 +2135,34 @@
       </c>
       <c r="C6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>15</v>
+        <v>16.2</v>
       </c>
       <c r="D6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>6.4285714285714288</v>
+        <v>5.76</v>
       </c>
       <c r="F6" s="2">
         <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>10.285714285714286</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="G6" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>52.778756580308524</v>
+        <v>52.359877559829883</v>
       </c>
       <c r="H6" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>32.986722862692837</v>
+        <v>28.274333882308138</v>
       </c>
       <c r="I6" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.6" factor="0.88"/&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>1-Table2[constF1]*Table2[range]</f>
         <v>0.91999999999999993</v>
@@ -2160,34 +2173,34 @@
       </c>
       <c r="C7">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>23</v>
+        <v>24.839999999999996</v>
       </c>
       <c r="D7">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>36.799999999999997</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>9.8571428571428577</v>
+        <v>8.831999999999999</v>
       </c>
       <c r="F7" s="2">
         <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>15.771428571428572</v>
+        <v>16.355555555555554</v>
       </c>
       <c r="G7" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>34.420928204549035</v>
+        <v>34.147746234671672</v>
       </c>
       <c r="H7" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>21.51308012784315</v>
+        <v>18.439782966722699</v>
       </c>
       <c r="I7" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.92" factor="0.96"/&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2197,34 +2210,34 @@
       </c>
       <c r="C8" s="5">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>10.714285714285714</v>
+        <v>9.6</v>
       </c>
       <c r="F8" s="2">
         <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>17.142857142857142</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="G8" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>31.667253948185113</v>
+        <v>31.415926535897931</v>
       </c>
       <c r="H8" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>19.792033717615698</v>
+        <v>16.964600329384883</v>
       </c>
       <c r="I8" s="5" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>1+Table2[constF1]*Table2[range]</f>
         <v>1.08</v>
@@ -2235,34 +2248,34 @@
       </c>
       <c r="C9">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>27</v>
+        <v>29.160000000000004</v>
       </c>
       <c r="D9">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>43.2</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>11.571428571428571</v>
+        <v>10.368000000000002</v>
       </c>
       <c r="F9" s="2">
         <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>18.514285714285716</v>
+        <v>19.2</v>
       </c>
       <c r="G9" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>29.321531433504735</v>
+        <v>29.088820866572153</v>
       </c>
       <c r="H9" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>18.32595714594046</v>
+        <v>15.707963267948966</v>
       </c>
       <c r="I9" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.08" factor="0.96"/&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>1+Table2[range]</f>
         <v>1.4</v>
@@ -2273,27 +2286,27 @@
       </c>
       <c r="C10">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>35</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D10">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>15</v>
+        <v>13.439999999999998</v>
       </c>
       <c r="F10" s="2">
         <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>24</v>
+        <v>24.888888888888889</v>
       </c>
       <c r="G10" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>22.619467105846514</v>
+        <v>22.439947525641383</v>
       </c>
       <c r="H10" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>14.137166941154067</v>
+        <v>12.117571663846347</v>
       </c>
       <c r="I10" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>

--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="0" windowWidth="13200" windowHeight="11520"/>
+    <workbookView xWindow="20280" yWindow="0" windowWidth="13200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>ratio</t>
   </si>
@@ -56,9 +56,6 @@
     <t>idleSpeed1</t>
   </si>
   <si>
-    <t>idleSpeed2</t>
-  </si>
-  <si>
     <t>minSpeed</t>
   </si>
   <si>
@@ -105,6 +102,45 @@
   </si>
   <si>
     <t>rpm60</t>
+  </si>
+  <si>
+    <t>speed4</t>
+  </si>
+  <si>
+    <t>speed3</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>fromSpeed</t>
+  </si>
+  <si>
+    <t>toSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;hydrostatic&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/hydrostatic&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;gears shiftTimeMs="-1" clutchRatio="1" defaultGear="1" reverseReset="false" automatic="true"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/gears&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;reverse ratio="1" shiftTimeMs="0" /&gt;</t>
+  </si>
+  <si>
+    <t>idleSpeed4</t>
+  </si>
+  <si>
+    <t>idleSpeed</t>
   </si>
 </sst>
 </file>
@@ -157,7 +193,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -172,6 +226,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -288,22 +348,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.208333333333333E-3</c:v>
+                  <c:v>2.0202020202020207E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>0.90000009999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>1.0999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,22 +375,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.140625</c:v>
+                  <c:v>0.11111111111111113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.2</c:v>
+                  <c:v>3.6666685000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.839999999999996</c:v>
+                  <c:v>4.9500005499999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.160000000000004</c:v>
+                  <c:v>6.0499994500000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.799999999999997</c:v>
+                  <c:v>7.3333315000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,11 +402,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>Sheet1!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed2</c:v>
+                  <c:v>speed4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -382,49 +442,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.208333333333333E-3</c:v>
+                  <c:v>2.0202020202020207E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>0.90000009999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>1.0999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$10</c:f>
+              <c:f>Sheet1!$F$5:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26041666666666663</c:v>
+                  <c:v>0.86868686868686895</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>28.666681000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>38.700004299999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>47.299995700000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>57.333319000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -436,7 +496,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>Sheet1!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -476,49 +536,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.208333333333333E-3</c:v>
+                  <c:v>2.0202020202020207E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>0.90000009999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>1.0999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$10</c:f>
+              <c:f>Sheet1!$G$5:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.05</c:v>
+                  <c:v>5.000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.76</c:v>
+                  <c:v>1.650000825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.831999999999999</c:v>
+                  <c:v>2.2275002474999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6</c:v>
+                  <c:v>2.4750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.368000000000002</c:v>
+                  <c:v>2.7224997525000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.439999999999998</c:v>
+                  <c:v>3.2999991750000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,11 +590,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>Sheet1!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>idleSpeed2</c:v>
+                  <c:v>idleSpeed4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,49 +630,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.208333333333333E-3</c:v>
+                  <c:v>2.0202020202020207E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>0.90000009999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>1.0999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$10</c:f>
+              <c:f>Sheet1!$H$5:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>9.2592592592592587E-2</c:v>
+                  <c:v>0.39090909090909104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.666666666666666</c:v>
+                  <c:v>12.900006450000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.355555555555554</c:v>
+                  <c:v>17.415001934999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.777777777777779</c:v>
+                  <c:v>19.350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.2</c:v>
+                  <c:v>21.284998065000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.888888888888889</c:v>
+                  <c:v>25.799993550000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,8 +687,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297578568"/>
-        <c:axId val="297581312"/>
+        <c:axId val="420084928"/>
+        <c:axId val="420090808"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -678,22 +738,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.208333333333333E-3</c:v>
+                  <c:v>2.0202020202020207E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>0.90000009999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>1.0999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +765,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88</c:v>
@@ -735,11 +795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297579744"/>
-        <c:axId val="297583272"/>
+        <c:axId val="420091984"/>
+        <c:axId val="420089632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297578568"/>
+        <c:axId val="420084928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,12 +856,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297581312"/>
+        <c:crossAx val="420090808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297581312"/>
+        <c:axId val="420090808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -859,12 +919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297578568"/>
+        <c:crossAx val="420084928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297583272"/>
+        <c:axId val="420089632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,12 +967,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297579744"/>
+        <c:crossAx val="420091984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297579744"/>
+        <c:axId val="420091984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297583272"/>
+        <c:crossAx val="420089632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1565,12 +1625,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1595,31 +1655,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:I10" totalsRowShown="0">
-  <autoFilter ref="A4:I10"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K10" totalsRowShown="0">
+  <autoFilter ref="A4:K10"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="ratio"/>
     <tableColumn id="2" name="factor"/>
-    <tableColumn id="3" name="speed1" dataDxfId="6">
+    <tableColumn id="3" name="speed1" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s1]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="speed2" dataDxfId="5">
+    <tableColumn id="11" name="speed3" dataDxfId="13">
+      <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s2]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="speed2" dataDxfId="12">
+      <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s3]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="speed4" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s4]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="idleSpeed1" dataDxfId="4">
+    <tableColumn id="7" name="idleSpeed1" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed2" dataDxfId="3">
-      <calculatedColumnFormula>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
+    <tableColumn id="6" name="idleSpeed4" dataDxfId="9">
+      <calculatedColumnFormula>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ratio1" dataDxfId="2">
+    <tableColumn id="9" name="ratio1" dataDxfId="8">
       <calculatedColumnFormula>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ratio2" dataDxfId="1">
-      <calculatedColumnFormula>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
+    <tableColumn id="8" name="ratio2" dataDxfId="7">
+      <calculatedColumnFormula>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="0">
-      <calculatedColumnFormula>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</calculatedColumnFormula>
+    <tableColumn id="5" name="xml" dataDxfId="6">
+      <calculatedColumnFormula>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1655,6 +1721,34 @@
     </tableColumn>
     <tableColumn id="17" name="rpm60">
       <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table2[rated]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E12:K16" totalsRowShown="0">
+  <autoFilter ref="E12:K16"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="gear"/>
+    <tableColumn id="2" name="speed" dataDxfId="5">
+      <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="minSpeed" dataDxfId="2">
+      <calculatedColumnFormula>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="idleSpeed" dataDxfId="1">
+      <calculatedColumnFormula>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="fromSpeed" dataDxfId="4">
+      <calculatedColumnFormula>$A$6*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="toSpeed" dataDxfId="3">
+      <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="xml" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1924,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L4" sqref="L4:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,26 +2030,26 @@
     <col min="5" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1964,37 +2058,37 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2002,32 +2096,32 @@
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>5.5</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G2">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="H2">
         <f>Table2[minSpeed]/Table2[s1]/Table2[idle]*Table2[rated]</f>
-        <v>5.208333333333333E-3</v>
+        <v>2.0202020202020207E-2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="K2">
         <v>0.88</v>
@@ -2036,25 +2130,25 @@
         <v>0.98</v>
       </c>
       <c r="M2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O2">
         <v>0.8</v>
       </c>
       <c r="P2">
         <f>40/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
-        <v>1285.7142857142856</v>
+        <v>1395.3491860465988</v>
       </c>
       <c r="Q2">
         <f>50/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
-        <v>1607.1428571428571</v>
+        <v>1744.1864825582484</v>
       </c>
       <c r="R2">
         <f>60/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
-        <v>1928.5714285714284</v>
+        <v>2093.023779069898</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2068,66 +2162,87 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Table2[minRatio]</f>
-        <v>5.208333333333333E-3</v>
+        <v>2.0202020202020207E-2</v>
       </c>
       <c r="B5">
         <f>Table2[zeroEff]</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>0.140625</v>
+        <v>0.11111111111111113</v>
       </c>
       <c r="D5">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="E5">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>0.44444444444444453</v>
+      </c>
+      <c r="F5">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>0.26041666666666663</v>
-      </c>
-      <c r="E5" s="3">
+        <v>0.86868686868686895</v>
+      </c>
+      <c r="G5" s="3">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="4">
-        <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="G5" s="1">
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
+        <v>0.39090909090909104</v>
+      </c>
+      <c r="I5" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>6031.8578948924032</v>
-      </c>
-      <c r="H5" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>3257.2032632418982</v>
-      </c>
-      <c r="I5" t="str">
-        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; ",A2," km/h @ ",F2," rpm")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.005208" factor="0.7"/&gt; 0.05 km/h @ 800 rpm</v>
+        <v>6785.8401317539528</v>
+      </c>
+      <c r="J5" s="1">
+        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>867.95629592201703</v>
+      </c>
+      <c r="K5" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.020202" factor="0.6"/&gt; &lt;!-- 0.05 .. 0.9 --&gt;</v>
+      </c>
+      <c r="L5" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.020202" factor="0.6"/&gt; &lt;!-- 0.05 .. 0.9 --&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>1-Table2[range]</f>
-        <v>0.6</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="B6">
         <f>Table2[minEff]</f>
@@ -2135,37 +2250,49 @@
       </c>
       <c r="C6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>16.2</v>
+        <v>3.6666685000000001</v>
       </c>
       <c r="D6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>7.3333370000000002</v>
+      </c>
+      <c r="E6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>14.666674</v>
+      </c>
+      <c r="F6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
+        <v>28.666681000000001</v>
+      </c>
+      <c r="G6" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>5.76</v>
-      </c>
-      <c r="F6" s="2">
-        <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="G6" s="1">
+        <v>1.650000825</v>
+      </c>
+      <c r="H6" s="2">
+        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
+        <v>12.900006450000001</v>
+      </c>
+      <c r="I6" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>52.359877559829883</v>
-      </c>
-      <c r="H6" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>28.274333882308138</v>
-      </c>
-      <c r="I6" t="str">
-        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.6" factor="0.88"/&gt;</v>
+        <v>205.63141632835104</v>
+      </c>
+      <c r="J6" s="1">
+        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>26.301692786184436</v>
+      </c>
+      <c r="K6" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.65 .. 28.7 --&gt;</v>
+      </c>
+      <c r="L6" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.65 .. 28.7 --&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>1-Table2[constF1]*Table2[range]</f>
-        <v>0.91999999999999993</v>
+        <v>0.90000009999999997</v>
       </c>
       <c r="B7">
         <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
@@ -2173,31 +2300,43 @@
       </c>
       <c r="C7">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>24.839999999999996</v>
+        <v>4.9500005499999995</v>
       </c>
       <c r="D7">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>9.900001099999999</v>
+      </c>
+      <c r="E7">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>19.800002199999998</v>
+      </c>
+      <c r="F7">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>46</v>
-      </c>
-      <c r="E7" s="2">
+        <v>38.700004299999996</v>
+      </c>
+      <c r="G7" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>8.831999999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>16.355555555555554</v>
-      </c>
-      <c r="G7" s="1">
+        <v>2.2275002474999996</v>
+      </c>
+      <c r="H7" s="2">
+        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
+        <v>17.415001934999996</v>
+      </c>
+      <c r="I7" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>34.147746234671672</v>
-      </c>
-      <c r="H7" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>18.439782966722699</v>
-      </c>
-      <c r="I7" t="str">
-        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.92" factor="0.96"/&gt;</v>
+        <v>152.31962688601124</v>
+      </c>
+      <c r="J7" s="1">
+        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>19.482742973792135</v>
+      </c>
+      <c r="K7" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.96"/&gt; &lt;!-- 2.23 .. 38.7 --&gt;</v>
+      </c>
+      <c r="L7" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.96"/&gt; &lt;!-- 2.23 .. 38.7 --&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2210,37 +2349,49 @@
       </c>
       <c r="C8" s="5">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>27</v>
+        <v>5.5</v>
       </c>
       <c r="D8" s="5">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>9.6</v>
-      </c>
-      <c r="F8" s="2">
-        <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>17.777777777777779</v>
-      </c>
-      <c r="G8" s="1">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="I8" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>31.415926535897931</v>
-      </c>
-      <c r="H8" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>16.964600329384883</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt;</v>
+        <v>137.0876794293728</v>
+      </c>
+      <c r="J8" s="1">
+        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>17.53447062468722</v>
+      </c>
+      <c r="K8" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.48 .. 43 --&gt;</v>
+      </c>
+      <c r="L8" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.48 .. 43 --&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>1+Table2[constF1]*Table2[range]</f>
-        <v>1.08</v>
+        <v>1.0999999</v>
       </c>
       <c r="B9">
         <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
@@ -2248,37 +2399,49 @@
       </c>
       <c r="C9">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>29.160000000000004</v>
+        <v>6.0499994500000005</v>
       </c>
       <c r="D9">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>12.099998900000001</v>
+      </c>
+      <c r="E9">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>24.199997800000002</v>
+      </c>
+      <c r="F9">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>54</v>
-      </c>
-      <c r="E9" s="2">
+        <v>47.299995700000004</v>
+      </c>
+      <c r="G9" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>10.368000000000002</v>
-      </c>
-      <c r="F9" s="2">
-        <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>19.2</v>
-      </c>
-      <c r="G9" s="1">
+        <v>2.7224997525000005</v>
+      </c>
+      <c r="H9" s="2">
+        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
+        <v>21.284998065000003</v>
+      </c>
+      <c r="I9" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>29.088820866572153</v>
-      </c>
-      <c r="H9" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>15.707963267948966</v>
-      </c>
-      <c r="I9" t="str">
-        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.08" factor="0.96"/&gt;</v>
+        <v>124.62517444717294</v>
+      </c>
+      <c r="J9" s="1">
+        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>15.940429289754677</v>
+      </c>
+      <c r="K9" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.96"/&gt; &lt;!-- 2.72 .. 47.3 --&gt;</v>
+      </c>
+      <c r="L9" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.96"/&gt; &lt;!-- 2.72 .. 47.3 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>1+Table2[range]</f>
-        <v>1.4</v>
+        <v>1.3333330000000001</v>
       </c>
       <c r="B10">
         <f>Table2[minEff]</f>
@@ -2286,39 +2449,225 @@
       </c>
       <c r="C10">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>37.799999999999997</v>
+        <v>7.3333315000000008</v>
       </c>
       <c r="D10">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>14.666663000000002</v>
+      </c>
+      <c r="E10">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>29.333326000000003</v>
+      </c>
+      <c r="F10">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>70</v>
-      </c>
-      <c r="E10" s="2">
+        <v>57.333319000000003</v>
+      </c>
+      <c r="G10" s="2">
         <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>13.439999999999998</v>
-      </c>
-      <c r="F10" s="2">
-        <f>Table1[[#This Row],[speed2]]*Table2[idle]/Table2[rated]</f>
-        <v>24.888888888888889</v>
-      </c>
-      <c r="G10" s="1">
+        <v>3.2999991750000004</v>
+      </c>
+      <c r="H10" s="2">
+        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
+        <v>25.799993550000003</v>
+      </c>
+      <c r="I10" s="1">
         <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>22.439947525641383</v>
-      </c>
-      <c r="H10" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed2]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>12.117571663846347</v>
-      </c>
-      <c r="I10" t="str">
-        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.4" factor="0.88"/&gt;</v>
+        <v>102.8157852759759</v>
+      </c>
+      <c r="J10" s="1">
+        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>13.150856256229476</v>
+      </c>
+      <c r="K10" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 3.3 .. 57.3 --&gt;</v>
+      </c>
+      <c r="L10" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 3.3 .. 57.3 --&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G13">
+        <f>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <f>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
+        <v>1.650000825</v>
+      </c>
+      <c r="I13">
+        <f>$A$6*Table3[[#This Row],[speed]]</f>
+        <v>3.6666685000000001</v>
+      </c>
+      <c r="J13">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>7.3333315000000008</v>
+      </c>
+      <c r="K13" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="5.5" name=""/&gt; &lt;!-- 0.05 1.65 4 7--&gt;</v>
+      </c>
+      <c r="L13" s="5" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="5.5" name=""/&gt; &lt;!-- 0.05 1.65 4 7--&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</f>
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <f>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="H14">
+        <f>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
+        <v>3.30000165</v>
+      </c>
+      <c r="I14">
+        <f>$A$6*Table3[[#This Row],[speed]]</f>
+        <v>7.3333370000000002</v>
+      </c>
+      <c r="J14">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>14.666663000000002</v>
+      </c>
+      <c r="K14" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="11" name=""/&gt; &lt;!-- 0.1 3.3 7 15--&gt;</v>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="11" name=""/&gt; &lt;!-- 0.1 3.3 7 15--&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</f>
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <f>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="H15">
+        <f>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
+        <v>6.6000033</v>
+      </c>
+      <c r="I15">
+        <f>$A$6*Table3[[#This Row],[speed]]</f>
+        <v>14.666674</v>
+      </c>
+      <c r="J15">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>29.333326000000003</v>
+      </c>
+      <c r="K15" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="22" name=""/&gt; &lt;!-- 0.2 6.6 15 29--&gt;</v>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="22" name=""/&gt; &lt;!-- 0.2 6.6 15 29--&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</f>
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <f>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
+        <v>0.39090909090909104</v>
+      </c>
+      <c r="H16">
+        <f>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
+        <v>12.900006450000001</v>
+      </c>
+      <c r="I16">
+        <f>$A$6*Table3[[#This Row],[speed]]</f>
+        <v>28.666681000000001</v>
+      </c>
+      <c r="J16">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>57.333319000000003</v>
+      </c>
+      <c r="K16" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="43" name=""/&gt; &lt;!-- 0.39 12.9 29 57--&gt;</v>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="43" name=""/&gt; &lt;!-- 0.39 12.9 29 57--&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="0" windowWidth="13200" windowHeight="11520"/>
+    <workbookView xWindow="23190" yWindow="0" windowWidth="13200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>ratio</t>
   </si>
@@ -98,9 +98,6 @@
     <t>rpm50</t>
   </si>
   <si>
-    <t>extra range</t>
-  </si>
-  <si>
     <t>rpm60</t>
   </si>
   <si>
@@ -141,6 +138,24 @@
   </si>
   <si>
     <t>idleSpeed</t>
+  </si>
+  <si>
+    <t>maxSpeed</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>gear2gear</t>
+  </si>
+  <si>
+    <t>gears</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
@@ -153,10 +168,17 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,48 +200,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -228,16 +261,233 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -266,38 +516,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -308,7 +527,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>Sheet1!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -343,54 +562,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$10</c:f>
+              <c:f>Sheet1!$A$8:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0202020202020207E-2</c:v>
+                <c:pt idx="0" formatCode="0.00000">
+                  <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666700000000001</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90000009999999997</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0999999</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333330000000001</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$10</c:f>
+              <c:f>Sheet1!$C$8:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.11111111111111113</c:v>
+                  <c:v>0.13125000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6666685000000001</c:v>
+                  <c:v>3.7500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9500005499999995</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>5.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0499994500000005</c:v>
+                  <c:v>6.5625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3333315000000008</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,7 +621,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>Sheet1!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -437,54 +656,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$10</c:f>
+              <c:f>Sheet1!$A$8:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0202020202020207E-2</c:v>
+                <c:pt idx="0" formatCode="0.00000">
+                  <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666700000000001</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90000009999999997</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0999999</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333330000000001</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$10</c:f>
+              <c:f>Sheet1!$F$8:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.86868686868686895</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.666681000000001</c:v>
+                  <c:v>30.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.700004299999996</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.299995700000004</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.333319000000003</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,7 +715,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>Sheet1!$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -531,54 +750,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$10</c:f>
+              <c:f>Sheet1!$A$8:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0202020202020207E-2</c:v>
+                <c:pt idx="0" formatCode="0.00000">
+                  <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666700000000001</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90000009999999997</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0999999</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333330000000001</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$10</c:f>
+              <c:f>Sheet1!$G$8:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>5.000000000000001E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.650000825</c:v>
+                  <c:v>1.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2275002474999996</c:v>
+                  <c:v>1.7857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4750000000000001</c:v>
+                  <c:v>2.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7224997525000005</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2999991750000004</c:v>
+                  <c:v>2.8571428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +809,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>Sheet1!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -625,54 +844,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$10</c:f>
+              <c:f>Sheet1!$A$8:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0202020202020207E-2</c:v>
+                <c:pt idx="0" formatCode="0.00000">
+                  <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666700000000001</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90000009999999997</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0999999</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333330000000001</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$10</c:f>
+              <c:f>Sheet1!$H$8:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>0.39090909090909104</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.900006450000001</c:v>
+                  <c:v>11.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.415001934999996</c:v>
+                  <c:v>14.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.350000000000001</c:v>
+                  <c:v>17.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.284998065000003</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.799993550000003</c:v>
+                  <c:v>22.857142857142858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,8 +906,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420084928"/>
-        <c:axId val="420090808"/>
+        <c:axId val="394241208"/>
+        <c:axId val="394239248"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -698,7 +917,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Sheet1!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -733,51 +952,51 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$10</c:f>
+              <c:f>Sheet1!$A$8:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0202020202020207E-2</c:v>
+                <c:pt idx="0" formatCode="0.00000">
+                  <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666700000000001</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90000009999999997</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0999999</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333330000000001</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$10</c:f>
+              <c:f>Sheet1!$B$8:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.92999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.92999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.88</c:v>
@@ -795,11 +1014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420091984"/>
-        <c:axId val="420089632"/>
+        <c:axId val="394238464"/>
+        <c:axId val="394239640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420084928"/>
+        <c:axId val="394241208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +1038,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -856,12 +1075,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420090808"/>
+        <c:crossAx val="394239248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420090808"/>
+        <c:axId val="394239248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -882,7 +1101,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -919,12 +1138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420084928"/>
+        <c:crossAx val="394241208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420089632"/>
+        <c:axId val="394239640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,22 +1186,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420091984"/>
+        <c:crossAx val="394238464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420091984"/>
+        <c:axId val="394238464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420089632"/>
+        <c:crossAx val="394239640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1063,7 +1282,464 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Efficiency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.13125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="431556064"/>
+        <c:axId val="431561552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="431556064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431561552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="431561552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431556064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1619,20 +2295,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1651,40 +2843,69 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K10" totalsRowShown="0">
-  <autoFilter ref="A4:K10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K13" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" name="ratio"/>
     <tableColumn id="2" name="factor"/>
-    <tableColumn id="3" name="speed1" dataDxfId="14">
+    <tableColumn id="3" name="speed1" dataDxfId="31">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s1]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="speed3" dataDxfId="13">
+    <tableColumn id="11" name="speed2" dataDxfId="30">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="speed2" dataDxfId="12">
+    <tableColumn id="10" name="speed3" dataDxfId="29">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s3]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="speed4" dataDxfId="11">
+    <tableColumn id="4" name="speed4" dataDxfId="28">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s4]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="idleSpeed1" dataDxfId="10">
-      <calculatedColumnFormula>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
+    <tableColumn id="7" name="idleSpeed1" dataDxfId="27">
+      <calculatedColumnFormula>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed4" dataDxfId="9">
-      <calculatedColumnFormula>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
+    <tableColumn id="6" name="idleSpeed4" dataDxfId="26">
+      <calculatedColumnFormula>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ratio1" dataDxfId="8">
-      <calculatedColumnFormula>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
+    <tableColumn id="9" name="ratio1" dataDxfId="25">
+      <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ratio2" dataDxfId="7">
-      <calculatedColumnFormula>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
+    <tableColumn id="8" name="ratio2" dataDxfId="24">
+      <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="6">
+    <tableColumn id="5" name="xml" dataDxfId="23">
       <calculatedColumnFormula>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1693,65 +2914,98 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R2" totalsRowShown="0">
-  <autoFilter ref="A1:R2"/>
-  <tableColumns count="18">
-    <tableColumn id="5" name="minSpeed"/>
-    <tableColumn id="1" name="s1"/>
-    <tableColumn id="11" name="s2"/>
-    <tableColumn id="14" name="s3"/>
-    <tableColumn id="2" name="s4"/>
-    <tableColumn id="3" name="idle"/>
-    <tableColumn id="4" name="rated"/>
-    <tableColumn id="6" name="minRatio">
-      <calculatedColumnFormula>Table2[minSpeed]/Table2[s1]/Table2[idle]*Table2[rated]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N5" totalsRowShown="0" dataDxfId="22">
+  <tableColumns count="14">
+    <tableColumn id="1" name="s1" dataDxfId="21">
+      <calculatedColumnFormula>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="extra range"/>
-    <tableColumn id="7" name="range"/>
-    <tableColumn id="8" name="minEff"/>
-    <tableColumn id="9" name="maxEff"/>
-    <tableColumn id="10" name="zeroEff"/>
-    <tableColumn id="12" name="constF1"/>
-    <tableColumn id="13" name="constF2"/>
-    <tableColumn id="15" name="rpm40">
-      <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table2[rated]</calculatedColumnFormula>
+    <tableColumn id="11" name="s2" dataDxfId="20">
+      <calculatedColumnFormula>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="rpm50">
-      <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table2[rated]</calculatedColumnFormula>
+    <tableColumn id="14" name="s3" dataDxfId="19">
+      <calculatedColumnFormula>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="rpm60">
-      <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table2[rated]</calculatedColumnFormula>
+    <tableColumn id="2" name="s4" dataDxfId="18">
+      <calculatedColumnFormula>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="minRatio" dataDxfId="17">
+      <calculatedColumnFormula>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="minEff" dataDxfId="16"/>
+    <tableColumn id="9" name="maxEff" dataDxfId="15"/>
+    <tableColumn id="3" name="range" dataDxfId="1">
+      <calculatedColumnFormula>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="zeroEff" dataDxfId="14">
+      <calculatedColumnFormula>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="constF1" dataDxfId="13"/>
+    <tableColumn id="13" name="constF2" dataDxfId="12"/>
+    <tableColumn id="15" name="rpm40" dataDxfId="11">
+      <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="rpm50" dataDxfId="10">
+      <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="rpm60" dataDxfId="9">
+      <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E15:K19" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="1" name="gear" dataDxfId="8"/>
+    <tableColumn id="2" name="speed" dataDxfId="7">
+      <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="minSpeed" dataDxfId="6">
+      <calculatedColumnFormula>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="idleSpeed" dataDxfId="5">
+      <calculatedColumnFormula>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="fromSpeed" dataDxfId="4">
+      <calculatedColumnFormula>$A$9*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="toSpeed" dataDxfId="3">
+      <calculatedColumnFormula>$A$13*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="xml" dataDxfId="2">
+      <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E12:K16" totalsRowShown="0">
-  <autoFilter ref="E12:K16"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="gear"/>
-    <tableColumn id="2" name="speed" dataDxfId="5">
-      <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="minSpeed" dataDxfId="2">
-      <calculatedColumnFormula>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="idleSpeed" dataDxfId="1">
-      <calculatedColumnFormula>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="fromSpeed" dataDxfId="4">
-      <calculatedColumnFormula>$A$6*Table3[[#This Row],[speed]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="toSpeed" dataDxfId="3">
-      <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="xml" dataDxfId="0">
-      <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
-    </tableColumn>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H2" totalsRowShown="0">
+  <tableColumns count="8">
+    <tableColumn id="8" name="minSpeed"/>
+    <tableColumn id="1" name="maxSpeed"/>
+    <tableColumn id="2" name="rpm"/>
+    <tableColumn id="3" name="idle"/>
+    <tableColumn id="4" name="rated"/>
+    <tableColumn id="6" name="gear2gear"/>
+    <tableColumn id="7" name="gears"/>
+    <tableColumn id="5" name="zeroEff"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A23:B44" totalsRowShown="0">
+  <autoFilter ref="A23:B44"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="km/h" dataDxfId="0"/>
+    <tableColumn id="2" name="Efficiency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2018,656 +3272,910 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="29" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>5.5</v>
+        <v>60</v>
       </c>
       <c r="C2">
+        <v>2100</v>
+      </c>
+      <c r="D2">
+        <v>800</v>
+      </c>
+      <c r="E2">
+        <v>2100</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
-        <v>43</v>
-      </c>
-      <c r="F2">
-        <v>900</v>
-      </c>
-      <c r="G2">
-        <v>2000</v>
-      </c>
-      <c r="H2">
-        <f>Table2[minSpeed]/Table2[s1]/Table2[idle]*Table2[rated]</f>
-        <v>2.0202020202020207E-2</v>
-      </c>
-      <c r="I2">
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</f>
+        <v>5.625</v>
+      </c>
+      <c r="B5" s="7">
+        <f>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</f>
+        <v>11.25</v>
+      </c>
+      <c r="C5" s="7">
+        <f>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</f>
+        <v>22.5</v>
+      </c>
+      <c r="D5" s="7">
+        <f>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</f>
+        <v>45</v>
+      </c>
+      <c r="E5" s="8">
+        <f>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.88</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="H5" s="9">
+        <f>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5" s="9">
+        <f>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</f>
+        <v>0.68</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="10">
+        <f>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
+        <v>1400</v>
+      </c>
+      <c r="M5" s="10">
+        <f>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
+        <v>1750</v>
+      </c>
+      <c r="N5" s="10">
+        <f>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="K2">
-        <v>0.88</v>
-      </c>
-      <c r="L2">
-        <v>0.98</v>
-      </c>
-      <c r="M2">
-        <v>0.6</v>
-      </c>
-      <c r="N2">
-        <v>0.3</v>
-      </c>
-      <c r="O2">
-        <v>0.8</v>
-      </c>
-      <c r="P2">
-        <f>40/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
-        <v>1395.3491860465988</v>
-      </c>
-      <c r="Q2">
-        <f>50/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
-        <v>1744.1864825582484</v>
-      </c>
-      <c r="R2">
-        <f>60/(Table2[s4]*(1+Table2[range]))*Table2[rated]</f>
-        <v>2093.023779069898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <f>Table2[minRatio]</f>
-        <v>2.0202020202020207E-2</v>
-      </c>
-      <c r="B5">
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="B8">
         <f>Table2[zeroEff]</f>
-        <v>0.6</v>
-      </c>
-      <c r="C5">
+        <v>0.68</v>
+      </c>
+      <c r="C8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>0.11111111111111113</v>
-      </c>
-      <c r="D5">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="D8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>0.22222222222222227</v>
-      </c>
-      <c r="E5">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="E8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>0.44444444444444453</v>
-      </c>
-      <c r="F5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>0.86868686868686895</v>
-      </c>
-      <c r="G5" s="3">
-        <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
-        <v>0.39090909090909104</v>
-      </c>
-      <c r="I5" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>6785.8401317539528</v>
-      </c>
-      <c r="J5" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>867.95629592201703</v>
-      </c>
-      <c r="K5" t="str">
+        <v>1.05</v>
+      </c>
+      <c r="G8" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>6031.8578948924032</v>
+      </c>
+      <c r="J8" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>753.9822368615504</v>
+      </c>
+      <c r="K8" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.020202" factor="0.6"/&gt; &lt;!-- 0.05 .. 0.9 --&gt;</v>
-      </c>
-      <c r="L5" t="str">
+        <v xml:space="preserve">        &lt;efficiency ratio="0.023333" factor="0.68"/&gt; &lt;!-- 0.05 .. 1.1 --&gt;</v>
+      </c>
+      <c r="L8" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.020202" factor="0.6"/&gt; &lt;!-- 0.05 .. 0.9 --&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v xml:space="preserve">        &lt;efficiency ratio="0.023333" factor="0.68"/&gt; &lt;!-- 0.05 .. 1.1 --&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
         <f>1-Table2[range]</f>
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="B6">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="B9">
         <f>Table2[minEff]</f>
         <v>0.88</v>
       </c>
-      <c r="C6">
+      <c r="C9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>3.6666685000000001</v>
-      </c>
-      <c r="D6">
+        <v>3.7500000000000004</v>
+      </c>
+      <c r="D9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>7.3333370000000002</v>
-      </c>
-      <c r="E6">
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="E9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>14.666674</v>
-      </c>
-      <c r="F6">
+        <v>15.000000000000002</v>
+      </c>
+      <c r="F9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>28.666681000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>1.650000825</v>
-      </c>
-      <c r="H6" s="2">
-        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
-        <v>12.900006450000001</v>
-      </c>
-      <c r="I6" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>205.63141632835104</v>
-      </c>
-      <c r="J6" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>26.301692786184436</v>
-      </c>
-      <c r="K6" t="str">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>1.4285714285714288</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>11.428571428571431</v>
+      </c>
+      <c r="I9" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>211.1150263212341</v>
+      </c>
+      <c r="J9" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>26.389378290154262</v>
+      </c>
+      <c r="K9" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.65 .. 28.7 --&gt;</v>
-      </c>
-      <c r="L6" t="str">
+        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.43 .. 30 --&gt;</v>
+      </c>
+      <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.65 .. 28.7 --&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.43 .. 30 --&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
         <f>1-Table2[constF1]*Table2[range]</f>
-        <v>0.90000009999999997</v>
-      </c>
-      <c r="B7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B10">
         <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
-        <v>0.96</v>
-      </c>
-      <c r="C7">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="C10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>4.9500005499999995</v>
-      </c>
-      <c r="D7">
+        <v>4.6875</v>
+      </c>
+      <c r="D10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>9.900001099999999</v>
-      </c>
-      <c r="E7">
+        <v>9.375</v>
+      </c>
+      <c r="E10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>19.800002199999998</v>
-      </c>
-      <c r="F7">
+        <v>18.75</v>
+      </c>
+      <c r="F10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>38.700004299999996</v>
-      </c>
-      <c r="G7" s="2">
-        <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>2.2275002474999996</v>
-      </c>
-      <c r="H7" s="2">
-        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
-        <v>17.415001934999996</v>
-      </c>
-      <c r="I7" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>152.31962688601124</v>
-      </c>
-      <c r="J7" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>19.482742973792135</v>
-      </c>
-      <c r="K7" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I10" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>168.89202105698726</v>
+      </c>
+      <c r="J10" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>21.111502632123408</v>
+      </c>
+      <c r="K10" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.96"/&gt; &lt;!-- 2.23 .. 38.7 --&gt;</v>
-      </c>
-      <c r="L7" t="str">
+        <v xml:space="preserve">        &lt;efficiency ratio="0.833333" factor="0.93"/&gt; &lt;!-- 1.79 .. 37.5 --&gt;</v>
+      </c>
+      <c r="L10" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.96"/&gt; &lt;!-- 2.23 .. 38.7 --&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v xml:space="preserve">        &lt;efficiency ratio="0.833333" factor="0.93"/&gt; &lt;!-- 1.79 .. 37.5 --&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <f>Table2[maxEff]</f>
         <v>0.98</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>5.5</v>
-      </c>
-      <c r="D8" s="5">
+        <v>5.625</v>
+      </c>
+      <c r="D11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>11</v>
-      </c>
-      <c r="E8">
+        <v>11.25</v>
+      </c>
+      <c r="E11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>22</v>
-      </c>
-      <c r="F8" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="F11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>43</v>
-      </c>
-      <c r="G8" s="2">
-        <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
-        <v>19.350000000000001</v>
-      </c>
-      <c r="I8" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>137.0876794293728</v>
-      </c>
-      <c r="J8" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>17.53447062468722</v>
-      </c>
-      <c r="K8" t="str">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="I11" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>140.74335088082273</v>
+      </c>
+      <c r="J11" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>17.592918860102841</v>
+      </c>
+      <c r="K11" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.48 .. 43 --&gt;</v>
-      </c>
-      <c r="L8" t="str">
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.14 .. 45 --&gt;</v>
+      </c>
+      <c r="L11" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.48 .. 43 --&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.14 .. 45 --&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
         <f>1+Table2[constF1]*Table2[range]</f>
-        <v>1.0999999</v>
-      </c>
-      <c r="B9">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="B12">
         <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
-        <v>0.96</v>
-      </c>
-      <c r="C9">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="C12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>6.0499994500000005</v>
-      </c>
-      <c r="D9">
+        <v>6.5625</v>
+      </c>
+      <c r="D12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>12.099998900000001</v>
-      </c>
-      <c r="E9">
+        <v>13.125</v>
+      </c>
+      <c r="E12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>24.199997800000002</v>
-      </c>
-      <c r="F9">
+        <v>26.25</v>
+      </c>
+      <c r="F12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>47.299995700000004</v>
-      </c>
-      <c r="G9" s="2">
-        <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>2.7224997525000005</v>
-      </c>
-      <c r="H9" s="2">
-        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
-        <v>21.284998065000003</v>
-      </c>
-      <c r="I9" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>124.62517444717294</v>
-      </c>
-      <c r="J9" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>15.940429289754677</v>
-      </c>
-      <c r="K9" t="str">
+        <v>52.5</v>
+      </c>
+      <c r="G12" s="1">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>20</v>
+      </c>
+      <c r="I12" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>120.63715789784807</v>
+      </c>
+      <c r="J12" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>15.079644737231009</v>
+      </c>
+      <c r="K12" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.96"/&gt; &lt;!-- 2.72 .. 47.3 --&gt;</v>
-      </c>
-      <c r="L9" t="str">
+        <v xml:space="preserve">        &lt;efficiency ratio="1.166667" factor="0.93"/&gt; &lt;!-- 2.5 .. 52.5 --&gt;</v>
+      </c>
+      <c r="L12" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.96"/&gt; &lt;!-- 2.72 .. 47.3 --&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v xml:space="preserve">        &lt;efficiency ratio="1.166667" factor="0.93"/&gt; &lt;!-- 2.5 .. 52.5 --&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
         <f>1+Table2[range]</f>
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="B10">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="B13">
         <f>Table2[minEff]</f>
         <v>0.88</v>
       </c>
-      <c r="C10">
+      <c r="C13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>7.3333315000000008</v>
-      </c>
-      <c r="D10">
+        <v>7.5</v>
+      </c>
+      <c r="D13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>14.666663000000002</v>
-      </c>
-      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>29.333326000000003</v>
-      </c>
-      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>57.333319000000003</v>
-      </c>
-      <c r="G10" s="2">
-        <f>Table1[[#This Row],[speed1]]*Table2[idle]/Table2[rated]</f>
-        <v>3.2999991750000004</v>
-      </c>
-      <c r="H10" s="2">
-        <f>Table1[[#This Row],[speed4]]*Table2[idle]/Table2[rated]</f>
-        <v>25.799993550000003</v>
-      </c>
-      <c r="I10" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>102.8157852759759</v>
-      </c>
-      <c r="J10" s="1">
-        <f>Table2[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>13.150856256229476</v>
-      </c>
-      <c r="K10" t="str">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="I13" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>105.55751316061705</v>
+      </c>
+      <c r="J13" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>13.194689145077131</v>
+      </c>
+      <c r="K13" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 3.3 .. 57.3 --&gt;</v>
-      </c>
-      <c r="L10" t="str">
+        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 2.86 .. 60 --&gt;</v>
+      </c>
+      <c r="L13" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 3.3 .. 57.3 --&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L11" t="s">
+        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 2.86 .. 60 --&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F13">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</f>
-        <v>5.5</v>
-      </c>
-      <c r="G13">
-        <f>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="H13">
-        <f>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
-        <v>1.650000825</v>
-      </c>
-      <c r="I13">
-        <f>$A$6*Table3[[#This Row],[speed]]</f>
-        <v>3.6666685000000001</v>
-      </c>
-      <c r="J13">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>7.3333315000000008</v>
-      </c>
-      <c r="K13" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="5.5" name=""/&gt; &lt;!-- 0.05 1.65 4 7--&gt;</v>
-      </c>
-      <c r="L13" s="5" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="5.5" name=""/&gt; &lt;!-- 0.05 1.65 4 7--&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</f>
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <f>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="H14">
-        <f>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
-        <v>3.30000165</v>
-      </c>
-      <c r="I14">
-        <f>$A$6*Table3[[#This Row],[speed]]</f>
-        <v>7.3333370000000002</v>
-      </c>
-      <c r="J14">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>14.666663000000002</v>
-      </c>
-      <c r="K14" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="11" name=""/&gt; &lt;!-- 0.1 3.3 7 15--&gt;</v>
-      </c>
-      <c r="L14" s="5" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="11" name=""/&gt; &lt;!-- 0.1 3.3 7 15--&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</f>
-        <v>22</v>
-      </c>
-      <c r="G15">
-        <f>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="H15">
-        <f>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
-        <v>6.6000033</v>
-      </c>
-      <c r="I15">
-        <f>$A$6*Table3[[#This Row],[speed]]</f>
-        <v>14.666674</v>
-      </c>
-      <c r="J15">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>29.333326000000003</v>
-      </c>
-      <c r="K15" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="22" name=""/&gt; &lt;!-- 0.2 6.6 15 29--&gt;</v>
-      </c>
-      <c r="L15" s="5" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="22" name=""/&gt; &lt;!-- 0.2 6.6 15 29--&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]]+1)</f>
-        <v>43</v>
-      </c>
-      <c r="G16">
-        <f>$A$5*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
-        <v>0.39090909090909104</v>
-      </c>
-      <c r="H16">
-        <f>$A$6*Table3[[#This Row],[speed]]*Table2[idle]/Table2[rated]</f>
-        <v>12.900006450000001</v>
-      </c>
-      <c r="I16">
-        <f>$A$6*Table3[[#This Row],[speed]]</f>
-        <v>28.666681000000001</v>
-      </c>
-      <c r="J16">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>57.333319000000003</v>
+      <c r="F16" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>5.625</v>
+      </c>
+      <c r="G16" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="1">
+        <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>1.4285714285714288</v>
+      </c>
+      <c r="I16" s="1">
+        <f>$A$9*Table3[[#This Row],[speed]]</f>
+        <v>3.7500000000000004</v>
+      </c>
+      <c r="J16" s="1">
+        <f>$A$13*Table3[[#This Row],[speed]]</f>
+        <v>7.5</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="43" name=""/&gt; &lt;!-- 0.39 12.9 29 57--&gt;</v>
-      </c>
-      <c r="L16" s="5" t="str">
+        <v xml:space="preserve">        &lt;gear speed="5.63" name=""/&gt; &lt;!-- 0.05 1.43 4 8--&gt;</v>
+      </c>
+      <c r="L16" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="43" name=""/&gt; &lt;!-- 0.39 12.9 29 57--&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
+        <v xml:space="preserve">        &lt;gear speed="5.63" name=""/&gt; &lt;!-- 0.05 1.43 4 8--&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>11.25</v>
+      </c>
+      <c r="G17" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="1">
+        <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>2.8571428571428577</v>
+      </c>
+      <c r="I17" s="1">
+        <f>$A$9*Table3[[#This Row],[speed]]</f>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="J17" s="1">
+        <f>$A$13*Table3[[#This Row],[speed]]</f>
+        <v>15</v>
+      </c>
+      <c r="K17" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="11.25" name=""/&gt; &lt;!-- 0.1 2.86 8 15--&gt;</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="11.25" name=""/&gt; &lt;!-- 0.1 2.86 8 15--&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>22.5</v>
+      </c>
+      <c r="G18" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="1">
+        <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>5.7142857142857153</v>
+      </c>
+      <c r="I18" s="1">
+        <f>$A$9*Table3[[#This Row],[speed]]</f>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="J18" s="1">
+        <f>$A$13*Table3[[#This Row],[speed]]</f>
+        <v>30</v>
+      </c>
+      <c r="K18" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="22.5" name=""/&gt; &lt;!-- 0.2 5.71 15 30--&gt;</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="22.5" name=""/&gt; &lt;!-- 0.2 5.71 15 30--&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>45</v>
+      </c>
+      <c r="G19" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="1">
+        <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>11.428571428571431</v>
+      </c>
+      <c r="I19" s="1">
+        <f>$A$9*Table3[[#This Row],[speed]]</f>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="J19" s="1">
+        <f>$A$13*Table3[[#This Row],[speed]]</f>
+        <v>60</v>
+      </c>
+      <c r="K19" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="45" name=""/&gt; &lt;!-- 0.4 11.43 30 60--&gt;</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="45" name=""/&gt; &lt;!-- 0.4 11.43 30 60--&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L18" t="s">
-        <v>36</v>
-      </c>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <f>C8</f>
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="B24">
+        <f>B8</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f t="shared" ref="A25:A29" si="0">C9</f>
+        <v>3.7500000000000004</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B29" si="1">B9</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6875</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>5.625</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5625</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" ref="A30:A34" si="2">D9</f>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:B34" si="3">B9</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="2"/>
+        <v>11.25</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="2"/>
+        <v>13.125</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" ref="A35:A39" si="4">E9</f>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:B39" si="5">B9</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f t="shared" si="4"/>
+        <v>18.75</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="5"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <f t="shared" si="4"/>
+        <v>26.25</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="5"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <f>F9</f>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40:B44" si="6">B9</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <f>F10</f>
+        <v>37.5</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="6"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f>F11</f>
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <f>F12</f>
+        <v>52.5</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="6"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f>F13</f>
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="6"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="5">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23190" yWindow="0" windowWidth="13200" windowHeight="11520"/>
+    <workbookView xWindow="24645" yWindow="0" windowWidth="13200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,23 +233,6 @@
   <dxfs count="32">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -343,6 +326,23 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -567,22 +567,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>6.4353333333333337E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,22 +594,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.13125000000000001</c:v>
+                  <c:v>0.11666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7500000000000004</c:v>
+                  <c:v>10.877447425670777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6875</c:v>
+                  <c:v>14.503263234227703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.625</c:v>
+                  <c:v>18.129079042784628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5625</c:v>
+                  <c:v>21.754894851341554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5</c:v>
+                  <c:v>25.38071065989848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,22 +661,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>6.4353333333333337E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,22 +688,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>0.27222222222222225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.000000000000004</c:v>
+                  <c:v>25.38071065989848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.5</c:v>
+                  <c:v>33.840947546531304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>42.301184433164131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.5</c:v>
+                  <c:v>50.761421319796959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>59.22165820642978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,22 +755,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>6.4353333333333337E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,22 +782,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.05</c:v>
+                  <c:v>5.000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4285714285714288</c:v>
+                  <c:v>4.6617631824303336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7857142857142858</c:v>
+                  <c:v>6.2156842432404442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1428571428571428</c:v>
+                  <c:v>7.7696053040505557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>9.3235263648606672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8571428571428572</c:v>
+                  <c:v>10.877447425670777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,22 +849,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>6.4353333333333337E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,22 +876,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>0.4</c:v>
+                  <c:v>0.11666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.428571428571431</c:v>
+                  <c:v>10.877447425670777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.285714285714286</c:v>
+                  <c:v>14.503263234227701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.142857142857142</c:v>
+                  <c:v>18.129079042784628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>21.754894851341554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.857142857142858</c:v>
+                  <c:v>25.38071065989848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,8 +906,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="394241208"/>
-        <c:axId val="394239248"/>
+        <c:axId val="366496448"/>
+        <c:axId val="366494488"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -957,22 +957,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>6.4353333333333337E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +984,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88</c:v>
@@ -1014,11 +1014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="394238464"/>
-        <c:axId val="394239640"/>
+        <c:axId val="366497624"/>
+        <c:axId val="366497232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="394241208"/>
+        <c:axId val="366496448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,12 +1075,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394239248"/>
+        <c:crossAx val="366494488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="394239248"/>
+        <c:axId val="366494488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1138,12 +1138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394241208"/>
+        <c:crossAx val="366496448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="394239640"/>
+        <c:axId val="366497232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,12 +1186,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394238464"/>
+        <c:crossAx val="366497624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="394238464"/>
+        <c:axId val="366497624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="394239640"/>
+        <c:crossAx val="366497232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1378,67 +1378,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.13125000000000001</c:v>
+                  <c:v>0.11666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7500000000000004</c:v>
+                  <c:v>10.877447425670777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6875</c:v>
+                  <c:v>14.503263234227703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.625</c:v>
+                  <c:v>18.129079042784628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5625</c:v>
+                  <c:v>21.754894851341554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5</c:v>
+                  <c:v>25.38071065989848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5000000000000009</c:v>
+                  <c:v>10.877447425670777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.375</c:v>
+                  <c:v>14.503263234227703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.25</c:v>
+                  <c:v>18.129079042784628</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.125</c:v>
+                  <c:v>21.754894851341554</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>25.38071065989848</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.000000000000002</c:v>
+                  <c:v>10.877447425670777</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.75</c:v>
+                  <c:v>14.503263234227703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.5</c:v>
+                  <c:v>18.129079042784628</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.25</c:v>
+                  <c:v>21.754894851341554</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>25.38071065989848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.000000000000004</c:v>
+                  <c:v>25.38071065989848</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.5</c:v>
+                  <c:v>33.840947546531304</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>42.301184433164131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52.5</c:v>
+                  <c:v>50.761421319796959</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60</c:v>
+                  <c:v>59.22165820642978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1450,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88</c:v>
@@ -1525,11 +1525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="431556064"/>
-        <c:axId val="431561552"/>
+        <c:axId val="366500760"/>
+        <c:axId val="366498408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="431556064"/>
+        <c:axId val="366500760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1587,12 +1587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431561552"/>
+        <c:crossAx val="366498408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="431561552"/>
+        <c:axId val="366498408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -1650,7 +1650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431556064"/>
+        <c:crossAx val="366500760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2933,21 +2933,21 @@
     </tableColumn>
     <tableColumn id="8" name="minEff" dataDxfId="16"/>
     <tableColumn id="9" name="maxEff" dataDxfId="15"/>
-    <tableColumn id="3" name="range" dataDxfId="1">
+    <tableColumn id="3" name="range" dataDxfId="14">
       <calculatedColumnFormula>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="zeroEff" dataDxfId="14">
+    <tableColumn id="10" name="zeroEff" dataDxfId="13">
       <calculatedColumnFormula>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="constF1" dataDxfId="13"/>
-    <tableColumn id="13" name="constF2" dataDxfId="12"/>
-    <tableColumn id="15" name="rpm40" dataDxfId="11">
+    <tableColumn id="12" name="constF1" dataDxfId="12"/>
+    <tableColumn id="13" name="constF2" dataDxfId="11"/>
+    <tableColumn id="15" name="rpm40" dataDxfId="10">
       <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="rpm50" dataDxfId="10">
+    <tableColumn id="16" name="rpm50" dataDxfId="9">
       <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="rpm60" dataDxfId="9">
+    <tableColumn id="17" name="rpm60" dataDxfId="8">
       <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2958,23 +2958,23 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E15:K19" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="gear" dataDxfId="8"/>
-    <tableColumn id="2" name="speed" dataDxfId="7">
+    <tableColumn id="1" name="gear" dataDxfId="7"/>
+    <tableColumn id="2" name="speed" dataDxfId="6">
       <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="minSpeed" dataDxfId="6">
+    <tableColumn id="9" name="minSpeed" dataDxfId="5">
       <calculatedColumnFormula>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed" dataDxfId="5">
+    <tableColumn id="6" name="idleSpeed" dataDxfId="4">
       <calculatedColumnFormula>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="fromSpeed" dataDxfId="4">
+    <tableColumn id="5" name="fromSpeed" dataDxfId="3">
       <calculatedColumnFormula>$A$9*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="toSpeed" dataDxfId="3">
+    <tableColumn id="4" name="toSpeed" dataDxfId="2">
       <calculatedColumnFormula>$A$13*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="xml" dataDxfId="2">
+    <tableColumn id="3" name="xml" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2990,7 +2990,9 @@
     <tableColumn id="2" name="rpm"/>
     <tableColumn id="3" name="idle"/>
     <tableColumn id="4" name="rated"/>
-    <tableColumn id="6" name="gear2gear"/>
+    <tableColumn id="6" name="gear2gear">
+      <calculatedColumnFormula>2+1/3</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" name="gears"/>
     <tableColumn id="5" name="zeroEff"/>
   </tableColumns>
@@ -3275,7 +3277,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L7" sqref="L7:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,22 +3318,23 @@
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>2100</v>
+        <v>1773</v>
       </c>
       <c r="D2">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E2">
         <v>2100</v>
       </c>
       <c r="F2">
+        <f>2+1/3</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G2">
         <v>2</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3381,23 +3384,23 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</f>
-        <v>5.625</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="B5" s="7">
         <f>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</f>
-        <v>11.25</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="C5" s="7">
         <f>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</f>
-        <v>22.5</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="D5" s="7">
         <f>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</f>
-        <v>45</v>
+        <v>42.301184433164131</v>
       </c>
       <c r="E5" s="8">
         <f>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</f>
-        <v>2.3333333333333334E-2</v>
+        <v>6.4353333333333337E-3</v>
       </c>
       <c r="F5" s="9">
         <v>0.88</v>
@@ -3407,11 +3410,11 @@
       </c>
       <c r="H5" s="9">
         <f>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="9">
         <f>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</f>
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="J5" s="9">
         <v>0.5</v>
@@ -3421,15 +3424,15 @@
       </c>
       <c r="L5" s="10">
         <f>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>1400</v>
+        <v>1418.3999999999999</v>
       </c>
       <c r="M5" s="10">
         <f>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>1750</v>
+        <v>1773</v>
       </c>
       <c r="N5" s="10">
         <f>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>2100</v>
+        <v>2127.6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3473,57 +3476,57 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f>Table2[minRatio]</f>
-        <v>2.3333333333333334E-2</v>
+        <v>6.4353333333333337E-3</v>
       </c>
       <c r="B8">
         <f>Table2[zeroEff]</f>
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="C8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>0.13125000000000001</v>
+        <v>0.11666666666666668</v>
       </c>
       <c r="D8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>0.26250000000000001</v>
+        <v>0.11666666666666668</v>
       </c>
       <c r="E8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>0.52500000000000002</v>
+        <v>0.11666666666666668</v>
       </c>
       <c r="F8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>1.05</v>
+        <v>0.27222222222222225</v>
       </c>
       <c r="G8" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>0.05</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="H8" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>0.4</v>
+        <v>0.11666666666666668</v>
       </c>
       <c r="I8" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>6031.8578948924032</v>
+        <v>6785.8401317539528</v>
       </c>
       <c r="J8" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>753.9822368615504</v>
+        <v>2908.2171993231227</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.023333" factor="0.68"/&gt; &lt;!-- 0.05 .. 1.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.006435" factor="0.73"/&gt; &lt;!-- 0.05 .. 0.3 --&gt;</v>
       </c>
       <c r="L8" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.023333" factor="0.68"/&gt; &lt;!-- 0.05 .. 1.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.006435" factor="0.73"/&gt; &lt;!-- 0.05 .. 0.3 --&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>1-Table2[range]</f>
-        <v>0.66666666666666674</v>
+        <v>0.6</v>
       </c>
       <c r="B9">
         <f>Table2[minEff]</f>
@@ -3531,49 +3534,49 @@
       </c>
       <c r="C9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>3.7500000000000004</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="D9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>7.5000000000000009</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="E9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>15.000000000000002</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="F9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>30.000000000000004</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="G9" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>1.4285714285714288</v>
+        <v>4.6617631824303336</v>
       </c>
       <c r="H9" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>11.428571428571431</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="I9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>211.1150263212341</v>
+        <v>72.781905324245457</v>
       </c>
       <c r="J9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>26.389378290154262</v>
+        <v>31.192245138962331</v>
       </c>
       <c r="K9" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.43 .. 30 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.6" factor="0.88"/&gt; &lt;!-- 4.66 .. 25.4 --&gt;</v>
       </c>
       <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.43 .. 30 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.6" factor="0.88"/&gt; &lt;!-- 4.66 .. 25.4 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>1-Table2[constF1]*Table2[range]</f>
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="B10">
         <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
@@ -3581,43 +3584,43 @@
       </c>
       <c r="C10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>4.6875</v>
+        <v>14.503263234227703</v>
       </c>
       <c r="D10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>9.375</v>
+        <v>14.503263234227703</v>
       </c>
       <c r="E10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>18.75</v>
+        <v>14.503263234227703</v>
       </c>
       <c r="F10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>37.5</v>
+        <v>33.840947546531304</v>
       </c>
       <c r="G10" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>1.7857142857142858</v>
+        <v>6.2156842432404442</v>
       </c>
       <c r="H10" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>14.285714285714286</v>
+        <v>14.503263234227701</v>
       </c>
       <c r="I10" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>168.89202105698726</v>
+        <v>54.586428993184086</v>
       </c>
       <c r="J10" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>21.111502632123408</v>
+        <v>23.394183854221755</v>
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.833333" factor="0.93"/&gt; &lt;!-- 1.79 .. 37.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 6.22 .. 33.8 --&gt;</v>
       </c>
       <c r="L10" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.833333" factor="0.93"/&gt; &lt;!-- 1.79 .. 37.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 6.22 .. 33.8 --&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3630,49 +3633,49 @@
       </c>
       <c r="C11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>5.625</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="D11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>11.25</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="E11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>22.5</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="F11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>45</v>
+        <v>42.301184433164131</v>
       </c>
       <c r="G11" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.1428571428571428</v>
+        <v>7.7696053040505557</v>
       </c>
       <c r="H11" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>17.142857142857142</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="I11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>140.74335088082273</v>
+        <v>43.669143194547267</v>
       </c>
       <c r="J11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>17.592918860102841</v>
+        <v>18.715347083377402</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.14 .. 45 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 7.77 .. 42.3 --&gt;</v>
       </c>
       <c r="L11" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.14 .. 45 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 7.77 .. 42.3 --&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>1+Table2[constF1]*Table2[range]</f>
-        <v>1.1666666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="B12">
         <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
@@ -3680,49 +3683,49 @@
       </c>
       <c r="C12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>6.5625</v>
+        <v>21.754894851341554</v>
       </c>
       <c r="D12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>13.125</v>
+        <v>21.754894851341554</v>
       </c>
       <c r="E12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>26.25</v>
+        <v>21.754894851341554</v>
       </c>
       <c r="F12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>52.5</v>
+        <v>50.761421319796959</v>
       </c>
       <c r="G12" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.5</v>
+        <v>9.3235263648606672</v>
       </c>
       <c r="H12" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>20</v>
+        <v>21.754894851341554</v>
       </c>
       <c r="I12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>120.63715789784807</v>
+        <v>36.390952662122729</v>
       </c>
       <c r="J12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>15.079644737231009</v>
+        <v>15.596122569481166</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.166667" factor="0.93"/&gt; &lt;!-- 2.5 .. 52.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.93"/&gt; &lt;!-- 9.32 .. 50.8 --&gt;</v>
       </c>
       <c r="L12" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.166667" factor="0.93"/&gt; &lt;!-- 2.5 .. 52.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.93"/&gt; &lt;!-- 9.32 .. 50.8 --&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>1+Table2[range]</f>
-        <v>1.3333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="B13">
         <f>Table2[minEff]</f>
@@ -3730,43 +3733,43 @@
       </c>
       <c r="C13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>7.5</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="D13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>15</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="E13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>30</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="F13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>60</v>
+        <v>59.22165820642978</v>
       </c>
       <c r="G13" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.8571428571428572</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="H13" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>22.857142857142858</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="I13" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>105.55751316061705</v>
+        <v>31.192245138962331</v>
       </c>
       <c r="J13" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>13.194689145077131</v>
+        <v>13.368105059555287</v>
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 2.86 .. 60 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.4" factor="0.88"/&gt; &lt;!-- 10.88 .. 59.2 --&gt;</v>
       </c>
       <c r="L13" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 2.86 .. 60 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.4" factor="0.88"/&gt; &lt;!-- 10.88 .. 59.2 --&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3806,31 +3809,31 @@
       </c>
       <c r="F16" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>5.625</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="G16" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.05</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="H16" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>1.4285714285714288</v>
+        <v>4.6617631824303336</v>
       </c>
       <c r="I16" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>3.7500000000000004</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="J16" s="1">
         <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>7.5</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="5.63" name=""/&gt; &lt;!-- 0.05 1.43 4 8--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
       </c>
       <c r="L16" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="5.63" name=""/&gt; &lt;!-- 0.05 1.43 4 8--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3839,31 +3842,31 @@
       </c>
       <c r="F17" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>11.25</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="G17" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.1</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="H17" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>2.8571428571428577</v>
+        <v>4.6617631824303336</v>
       </c>
       <c r="I17" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>7.5000000000000009</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="J17" s="1">
         <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>15</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="11.25" name=""/&gt; &lt;!-- 0.1 2.86 8 15--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
       </c>
       <c r="L17" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="11.25" name=""/&gt; &lt;!-- 0.1 2.86 8 15--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3872,31 +3875,31 @@
       </c>
       <c r="F18" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>22.5</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="G18" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.2</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="H18" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>5.7142857142857153</v>
+        <v>4.6617631824303336</v>
       </c>
       <c r="I18" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>15.000000000000002</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="J18" s="1">
         <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>30</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="22.5" name=""/&gt; &lt;!-- 0.2 5.71 15 30--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
       </c>
       <c r="L18" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="22.5" name=""/&gt; &lt;!-- 0.2 5.71 15 30--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3905,31 +3908,31 @@
       </c>
       <c r="F19" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>45</v>
+        <v>42.301184433164131</v>
       </c>
       <c r="G19" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.4</v>
+        <v>0.11666666666666668</v>
       </c>
       <c r="H19" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>11.428571428571431</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="I19" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>30.000000000000004</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="J19" s="1">
         <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>60</v>
+        <v>59.22165820642978</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="45" name=""/&gt; &lt;!-- 0.4 11.43 30 60--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="42.3" name=""/&gt; &lt;!-- 0.12 10.88 25 59--&gt;</v>
       </c>
       <c r="L19" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="45" name=""/&gt; &lt;!-- 0.4 11.43 30 60--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="42.3" name=""/&gt; &lt;!-- 0.12 10.88 25 59--&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3953,17 +3956,17 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f>C8</f>
-        <v>0.13125000000000001</v>
+        <v>0.11666666666666668</v>
       </c>
       <c r="B24">
         <f>B8</f>
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" ref="A25:A29" si="0">C9</f>
-        <v>3.7500000000000004</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B29" si="1">B9</f>
@@ -3973,7 +3976,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
-        <v>4.6875</v>
+        <v>14.503263234227703</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
@@ -3983,7 +3986,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
-        <v>5.625</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -3993,7 +3996,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
-        <v>6.5625</v>
+        <v>21.754894851341554</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
@@ -4003,7 +4006,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
@@ -4013,7 +4016,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" ref="A30:A34" si="2">D9</f>
-        <v>7.5000000000000009</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:B34" si="3">B9</f>
@@ -4023,7 +4026,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="2"/>
-        <v>9.375</v>
+        <v>14.503263234227703</v>
       </c>
       <c r="B31">
         <f t="shared" si="3"/>
@@ -4033,7 +4036,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="2"/>
-        <v>11.25</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
@@ -4043,7 +4046,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="2"/>
-        <v>13.125</v>
+        <v>21.754894851341554</v>
       </c>
       <c r="B33">
         <f t="shared" si="3"/>
@@ -4053,7 +4056,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
@@ -4063,7 +4066,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" ref="A35:A39" si="4">E9</f>
-        <v>15.000000000000002</v>
+        <v>10.877447425670777</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35:B39" si="5">B9</f>
@@ -4073,7 +4076,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="4"/>
-        <v>18.75</v>
+        <v>14.503263234227703</v>
       </c>
       <c r="B36">
         <f t="shared" si="5"/>
@@ -4083,7 +4086,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="4"/>
-        <v>22.5</v>
+        <v>18.129079042784628</v>
       </c>
       <c r="B37">
         <f t="shared" si="5"/>
@@ -4093,7 +4096,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="4"/>
-        <v>26.25</v>
+        <v>21.754894851341554</v>
       </c>
       <c r="B38">
         <f t="shared" si="5"/>
@@ -4103,7 +4106,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="B39">
         <f t="shared" si="5"/>
@@ -4113,7 +4116,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f>F9</f>
-        <v>30.000000000000004</v>
+        <v>25.38071065989848</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B44" si="6">B9</f>
@@ -4123,7 +4126,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f>F10</f>
-        <v>37.5</v>
+        <v>33.840947546531304</v>
       </c>
       <c r="B41">
         <f t="shared" si="6"/>
@@ -4133,7 +4136,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f>F11</f>
-        <v>45</v>
+        <v>42.301184433164131</v>
       </c>
       <c r="B42">
         <f t="shared" si="6"/>
@@ -4143,7 +4146,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f>F12</f>
-        <v>52.5</v>
+        <v>50.761421319796959</v>
       </c>
       <c r="B43">
         <f t="shared" si="6"/>
@@ -4153,7 +4156,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f>F13</f>
-        <v>60</v>
+        <v>59.22165820642978</v>
       </c>
       <c r="B44">
         <f t="shared" si="6"/>

--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24645" yWindow="0" windowWidth="13200" windowHeight="11520"/>
+    <workbookView xWindow="26100" yWindow="0" windowWidth="13200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t xml:space="preserve">      &lt;/gears&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">      &lt;reverse ratio="1" shiftTimeMs="0" /&gt;</t>
-  </si>
-  <si>
     <t>idleSpeed4</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;reverse ratio="1" shiftTimeMs="1000" /&gt;</t>
   </si>
 </sst>
 </file>
@@ -567,22 +567,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>6.4353333333333337E-3</c:v>
+                  <c:v>2.4888888888888891E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,19 +597,19 @@
                   <c:v>0.11666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.877447425670777</c:v>
+                  <c:v>3.1250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.503263234227703</c:v>
+                  <c:v>3.90625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.129079042784628</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.754894851341554</c:v>
+                  <c:v>5.46875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.38071065989848</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,22 +661,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>6.4353333333333337E-3</c:v>
+                  <c:v>2.4888888888888891E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,22 +688,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.27222222222222225</c:v>
+                  <c:v>0.93333333333333346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.38071065989848</c:v>
+                  <c:v>25.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.840947546531304</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.301184433164131</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.761421319796959</c:v>
+                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.22165820642978</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,22 +755,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>6.4353333333333337E-3</c:v>
+                  <c:v>2.4888888888888891E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,19 +785,19 @@
                   <c:v>5.000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6617631824303336</c:v>
+                  <c:v>1.3392857142857144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2156842432404442</c:v>
+                  <c:v>1.6741071428571428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7696053040505557</c:v>
+                  <c:v>2.0089285714285716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3235263648606672</c:v>
+                  <c:v>2.34375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.877447425670777</c:v>
+                  <c:v>2.6785714285714284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,22 +849,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>6.4353333333333337E-3</c:v>
+                  <c:v>2.4888888888888891E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,22 +876,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>0.11666666666666668</c:v>
+                  <c:v>0.40000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.877447425670777</c:v>
+                  <c:v>10.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.503263234227701</c:v>
+                  <c:v>13.392857142857142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.129079042784628</c:v>
+                  <c:v>16.071428571428573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.754894851341554</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.38071065989848</c:v>
+                  <c:v>21.428571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,8 +906,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="366496448"/>
-        <c:axId val="366494488"/>
+        <c:axId val="137211096"/>
+        <c:axId val="137211488"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -957,22 +957,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.00000">
-                  <c:v>6.4353333333333337E-3</c:v>
+                  <c:v>2.4888888888888891E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +984,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.73</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88</c:v>
@@ -1014,11 +1014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="366497624"/>
-        <c:axId val="366497232"/>
+        <c:axId val="137207960"/>
+        <c:axId val="137210312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="366496448"/>
+        <c:axId val="137211096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,12 +1075,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366494488"/>
+        <c:crossAx val="137211488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366494488"/>
+        <c:axId val="137211488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1138,12 +1138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366496448"/>
+        <c:crossAx val="137211096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366497232"/>
+        <c:axId val="137210312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,12 +1186,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366497624"/>
+        <c:crossAx val="137207960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366497624"/>
+        <c:axId val="137207960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="366497232"/>
+        <c:crossAx val="137210312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1381,64 +1381,64 @@
                   <c:v>0.11666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.877447425670777</c:v>
+                  <c:v>3.1250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.503263234227703</c:v>
+                  <c:v>3.90625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.129079042784628</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.754894851341554</c:v>
+                  <c:v>5.46875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.38071065989848</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.877447425670777</c:v>
+                  <c:v>6.2500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.503263234227703</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.129079042784628</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.754894851341554</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.38071065989848</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.877447425670777</c:v>
+                  <c:v>12.500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.503263234227703</c:v>
+                  <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.129079042784628</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.754894851341554</c:v>
+                  <c:v>21.875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.38071065989848</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.38071065989848</c:v>
+                  <c:v>25.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.840947546531304</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.301184433164131</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.761421319796959</c:v>
+                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.22165820642978</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1450,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.73</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88</c:v>
@@ -1525,11 +1525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="366500760"/>
-        <c:axId val="366498408"/>
+        <c:axId val="137209920"/>
+        <c:axId val="137208352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="366500760"/>
+        <c:axId val="137209920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1587,12 +1587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366498408"/>
+        <c:crossAx val="137208352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366498408"/>
+        <c:axId val="137208352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -1650,7 +1650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366500760"/>
+        <c:crossAx val="137209920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2990,9 +2990,7 @@
     <tableColumn id="2" name="rpm"/>
     <tableColumn id="3" name="idle"/>
     <tableColumn id="4" name="rated"/>
-    <tableColumn id="6" name="gear2gear">
-      <calculatedColumnFormula>2+1/3</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" name="gear2gear"/>
     <tableColumn id="7" name="gears"/>
     <tableColumn id="5" name="zeroEff"/>
   </tableColumns>
@@ -3277,7 +3275,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,10 +3290,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -3304,10 +3302,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
@@ -3321,7 +3319,7 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>1773</v>
+        <v>2100</v>
       </c>
       <c r="D2">
         <v>900</v>
@@ -3330,11 +3328,10 @@
         <v>2100</v>
       </c>
       <c r="F2">
-        <f>2+1/3</f>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3384,23 +3381,23 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</f>
-        <v>18.129079042784628</v>
+        <v>4.6875</v>
       </c>
       <c r="B5" s="7">
         <f>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</f>
-        <v>18.129079042784628</v>
+        <v>9.375</v>
       </c>
       <c r="C5" s="7">
         <f>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</f>
-        <v>18.129079042784628</v>
+        <v>18.75</v>
       </c>
       <c r="D5" s="7">
         <f>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</f>
-        <v>42.301184433164131</v>
+        <v>37.5</v>
       </c>
       <c r="E5" s="8">
         <f>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</f>
-        <v>6.4353333333333337E-3</v>
+        <v>2.4888888888888891E-2</v>
       </c>
       <c r="F5" s="9">
         <v>0.88</v>
@@ -3410,11 +3407,11 @@
       </c>
       <c r="H5" s="9">
         <f>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I5" s="9">
         <f>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</f>
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="J5" s="9">
         <v>0.5</v>
@@ -3424,15 +3421,15 @@
       </c>
       <c r="L5" s="10">
         <f>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>1418.3999999999999</v>
+        <v>1680</v>
       </c>
       <c r="M5" s="10">
         <f>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>1773</v>
+        <v>2100</v>
       </c>
       <c r="N5" s="10">
         <f>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>2127.6</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3458,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
@@ -3476,11 +3473,11 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f>Table2[minRatio]</f>
-        <v>6.4353333333333337E-3</v>
+        <v>2.4888888888888891E-2</v>
       </c>
       <c r="B8">
         <f>Table2[zeroEff]</f>
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="C8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
@@ -3488,15 +3485,15 @@
       </c>
       <c r="D8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>0.11666666666666668</v>
+        <v>0.23333333333333336</v>
       </c>
       <c r="E8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>0.11666666666666668</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="F8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>0.27222222222222225</v>
+        <v>0.93333333333333346</v>
       </c>
       <c r="G8" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
@@ -3504,7 +3501,7 @@
       </c>
       <c r="H8" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>0.11666666666666668</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="I8" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
@@ -3512,21 +3509,21 @@
       </c>
       <c r="J8" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>2908.2171993231227</v>
+        <v>848.23001646924411</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.006435" factor="0.73"/&gt; &lt;!-- 0.05 .. 0.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.024889" factor="0.68"/&gt; &lt;!-- 0.05 .. 0.9 --&gt;</v>
       </c>
       <c r="L8" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.006435" factor="0.73"/&gt; &lt;!-- 0.05 .. 0.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.024889" factor="0.68"/&gt; &lt;!-- 0.05 .. 0.9 --&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>1-Table2[range]</f>
-        <v>0.6</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="B9">
         <f>Table2[minEff]</f>
@@ -3534,49 +3531,49 @@
       </c>
       <c r="C9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>10.877447425670777</v>
+        <v>3.1250000000000004</v>
       </c>
       <c r="D9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>10.877447425670777</v>
+        <v>6.2500000000000009</v>
       </c>
       <c r="E9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>10.877447425670777</v>
+        <v>12.500000000000002</v>
       </c>
       <c r="F9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>25.38071065989848</v>
+        <v>25.000000000000004</v>
       </c>
       <c r="G9" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>4.6617631824303336</v>
+        <v>1.3392857142857144</v>
       </c>
       <c r="H9" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>10.877447425670777</v>
+        <v>10.714285714285715</v>
       </c>
       <c r="I9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>72.781905324245457</v>
+        <v>253.33803158548085</v>
       </c>
       <c r="J9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>31.192245138962331</v>
+        <v>31.667253948185106</v>
       </c>
       <c r="K9" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.6" factor="0.88"/&gt; &lt;!-- 4.66 .. 25.4 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.34 .. 25 --&gt;</v>
       </c>
       <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.6" factor="0.88"/&gt; &lt;!-- 4.66 .. 25.4 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.34 .. 25 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>1-Table2[constF1]*Table2[range]</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B10">
         <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
@@ -3584,43 +3581,43 @@
       </c>
       <c r="C10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>14.503263234227703</v>
+        <v>3.90625</v>
       </c>
       <c r="D10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>14.503263234227703</v>
+        <v>7.8125</v>
       </c>
       <c r="E10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>14.503263234227703</v>
+        <v>15.625</v>
       </c>
       <c r="F10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>33.840947546531304</v>
+        <v>31.25</v>
       </c>
       <c r="G10" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>6.2156842432404442</v>
+        <v>1.6741071428571428</v>
       </c>
       <c r="H10" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>14.503263234227701</v>
+        <v>13.392857142857142</v>
       </c>
       <c r="I10" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>54.586428993184086</v>
+        <v>202.67042526838472</v>
       </c>
       <c r="J10" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>23.394183854221755</v>
+        <v>25.33380315854809</v>
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 6.22 .. 33.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.833333" factor="0.93"/&gt; &lt;!-- 1.67 .. 31.3 --&gt;</v>
       </c>
       <c r="L10" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 6.22 .. 33.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.833333" factor="0.93"/&gt; &lt;!-- 1.67 .. 31.3 --&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3633,49 +3630,49 @@
       </c>
       <c r="C11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>18.129079042784628</v>
+        <v>4.6875</v>
       </c>
       <c r="D11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>18.129079042784628</v>
+        <v>9.375</v>
       </c>
       <c r="E11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>18.129079042784628</v>
+        <v>18.75</v>
       </c>
       <c r="F11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>42.301184433164131</v>
+        <v>37.5</v>
       </c>
       <c r="G11" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>7.7696053040505557</v>
+        <v>2.0089285714285716</v>
       </c>
       <c r="H11" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>18.129079042784628</v>
+        <v>16.071428571428573</v>
       </c>
       <c r="I11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>43.669143194547267</v>
+        <v>168.89202105698726</v>
       </c>
       <c r="J11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>18.715347083377402</v>
+        <v>21.111502632123408</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 7.77 .. 42.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.01 .. 37.5 --&gt;</v>
       </c>
       <c r="L11" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 7.77 .. 42.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.01 .. 37.5 --&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>1+Table2[constF1]*Table2[range]</f>
-        <v>1.2</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="B12">
         <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
@@ -3683,49 +3680,49 @@
       </c>
       <c r="C12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>21.754894851341554</v>
+        <v>5.46875</v>
       </c>
       <c r="D12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>21.754894851341554</v>
+        <v>10.9375</v>
       </c>
       <c r="E12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>21.754894851341554</v>
+        <v>21.875</v>
       </c>
       <c r="F12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>50.761421319796959</v>
+        <v>43.75</v>
       </c>
       <c r="G12" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>9.3235263648606672</v>
+        <v>2.34375</v>
       </c>
       <c r="H12" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>21.754894851341554</v>
+        <v>18.75</v>
       </c>
       <c r="I12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>36.390952662122729</v>
+        <v>144.76458947741767</v>
       </c>
       <c r="J12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>15.596122569481166</v>
+        <v>18.095573684677209</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.93"/&gt; &lt;!-- 9.32 .. 50.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.166667" factor="0.93"/&gt; &lt;!-- 2.34 .. 43.8 --&gt;</v>
       </c>
       <c r="L12" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.93"/&gt; &lt;!-- 9.32 .. 50.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.166667" factor="0.93"/&gt; &lt;!-- 2.34 .. 43.8 --&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>1+Table2[range]</f>
-        <v>1.4</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="B13">
         <f>Table2[minEff]</f>
@@ -3733,43 +3730,43 @@
       </c>
       <c r="C13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>25.38071065989848</v>
+        <v>6.25</v>
       </c>
       <c r="D13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>25.38071065989848</v>
+        <v>12.5</v>
       </c>
       <c r="E13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>25.38071065989848</v>
+        <v>25</v>
       </c>
       <c r="F13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>59.22165820642978</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>10.877447425670777</v>
+        <v>2.6785714285714284</v>
       </c>
       <c r="H13" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>25.38071065989848</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="I13" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>31.192245138962331</v>
+        <v>126.66901579274045</v>
       </c>
       <c r="J13" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>13.368105059555287</v>
+        <v>15.833626974092557</v>
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.4" factor="0.88"/&gt; &lt;!-- 10.88 .. 59.2 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 2.68 .. 50 --&gt;</v>
       </c>
       <c r="L13" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.4" factor="0.88"/&gt; &lt;!-- 10.88 .. 59.2 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 2.68 .. 50 --&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3788,7 +3785,7 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
         <v>29</v>
@@ -3809,7 +3806,7 @@
       </c>
       <c r="F16" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>18.129079042784628</v>
+        <v>4.6875</v>
       </c>
       <c r="G16" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
@@ -3817,23 +3814,23 @@
       </c>
       <c r="H16" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>4.6617631824303336</v>
+        <v>1.3392857142857144</v>
       </c>
       <c r="I16" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>10.877447425670777</v>
+        <v>3.1250000000000004</v>
       </c>
       <c r="J16" s="1">
         <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>25.38071065989848</v>
+        <v>6.25</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="4.69" name=""/&gt; &lt;!-- 0.05 1.34 3 6--&gt;</v>
       </c>
       <c r="L16" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="4.69" name=""/&gt; &lt;!-- 0.05 1.34 3 6--&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3842,31 +3839,31 @@
       </c>
       <c r="F17" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>18.129079042784628</v>
+        <v>9.375</v>
       </c>
       <c r="G17" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>5.000000000000001E-2</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="H17" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>4.6617631824303336</v>
+        <v>2.6785714285714288</v>
       </c>
       <c r="I17" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>10.877447425670777</v>
+        <v>6.2500000000000009</v>
       </c>
       <c r="J17" s="1">
         <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>25.38071065989848</v>
+        <v>12.5</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="9.38" name=""/&gt; &lt;!-- 0.1 2.68 6 13--&gt;</v>
       </c>
       <c r="L17" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="9.38" name=""/&gt; &lt;!-- 0.1 2.68 6 13--&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3875,31 +3872,31 @@
       </c>
       <c r="F18" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>18.129079042784628</v>
+        <v>18.75</v>
       </c>
       <c r="G18" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>5.000000000000001E-2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="H18" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>4.6617631824303336</v>
+        <v>5.3571428571428577</v>
       </c>
       <c r="I18" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>10.877447425670777</v>
+        <v>12.500000000000002</v>
       </c>
       <c r="J18" s="1">
         <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>25.38071065989848</v>
+        <v>25</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="18.75" name=""/&gt; &lt;!-- 0.2 5.36 13 25--&gt;</v>
       </c>
       <c r="L18" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="18.13" name=""/&gt; &lt;!-- 0.05 4.66 11 25--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="18.75" name=""/&gt; &lt;!-- 0.2 5.36 13 25--&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3908,31 +3905,31 @@
       </c>
       <c r="F19" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>42.301184433164131</v>
+        <v>37.5</v>
       </c>
       <c r="G19" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.11666666666666668</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="H19" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>10.877447425670777</v>
+        <v>10.714285714285715</v>
       </c>
       <c r="I19" s="1">
         <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>25.38071065989848</v>
+        <v>25.000000000000004</v>
       </c>
       <c r="J19" s="1">
         <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>59.22165820642978</v>
+        <v>50</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="42.3" name=""/&gt; &lt;!-- 0.12 10.88 25 59--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="37.5" name=""/&gt; &lt;!-- 0.4 10.71 25 50--&gt;</v>
       </c>
       <c r="L19" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="42.3" name=""/&gt; &lt;!-- 0.12 10.88 25 59--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="37.5" name=""/&gt; &lt;!-- 0.4 10.71 25 50--&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3942,15 +3939,15 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3960,13 +3957,13 @@
       </c>
       <c r="B24">
         <f>B8</f>
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" ref="A25:A29" si="0">C9</f>
-        <v>10.877447425670777</v>
+        <v>3.1250000000000004</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B29" si="1">B9</f>
@@ -3976,7 +3973,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
-        <v>14.503263234227703</v>
+        <v>3.90625</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
@@ -3986,7 +3983,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
-        <v>18.129079042784628</v>
+        <v>4.6875</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -3996,7 +3993,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
-        <v>21.754894851341554</v>
+        <v>5.46875</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
@@ -4006,7 +4003,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
-        <v>25.38071065989848</v>
+        <v>6.25</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
@@ -4016,7 +4013,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" ref="A30:A34" si="2">D9</f>
-        <v>10.877447425670777</v>
+        <v>6.2500000000000009</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:B34" si="3">B9</f>
@@ -4026,7 +4023,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="2"/>
-        <v>14.503263234227703</v>
+        <v>7.8125</v>
       </c>
       <c r="B31">
         <f t="shared" si="3"/>
@@ -4036,7 +4033,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="2"/>
-        <v>18.129079042784628</v>
+        <v>9.375</v>
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
@@ -4046,7 +4043,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="2"/>
-        <v>21.754894851341554</v>
+        <v>10.9375</v>
       </c>
       <c r="B33">
         <f t="shared" si="3"/>
@@ -4056,7 +4053,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="2"/>
-        <v>25.38071065989848</v>
+        <v>12.5</v>
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
@@ -4066,7 +4063,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" ref="A35:A39" si="4">E9</f>
-        <v>10.877447425670777</v>
+        <v>12.500000000000002</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35:B39" si="5">B9</f>
@@ -4076,7 +4073,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="4"/>
-        <v>14.503263234227703</v>
+        <v>15.625</v>
       </c>
       <c r="B36">
         <f t="shared" si="5"/>
@@ -4086,7 +4083,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="4"/>
-        <v>18.129079042784628</v>
+        <v>18.75</v>
       </c>
       <c r="B37">
         <f t="shared" si="5"/>
@@ -4096,7 +4093,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="4"/>
-        <v>21.754894851341554</v>
+        <v>21.875</v>
       </c>
       <c r="B38">
         <f t="shared" si="5"/>
@@ -4106,7 +4103,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="4"/>
-        <v>25.38071065989848</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <f t="shared" si="5"/>
@@ -4116,7 +4113,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f>F9</f>
-        <v>25.38071065989848</v>
+        <v>25.000000000000004</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B44" si="6">B9</f>
@@ -4126,7 +4123,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f>F10</f>
-        <v>33.840947546531304</v>
+        <v>31.25</v>
       </c>
       <c r="B41">
         <f t="shared" si="6"/>
@@ -4136,7 +4133,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f>F11</f>
-        <v>42.301184433164131</v>
+        <v>37.5</v>
       </c>
       <c r="B42">
         <f t="shared" si="6"/>
@@ -4146,7 +4143,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f>F12</f>
-        <v>50.761421319796959</v>
+        <v>43.75</v>
       </c>
       <c r="B43">
         <f t="shared" si="6"/>
@@ -4156,7 +4153,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f>F13</f>
-        <v>59.22165820642978</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <f t="shared" si="6"/>

--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26100" yWindow="0" windowWidth="13200" windowHeight="11520"/>
+    <workbookView xWindow="27555" yWindow="0" windowWidth="13200" windowHeight="11520" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ZF" sheetId="1" r:id="rId1"/>
+    <sheet name="Fendt" sheetId="2" r:id="rId2"/>
+    <sheet name="Small" sheetId="4" r:id="rId3"/>
+    <sheet name="Combine" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>ratio</t>
   </si>
@@ -125,9 +128,6 @@
     <t xml:space="preserve">      &lt;/hydrostatic&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">      &lt;gears shiftTimeMs="-1" clutchRatio="1" defaultGear="1" reverseReset="false" automatic="true"&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">      &lt;/gears&gt;</t>
   </si>
   <si>
@@ -155,7 +155,16 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t xml:space="preserve">      &lt;reverse ratio="1" shiftTimeMs="1000" /&gt;</t>
+    <t xml:space="preserve">      &lt;gears automatic="true"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;reverse ratio="1"/&gt;</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +190,12 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -213,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -226,11 +241,261 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -527,7 +792,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$7</c:f>
+              <c:f>ZF!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -562,26 +827,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$13</c:f>
+              <c:f>ZF!$A$8:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.4888888888888891E-2</c:v>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.21522222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.66666666666666674</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -589,27 +863,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$13</c:f>
+              <c:f>ZF!$C$8:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.11666666666666668</c:v>
+                  <c:v>0.13125000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1250000000000004</c:v>
+                  <c:v>1.3451388888888891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.90625</c:v>
+                  <c:v>4.1666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6875</c:v>
+                  <c:v>4.8611111111111116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.46875</c:v>
+                  <c:v>5.5555555555555562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25</c:v>
+                  <c:v>6.2500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9444444444444455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6388888888888902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +904,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$7</c:f>
+              <c:f>ZF!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -656,26 +939,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$13</c:f>
+              <c:f>ZF!$A$8:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.4888888888888891E-2</c:v>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.21522222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.66666666666666674</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -683,27 +975,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$13</c:f>
+              <c:f>ZF!$F$8:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.93333333333333346</c:v>
+                  <c:v>1.0500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.000000000000004</c:v>
+                  <c:v>10.761111111111113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.25</c:v>
+                  <c:v>33.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.5</c:v>
+                  <c:v>38.888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.75</c:v>
+                  <c:v>44.44444444444445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.555555555555564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.111111111111121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.666666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +1016,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$7</c:f>
+              <c:f>ZF!$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -750,26 +1051,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$13</c:f>
+              <c:f>ZF!$A$8:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.4888888888888891E-2</c:v>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.21522222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.66666666666666674</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -777,27 +1087,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$8:$G$13</c:f>
+              <c:f>ZF!$G$8:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.0000">
-                  <c:v>5.000000000000001E-2</c:v>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3392857142857144</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6741071428571428</c:v>
+                  <c:v>0.51243386243386257</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>1.5873015873015879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0089285714285716</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.34375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6785714285714284</c:v>
+                  <c:v>1.8518518518518521</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>2.1164021164021167</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>2.3809523809523814</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>2.645502645502646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9100529100529107</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>3.1746031746031749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +1128,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$7</c:f>
+              <c:f>ZF!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -844,26 +1163,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$13</c:f>
+              <c:f>ZF!$A$8:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.4888888888888891E-2</c:v>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.21522222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.66666666666666674</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -871,27 +1199,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$8:$H$13</c:f>
+              <c:f>ZF!$H$8:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000">
-                  <c:v>0.40000000000000008</c:v>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.40000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.392857142857142</c:v>
+                  <c:v>4.0994708994709006</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>12.698412698412703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.071428571428573</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.428571428571427</c:v>
+                  <c:v>14.814814814814817</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>16.931216931216934</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>19.047619047619051</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>21.164021164021168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.280423280423285</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>25.396825396825399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,8 +1243,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137211096"/>
-        <c:axId val="137211488"/>
+        <c:axId val="374054264"/>
+        <c:axId val="374055048"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -917,7 +1254,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>ZF!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -952,26 +1289,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$13</c:f>
+              <c:f>ZF!$A$8:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.4888888888888891E-2</c:v>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.21522222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.66666666666666674</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -979,27 +1325,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$13</c:f>
+              <c:f>ZF!$B$8:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92999999999999994</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88</c:v>
+                <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,11 +1369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137207960"/>
-        <c:axId val="137210312"/>
+        <c:axId val="374057400"/>
+        <c:axId val="374056616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137211096"/>
+        <c:axId val="374054264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,12 +1430,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137211488"/>
+        <c:crossAx val="374055048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137211488"/>
+        <c:axId val="374055048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1138,12 +1493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137211096"/>
+        <c:crossAx val="374054264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137210312"/>
+        <c:axId val="374056616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,12 +1541,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137207960"/>
+        <c:crossAx val="374057400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137207960"/>
+        <c:axId val="374057400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137210312"/>
+        <c:crossAx val="374056616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1338,7 +1693,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$23</c:f>
+              <c:f>ZF!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1373,144 +1728,168 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$44</c:f>
+              <c:f>ZF!$A$27:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.11666666666666668</c:v>
+                  <c:v>0.13125000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1250000000000004</c:v>
+                  <c:v>4.1666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.90625</c:v>
+                  <c:v>4.8611111111111116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6875</c:v>
+                  <c:v>5.5555555555555562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.46875</c:v>
+                  <c:v>6.2500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25</c:v>
+                  <c:v>6.9444444444444455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2500000000000009</c:v>
+                  <c:v>7.6388888888888902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8125</c:v>
+                  <c:v>8.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.375</c:v>
+                  <c:v>9.7222222222222232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.9375</c:v>
+                  <c:v>11.111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.5</c:v>
+                  <c:v>12.500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.500000000000002</c:v>
+                  <c:v>13.888888888888891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.625</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.75</c:v>
+                  <c:v>16.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.875</c:v>
+                  <c:v>19.444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>22.222222222222225</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>25.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.25</c:v>
+                  <c:v>27.777777777777782</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.5</c:v>
+                  <c:v>33.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.75</c:v>
+                  <c:v>33.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>38.888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.44444444444445</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.555555555555564</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66.666666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$B$44</c:f>
+              <c:f>ZF!$B$27:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92999999999999994</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92999999999999994</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92999999999999994</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.88</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92999999999999994</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.92999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92999999999999994</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.92999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.88</c:v>
+                <c:pt idx="23">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,11 +1904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137209920"/>
-        <c:axId val="137208352"/>
+        <c:axId val="374058576"/>
+        <c:axId val="409636744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137209920"/>
+        <c:axId val="374058576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1587,12 +1966,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137208352"/>
+        <c:crossAx val="409636744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137208352"/>
+        <c:axId val="409636744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -1650,7 +2029,982 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137209920"/>
+        <c:crossAx val="374058576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fendt!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fendt!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3333333000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fendt!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417093544"/>
+        <c:axId val="417091976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417093544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417091976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417091976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417093544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Small!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Small!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Small!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="374222488"/>
+        <c:axId val="374211904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="374222488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374211904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="374211904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374222488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combine!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Combine!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Combine!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417119536"/>
+        <c:axId val="417115616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417119536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417115616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417115616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417119536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1779,6 +3133,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2296,6 +3770,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2817,13 +5839,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2846,15 +5868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2876,36 +5898,147 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K16" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" name="ratio"/>
     <tableColumn id="2" name="factor"/>
-    <tableColumn id="3" name="speed1" dataDxfId="31">
+    <tableColumn id="3" name="speed1" dataDxfId="45">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s1]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="speed2" dataDxfId="30">
+    <tableColumn id="11" name="speed2" dataDxfId="44">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="speed3" dataDxfId="29">
+    <tableColumn id="10" name="speed3" dataDxfId="43">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s3]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="speed4" dataDxfId="28">
+    <tableColumn id="4" name="speed4" dataDxfId="42">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s4]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="idleSpeed1" dataDxfId="27">
+    <tableColumn id="7" name="idleSpeed1" dataDxfId="41">
       <calculatedColumnFormula>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed4" dataDxfId="26">
+    <tableColumn id="6" name="idleSpeed4" dataDxfId="40">
       <calculatedColumnFormula>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ratio1" dataDxfId="25">
+    <tableColumn id="9" name="ratio1" dataDxfId="39">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ratio2" dataDxfId="24">
+    <tableColumn id="8" name="ratio2" dataDxfId="38">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="23">
+    <tableColumn id="5" name="xml" dataDxfId="37">
       <calculatedColumnFormula>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2914,40 +6047,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N5" totalsRowShown="0" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="36">
   <tableColumns count="14">
-    <tableColumn id="1" name="s1" dataDxfId="21">
+    <tableColumn id="1" name="s1" dataDxfId="35" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="s2" dataDxfId="20">
+    <tableColumn id="11" name="s2" dataDxfId="34" totalsRowDxfId="12">
       <calculatedColumnFormula>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="s3" dataDxfId="19">
+    <tableColumn id="14" name="s3" dataDxfId="33" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="s4" dataDxfId="18">
+    <tableColumn id="2" name="s4" dataDxfId="32" totalsRowDxfId="10">
       <calculatedColumnFormula>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="minRatio" dataDxfId="17">
+    <tableColumn id="6" name="minRatio" dataDxfId="31" totalsRowDxfId="9">
       <calculatedColumnFormula>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="minEff" dataDxfId="16"/>
-    <tableColumn id="9" name="maxEff" dataDxfId="15"/>
-    <tableColumn id="3" name="range" dataDxfId="14">
+    <tableColumn id="8" name="minEff" dataDxfId="30" totalsRowDxfId="8"/>
+    <tableColumn id="9" name="maxEff" dataDxfId="29" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="range" dataDxfId="28" totalsRowDxfId="6">
       <calculatedColumnFormula>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="zeroEff" dataDxfId="13">
+    <tableColumn id="10" name="zeroEff" dataDxfId="27" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="constF1" dataDxfId="12"/>
-    <tableColumn id="13" name="constF2" dataDxfId="11"/>
-    <tableColumn id="15" name="rpm40" dataDxfId="10">
+    <tableColumn id="12" name="constF1" dataDxfId="26" totalsRowDxfId="4"/>
+    <tableColumn id="13" name="constF2" dataDxfId="25" totalsRowDxfId="3"/>
+    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="2">
       <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
+      <totalsRowFormula>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="rpm50" dataDxfId="9">
+    <tableColumn id="16" name="rpm50" dataDxfId="23" totalsRowDxfId="1">
       <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="rpm60" dataDxfId="8">
+    <tableColumn id="17" name="rpm60" dataDxfId="22" totalsRowDxfId="0">
       <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2956,25 +6090,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E15:K19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E18:K22" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="gear" dataDxfId="7"/>
-    <tableColumn id="2" name="speed" dataDxfId="6">
+    <tableColumn id="1" name="gear" dataDxfId="21"/>
+    <tableColumn id="2" name="speed" dataDxfId="20">
       <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="minSpeed" dataDxfId="5">
+    <tableColumn id="9" name="minSpeed" dataDxfId="19">
       <calculatedColumnFormula>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed" dataDxfId="4">
-      <calculatedColumnFormula>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
+    <tableColumn id="6" name="idleSpeed" dataDxfId="18">
+      <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="fromSpeed" dataDxfId="3">
-      <calculatedColumnFormula>$A$9*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    <tableColumn id="5" name="fromSpeed" dataDxfId="17">
+      <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="toSpeed" dataDxfId="2">
-      <calculatedColumnFormula>$A$13*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    <tableColumn id="4" name="toSpeed" dataDxfId="16">
+      <calculatedColumnFormula>$A$16*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="xml" dataDxfId="1">
+    <tableColumn id="3" name="xml" dataDxfId="15">
       <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2999,13 +6133,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A23:B44" totalsRowShown="0">
-  <autoFilter ref="A23:B44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A26:B51" totalsRowShown="0">
+  <autoFilter ref="A26:B51"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="km/h" dataDxfId="0"/>
+    <tableColumn id="1" name="km/h" dataDxfId="14"/>
     <tableColumn id="2" name="Efficiency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="r"/>
+    <tableColumn id="2" name="e"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table169" displayName="Table169" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="r"/>
+    <tableColumn id="2" name="e"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="r"/>
+    <tableColumn id="2" name="e"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3272,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3290,10 +6457,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -3302,10 +6469,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
@@ -3316,13 +6483,13 @@
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>2100</v>
+        <v>1890</v>
       </c>
       <c r="D2">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E2">
         <v>2100</v>
@@ -3381,23 +6548,23 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</f>
-        <v>4.6875</v>
+        <v>6.2500000000000009</v>
       </c>
       <c r="B5" s="7">
         <f>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</f>
-        <v>9.375</v>
+        <v>12.500000000000002</v>
       </c>
       <c r="C5" s="7">
         <f>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</f>
-        <v>18.75</v>
+        <v>25.000000000000004</v>
       </c>
       <c r="D5" s="7">
         <f>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</f>
-        <v>37.5</v>
+        <v>50.000000000000007</v>
       </c>
       <c r="E5" s="8">
         <f>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</f>
-        <v>2.4888888888888891E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F5" s="9">
         <v>0.88</v>
@@ -3421,16 +6588,35 @@
       </c>
       <c r="L5" s="10">
         <f>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>1680</v>
+        <v>1260</v>
       </c>
       <c r="M5" s="10">
         <f>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>2100</v>
+        <v>1575</v>
       </c>
       <c r="N5" s="10">
         <f>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>2520</v>
-      </c>
+        <v>1889.9999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15" t="str">
+        <f>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</f>
+        <v xml:space="preserve">      &lt;!-- 0.05..60 @1890 / 800..2100 / 2 --&gt;</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3455,7 +6641,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
@@ -3473,698 +6659,880 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f>Table2[minRatio]</f>
-        <v>2.4888888888888891E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="B8">
-        <f>Table2[zeroEff]</f>
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="C8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>0.11666666666666668</v>
+        <v>0.13125000000000003</v>
       </c>
       <c r="D8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>0.23333333333333336</v>
+        <v>0.26250000000000007</v>
       </c>
       <c r="E8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>0.46666666666666673</v>
+        <v>0.52500000000000013</v>
       </c>
       <c r="F8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>0.93333333333333346</v>
+        <v>1.0500000000000003</v>
       </c>
       <c r="G8" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>5.000000000000001E-2</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="H8" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>0.40000000000000008</v>
+        <v>0.40000000000000013</v>
       </c>
       <c r="I8" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>6785.8401317539528</v>
+        <v>6031.8578948924023</v>
       </c>
       <c r="J8" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>848.23001646924411</v>
+        <v>753.98223686155029</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.024889" factor="0.68"/&gt; &lt;!-- 0.05 .. 0.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.021" factor="0.3"/&gt; &lt;!-- 0.05 .. 1.1 --&gt;</v>
       </c>
       <c r="L8" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.024889" factor="0.68"/&gt; &lt;!-- 0.05 .. 0.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.021" factor="0.3"/&gt; &lt;!-- 0.05 .. 1.1 --&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>1-Table2[range]</f>
-        <v>0.66666666666666674</v>
+      <c r="A9" s="3">
+        <f>(1-Table2[range]-Table2[minRatio])/3</f>
+        <v>0.21522222222222223</v>
       </c>
       <c r="B9">
-        <f>Table2[minEff]</f>
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>3.1250000000000004</v>
+        <v>1.3451388888888891</v>
       </c>
       <c r="D9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>6.2500000000000009</v>
+        <v>2.6902777777777782</v>
       </c>
       <c r="E9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>12.500000000000002</v>
+        <v>5.3805555555555564</v>
       </c>
       <c r="F9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>25.000000000000004</v>
-      </c>
-      <c r="G9" s="1">
+        <v>10.761111111111113</v>
+      </c>
+      <c r="G9" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>1.3392857142857144</v>
-      </c>
-      <c r="H9" s="1">
+        <v>0.51243386243386257</v>
+      </c>
+      <c r="H9" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>10.714285714285715</v>
+        <v>4.0994708994709006</v>
       </c>
       <c r="I9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>253.33803158548085</v>
+        <v>588.54989268697159</v>
       </c>
       <c r="J9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>31.667253948185106</v>
-      </c>
-      <c r="K9" t="str">
+        <v>73.568736585871449</v>
+      </c>
+      <c r="K9" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.34 .. 25 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.215222" factor="0.5"/&gt; &lt;!-- 0.51 .. 10.8 --&gt;</v>
       </c>
       <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.88"/&gt; &lt;!-- 1.34 .. 25 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.215222" factor="0.5"/&gt; &lt;!-- 0.51 .. 10.8 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>1-Table2[constF1]*Table2[range]</f>
-        <v>0.83333333333333337</v>
+        <f>1-Table2[range]</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="B10">
-        <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
-        <v>0.92999999999999994</v>
+        <v>0.87</v>
       </c>
       <c r="C10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>3.90625</v>
+        <v>4.1666666666666679</v>
       </c>
       <c r="D10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>7.8125</v>
+        <v>8.3333333333333357</v>
       </c>
       <c r="E10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>15.625</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="F10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>31.25</v>
+        <v>33.333333333333343</v>
       </c>
       <c r="G10" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>1.6741071428571428</v>
+        <v>1.5873015873015879</v>
       </c>
       <c r="H10" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>13.392857142857142</v>
+        <v>12.698412698412703</v>
       </c>
       <c r="I10" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>202.67042526838472</v>
+        <v>190.00352368911066</v>
       </c>
       <c r="J10" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>25.33380315854809</v>
+        <v>23.750440461138833</v>
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.833333" factor="0.93"/&gt; &lt;!-- 1.67 .. 31.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.87"/&gt; &lt;!-- 1.59 .. 33.3 --&gt;</v>
       </c>
       <c r="L10" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.833333" factor="0.93"/&gt; &lt;!-- 1.67 .. 31.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.87"/&gt; &lt;!-- 1.59 .. 33.3 --&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <f>1-2/3*Table2[range]</f>
+        <v>0.77777777777777779</v>
       </c>
       <c r="B11">
-        <f>Table2[maxEff]</f>
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="C11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>4.6875</v>
+        <v>4.8611111111111116</v>
       </c>
       <c r="D11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>9.375</v>
+        <v>9.7222222222222232</v>
       </c>
       <c r="E11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>18.75</v>
+        <v>19.444444444444446</v>
       </c>
       <c r="F11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>37.5</v>
-      </c>
-      <c r="G11" s="1">
+        <v>38.888888888888893</v>
+      </c>
+      <c r="G11" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.0089285714285716</v>
-      </c>
-      <c r="H11" s="1">
+        <v>1.8518518518518521</v>
+      </c>
+      <c r="H11" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>16.071428571428573</v>
+        <v>14.814814814814817</v>
       </c>
       <c r="I11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>168.89202105698726</v>
+        <v>162.86016316209486</v>
       </c>
       <c r="J11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>21.111502632123408</v>
-      </c>
-      <c r="K11" t="str">
+        <v>20.357520395261858</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.01 .. 37.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.777778" factor="0.93"/&gt; &lt;!-- 1.85 .. 38.9 --&gt;</v>
       </c>
       <c r="L11" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.01 .. 37.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.777778" factor="0.93"/&gt; &lt;!-- 1.85 .. 38.9 --&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>1+Table2[constF1]*Table2[range]</f>
-        <v>1.1666666666666667</v>
+        <f>1-Table2[range]/3</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="B12">
-        <f>Table2[minEff]+Table2[constF2]*(Table2[maxEff]-Table2[minEff])</f>
-        <v>0.92999999999999994</v>
+        <v>0.97</v>
       </c>
       <c r="C12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>5.46875</v>
+        <v>5.5555555555555562</v>
       </c>
       <c r="D12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>10.9375</v>
+        <v>11.111111111111112</v>
       </c>
       <c r="E12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>21.875</v>
+        <v>22.222222222222225</v>
       </c>
       <c r="F12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>43.75</v>
+        <v>44.44444444444445</v>
       </c>
       <c r="G12" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.34375</v>
+        <v>2.1164021164021167</v>
       </c>
       <c r="H12" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>18.75</v>
+        <v>16.931216931216934</v>
       </c>
       <c r="I12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>144.76458947741767</v>
+        <v>142.50264276683299</v>
       </c>
       <c r="J12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>18.095573684677209</v>
+        <v>17.812830345854124</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.166667" factor="0.93"/&gt; &lt;!-- 2.34 .. 43.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.888889" factor="0.97"/&gt; &lt;!-- 2.12 .. 44.4 --&gt;</v>
       </c>
       <c r="L12" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.166667" factor="0.93"/&gt; &lt;!-- 2.34 .. 43.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.888889" factor="0.97"/&gt; &lt;!-- 2.12 .. 44.4 --&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>Table2[maxEff]</f>
+        <v>0.98</v>
+      </c>
+      <c r="C13" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>6.2500000000000009</v>
+      </c>
+      <c r="D13" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>12.500000000000002</v>
+      </c>
+      <c r="E13" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>25.000000000000004</v>
+      </c>
+      <c r="F13" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="G13" s="1">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>2.3809523809523814</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>19.047619047619051</v>
+      </c>
+      <c r="I13" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>126.66901579274042</v>
+      </c>
+      <c r="J13" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>15.833626974092553</v>
+      </c>
+      <c r="K13" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.38 .. 50 --&gt;</v>
+      </c>
+      <c r="L13" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.38 .. 50 --&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>1+Table2[range]/3</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="B14">
+        <v>0.94</v>
+      </c>
+      <c r="C14" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>6.9444444444444455</v>
+      </c>
+      <c r="D14" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>13.888888888888891</v>
+      </c>
+      <c r="E14" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>27.777777777777782</v>
+      </c>
+      <c r="F14" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>55.555555555555564</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>2.645502645502646</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>21.164021164021168</v>
+      </c>
+      <c r="I14" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>114.00211421346638</v>
+      </c>
+      <c r="J14" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>14.250264276683298</v>
+      </c>
+      <c r="K14" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.111111" factor="0.94"/&gt; &lt;!-- 2.65 .. 55.6 --&gt;</v>
+      </c>
+      <c r="L14" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.111111" factor="0.94"/&gt; &lt;!-- 2.65 .. 55.6 --&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>1+2/3*Table2[range]</f>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="B15">
+        <v>0.91</v>
+      </c>
+      <c r="C15" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>7.6388888888888902</v>
+      </c>
+      <c r="D15" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>15.27777777777778</v>
+      </c>
+      <c r="E15" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>30.555555555555561</v>
+      </c>
+      <c r="F15" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>61.111111111111121</v>
+      </c>
+      <c r="G15" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>2.9100529100529107</v>
+      </c>
+      <c r="H15" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>23.280423280423285</v>
+      </c>
+      <c r="I15" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>103.63828564860582</v>
+      </c>
+      <c r="J15" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>12.954785706075727</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.222222" factor="0.91"/&gt; &lt;!-- 2.91 .. 61.1 --&gt;</v>
+      </c>
+      <c r="L15" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.222222" factor="0.91"/&gt; &lt;!-- 2.91 .. 61.1 --&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f>1+Table2[range]</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="B13">
-        <f>Table2[minEff]</f>
-        <v>0.88</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B16">
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>6.25</v>
-      </c>
-      <c r="D13" s="6">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>12.5</v>
-      </c>
-      <c r="E13" s="6">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="E16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>25</v>
-      </c>
-      <c r="F13" s="6">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="F16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>50</v>
-      </c>
-      <c r="G13" s="1">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G16" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.6785714285714284</v>
-      </c>
-      <c r="H13" s="1">
+        <v>3.1746031746031749</v>
+      </c>
+      <c r="H16" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="I13" s="5">
+        <v>25.396825396825399</v>
+      </c>
+      <c r="I16" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>126.66901579274045</v>
-      </c>
-      <c r="J13" s="5">
+        <v>95.001761844555347</v>
+      </c>
+      <c r="J16" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>15.833626974092557</v>
-      </c>
-      <c r="K13" t="str">
+        <v>11.875220230569418</v>
+      </c>
+      <c r="K16" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 2.68 .. 50 --&gt;</v>
-      </c>
-      <c r="L13" t="str">
+        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.9"/&gt; &lt;!-- 3.17 .. 66.7 --&gt;</v>
+      </c>
+      <c r="L16" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.88"/&gt; &lt;!-- 2.68 .. 50 --&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>4.6875</v>
-      </c>
-      <c r="G16" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>1.3392857142857144</v>
-      </c>
-      <c r="I16" s="1">
-        <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>3.1250000000000004</v>
-      </c>
-      <c r="J16" s="1">
-        <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>6.25</v>
-      </c>
-      <c r="K16" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="4.69" name=""/&gt; &lt;!-- 0.05 1.34 3 6--&gt;</v>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="4.69" name=""/&gt; &lt;!-- 0.05 1.34 3 6--&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.9"/&gt; &lt;!-- 3.17 .. 66.7 --&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>9.375</v>
-      </c>
-      <c r="G17" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="H17" s="1">
-        <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>2.6785714285714288</v>
-      </c>
-      <c r="I17" s="1">
-        <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>6.2500000000000009</v>
-      </c>
-      <c r="J17" s="1">
-        <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>12.5</v>
-      </c>
-      <c r="K17" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="9.38" name=""/&gt; &lt;!-- 0.1 2.68 6 13--&gt;</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="9.38" name=""/&gt; &lt;!-- 0.1 2.68 6 13--&gt;</v>
+      <c r="L17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="5">
-        <v>3</v>
-      </c>
-      <c r="F18" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>18.75</v>
-      </c>
-      <c r="G18" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="H18" s="1">
-        <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="I18" s="1">
-        <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>12.500000000000002</v>
-      </c>
-      <c r="J18" s="1">
-        <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>25</v>
-      </c>
-      <c r="K18" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="18.75" name=""/&gt; &lt;!-- 0.2 5.36 13 25--&gt;</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="18.75" name=""/&gt; &lt;!-- 0.2 5.36 13 25--&gt;</v>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E19" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>37.5</v>
+        <v>6.2500000000000009</v>
       </c>
       <c r="G19" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.40000000000000008</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="H19" s="1">
-        <f>$A$9*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>10.714285714285715</v>
+        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>1.5873015873015879</v>
       </c>
       <c r="I19" s="1">
-        <f>$A$9*Table3[[#This Row],[speed]]</f>
-        <v>25.000000000000004</v>
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>4.1666666666666679</v>
       </c>
       <c r="J19" s="1">
-        <f>$A$13*Table3[[#This Row],[speed]]</f>
-        <v>50</v>
+        <f>$A$16*Table3[[#This Row],[speed]]</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="37.5" name=""/&gt; &lt;!-- 0.4 10.71 25 50--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="6.25" name=""/&gt; &lt;!-- 0.05 1.59 4 8--&gt;</v>
       </c>
       <c r="L19" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="37.5" name=""/&gt; &lt;!-- 0.4 10.71 25 50--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="6.25" name=""/&gt; &lt;!-- 0.05 1.59 4 8--&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L20" t="s">
-        <v>34</v>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>12.500000000000002</v>
+      </c>
+      <c r="G20" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="H20" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>3.1746031746031758</v>
+      </c>
+      <c r="I20" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>8.3333333333333357</v>
+      </c>
+      <c r="J20" s="1">
+        <f>$A$16*Table3[[#This Row],[speed]]</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K20" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="12.5" name=""/&gt; &lt;!-- 0.1 3.17 8 17--&gt;</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="12.5" name=""/&gt; &lt;!-- 0.1 3.17 8 17--&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L21" t="s">
-        <v>43</v>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>25.000000000000004</v>
+      </c>
+      <c r="G21" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="H21" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>6.3492063492063515</v>
+      </c>
+      <c r="I21" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>16.666666666666671</v>
+      </c>
+      <c r="J21" s="1">
+        <f>$A$16*Table3[[#This Row],[speed]]</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K21" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="25" name=""/&gt; &lt;!-- 0.2 6.35 17 33--&gt;</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="25" name=""/&gt; &lt;!-- 0.2 6.35 17 33--&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="G22" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="H22" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>12.698412698412703</v>
+      </c>
+      <c r="I22" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>33.333333333333343</v>
+      </c>
+      <c r="J22" s="1">
+        <f>$A$16*Table3[[#This Row],[speed]]</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K22" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="50" name=""/&gt; &lt;!-- 0.4 12.7 33 67--&gt;</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="50" name=""/&gt; &lt;!-- 0.4 12.7 33 67--&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
+      <c r="L23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <f>C8</f>
-        <v>0.11666666666666668</v>
-      </c>
-      <c r="B24">
-        <f>B8</f>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <f t="shared" ref="A25:A29" si="0">C9</f>
-        <v>3.1250000000000004</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:B29" si="1">B9</f>
-        <v>0.88</v>
+      <c r="L24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <f t="shared" si="0"/>
-        <v>3.90625</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>0.92999999999999994</v>
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <f t="shared" si="0"/>
-        <v>4.6875</v>
+        <f>C8</f>
+        <v>0.13125000000000003</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
+        <f>B8</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <f t="shared" si="0"/>
-        <v>5.46875</v>
+        <f>C10</f>
+        <v>4.1666666666666679</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
-        <v>0.92999999999999994</v>
+        <f>B10</f>
+        <v>0.87</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
+        <f>C11</f>
+        <v>4.8611111111111116</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
-        <v>0.88</v>
+        <f>B11</f>
+        <v>0.93</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <f t="shared" ref="A30:A34" si="2">D9</f>
-        <v>6.2500000000000009</v>
+      <c r="A30" s="11">
+        <f>C12</f>
+        <v>5.5555555555555562</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:B34" si="3">B9</f>
-        <v>0.88</v>
+        <f>B12</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <f t="shared" si="2"/>
-        <v>7.8125</v>
+      <c r="A31" s="11">
+        <f>C13</f>
+        <v>6.2500000000000009</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
-        <v>0.92999999999999994</v>
+        <f>B13</f>
+        <v>0.98</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <f t="shared" si="2"/>
-        <v>9.375</v>
+      <c r="A32" s="11">
+        <f>C14</f>
+        <v>6.9444444444444455</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
+        <f>B14</f>
+        <v>0.94</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <f t="shared" si="2"/>
-        <v>10.9375</v>
+      <c r="A33" s="11">
+        <f>C15</f>
+        <v>7.6388888888888902</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
-        <v>0.92999999999999994</v>
+        <f>B15</f>
+        <v>0.91</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
+        <f>D10</f>
+        <v>8.3333333333333357</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
-        <v>0.88</v>
+        <f>MAX(B10,B16)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <f t="shared" ref="A35:A39" si="4">E9</f>
-        <v>12.500000000000002</v>
+        <f>D11</f>
+        <v>9.7222222222222232</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:B39" si="5">B9</f>
-        <v>0.88</v>
+        <f>MAX(B11,B17)</f>
+        <v>0.93</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <f t="shared" si="4"/>
-        <v>15.625</v>
+        <f>D12</f>
+        <v>11.111111111111112</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
-        <v>0.92999999999999994</v>
+        <f>B12</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <f t="shared" si="4"/>
-        <v>18.75</v>
+        <f>D13</f>
+        <v>12.500000000000002</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f>B13</f>
         <v>0.98</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <f t="shared" si="4"/>
-        <v>21.875</v>
+        <f>D14</f>
+        <v>13.888888888888891</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
-        <v>0.92999999999999994</v>
+        <f>B14</f>
+        <v>0.94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" ref="A39" si="0">D16</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
-        <v>0.88</v>
+        <f t="shared" ref="B39" si="1">B16</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <f>F9</f>
-        <v>25.000000000000004</v>
+        <f>E10</f>
+        <v>16.666666666666671</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:B44" si="6">B9</f>
-        <v>0.88</v>
+        <f>MAX(B10,B16)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <f>F10</f>
-        <v>31.25</v>
+        <f>E11</f>
+        <v>19.444444444444446</v>
       </c>
       <c r="B41">
-        <f t="shared" si="6"/>
-        <v>0.92999999999999994</v>
+        <f>B11</f>
+        <v>0.93</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <f>F11</f>
-        <v>37.5</v>
+        <f>E12</f>
+        <v>22.222222222222225</v>
       </c>
       <c r="B42">
-        <f t="shared" si="6"/>
-        <v>0.98</v>
+        <f>B12</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <f>F12</f>
-        <v>43.75</v>
+        <f>E13</f>
+        <v>25.000000000000004</v>
       </c>
       <c r="B43">
-        <f t="shared" si="6"/>
-        <v>0.92999999999999994</v>
+        <f>B13</f>
+        <v>0.98</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <f>F13</f>
-        <v>50</v>
+        <f>E14</f>
+        <v>27.777777777777782</v>
       </c>
       <c r="B44">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <f>B14</f>
+        <v>0.94</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="6">
+        <f t="shared" ref="A45" si="2">E16</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="3">B16</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="6">
+        <f>F10</f>
+        <v>33.333333333333343</v>
+      </c>
+      <c r="B46" s="6">
+        <f>MAX(B10,B16)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <f>F11</f>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="B47">
+        <f>B11</f>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <f>F12</f>
+        <v>44.44444444444445</v>
+      </c>
+      <c r="B48">
+        <f>B12</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f>F13</f>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="B49">
+        <f>B13</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <f>F14</f>
+        <v>55.555555555555564</v>
+      </c>
+      <c r="B50">
+        <f>B14</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <f>F16</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="4">B16</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4178,4 +7546,229 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.3333333000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.4</v>
+      </c>
+      <c r="B7">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.7</v>
+      </c>
+      <c r="B4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.2</v>
+      </c>
+      <c r="B6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.4</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27555" yWindow="0" windowWidth="13200" windowHeight="11520" activeTab="3"/>
+    <workbookView xWindow="30465" yWindow="0" windowWidth="13200" windowHeight="11520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ZF" sheetId="1" r:id="rId1"/>
     <sheet name="Fendt" sheetId="2" r:id="rId2"/>
-    <sheet name="Small" sheetId="4" r:id="rId3"/>
-    <sheet name="Combine" sheetId="3" r:id="rId4"/>
+    <sheet name="Combine" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>ratio</t>
   </si>
@@ -251,12 +250,50 @@
   </cellStyles>
   <dxfs count="46">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -288,6 +325,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -306,11 +357,98 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -374,222 +512,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -633,7 +555,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -643,6 +569,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <font>
@@ -660,7 +587,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -688,7 +619,75 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -832,7 +831,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.21522222222222223</c:v>
@@ -868,7 +867,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.13125000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3451388888888891</c:v>
@@ -944,7 +943,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.21522222222222223</c:v>
@@ -980,7 +979,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0500000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.761111111111113</c:v>
@@ -1056,7 +1055,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.21522222222222223</c:v>
@@ -1092,7 +1091,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000017E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.51243386243386257</c:v>
@@ -1168,7 +1167,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.21522222222222223</c:v>
@@ -1204,7 +1203,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.40000000000000013</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.0994708994709006</c:v>
@@ -1243,8 +1242,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374054264"/>
-        <c:axId val="374055048"/>
+        <c:axId val="232328688"/>
+        <c:axId val="232329080"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1294,7 +1293,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.21522222222222223</c:v>
@@ -1330,10 +1329,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.87</c:v>
@@ -1369,11 +1368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374057400"/>
-        <c:axId val="374056616"/>
+        <c:axId val="232332608"/>
+        <c:axId val="232329472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374054264"/>
+        <c:axId val="232328688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,12 +1429,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374055048"/>
+        <c:crossAx val="232329080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374055048"/>
+        <c:axId val="232329080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1493,12 +1492,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374054264"/>
+        <c:crossAx val="232328688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374056616"/>
+        <c:axId val="232329472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,12 +1540,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374057400"/>
+        <c:crossAx val="232332608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374057400"/>
+        <c:axId val="232332608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374056616"/>
+        <c:crossAx val="232329472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1733,7 +1732,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.13125000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.1666666666666679</c:v>
@@ -1817,7 +1816,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.87</c:v>
@@ -1904,11 +1903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374058576"/>
-        <c:axId val="409636744"/>
+        <c:axId val="215133040"/>
+        <c:axId val="215131864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374058576"/>
+        <c:axId val="215133040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1966,12 +1965,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409636744"/>
+        <c:crossAx val="215131864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409636744"/>
+        <c:axId val="215131864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -2029,7 +2028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374058576"/>
+        <c:crossAx val="215133040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2189,7 +2188,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333000000001</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,7 +2215,7 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,13 +2230,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="417093544"/>
-        <c:axId val="417091976"/>
+        <c:axId val="235710640"/>
+        <c:axId val="235707504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="417093544"/>
+        <c:axId val="235710640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2292,12 +2293,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417091976"/>
+        <c:crossAx val="235707504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="417091976"/>
+        <c:axId val="235707504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417093544"/>
+        <c:crossAx val="235710640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2459,7 +2460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Small!$B$1</c:f>
+              <c:f>Combine!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2494,24 +2495,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Small!$A$2:$A$7</c:f>
+              <c:f>Combine!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.01</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.4</c:v>
@@ -2521,27 +2522,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Small!$B$2:$B$7</c:f>
+              <c:f>Combine!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82499999999999996</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,11 +2557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374222488"/>
-        <c:axId val="374211904"/>
+        <c:axId val="235706328"/>
+        <c:axId val="235706720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374222488"/>
+        <c:axId val="235706328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2617,12 +2618,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374211904"/>
+        <c:crossAx val="235706720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374211904"/>
+        <c:axId val="235706720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,332 +2680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374222488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Combine!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Combine!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Combine!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="417119536"/>
-        <c:axId val="417115616"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="417119536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="417115616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="417115616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="417119536"/>
+        <c:crossAx val="235706328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3213,46 +2889,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4802,522 +4438,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5947,43 +5067,6 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -6049,39 +5132,39 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="36">
   <tableColumns count="14">
-    <tableColumn id="1" name="s1" dataDxfId="35" totalsRowDxfId="13">
+    <tableColumn id="1" name="s1" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="s2" dataDxfId="34" totalsRowDxfId="12">
+    <tableColumn id="11" name="s2" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="s3" dataDxfId="33" totalsRowDxfId="11">
+    <tableColumn id="14" name="s3" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="s4" dataDxfId="32" totalsRowDxfId="10">
+    <tableColumn id="2" name="s4" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="minRatio" dataDxfId="31" totalsRowDxfId="9">
+    <tableColumn id="6" name="minRatio" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="minEff" dataDxfId="30" totalsRowDxfId="8"/>
-    <tableColumn id="9" name="maxEff" dataDxfId="29" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="range" dataDxfId="28" totalsRowDxfId="6">
+    <tableColumn id="8" name="minEff" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="9" name="maxEff" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" name="range" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="zeroEff" dataDxfId="27" totalsRowDxfId="5">
+    <tableColumn id="10" name="zeroEff" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="constF1" dataDxfId="26" totalsRowDxfId="4"/>
-    <tableColumn id="13" name="constF2" dataDxfId="25" totalsRowDxfId="3"/>
-    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="2">
+    <tableColumn id="12" name="constF1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="13" name="constF2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
       <totalsRowFormula>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="rpm50" dataDxfId="23" totalsRowDxfId="1">
+    <tableColumn id="16" name="rpm50" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="rpm60" dataDxfId="22" totalsRowDxfId="0">
+    <tableColumn id="17" name="rpm60" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6092,23 +5175,23 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E18:K22" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="gear" dataDxfId="21"/>
-    <tableColumn id="2" name="speed" dataDxfId="20">
+    <tableColumn id="1" name="gear" dataDxfId="7"/>
+    <tableColumn id="2" name="speed" dataDxfId="6">
       <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="minSpeed" dataDxfId="19">
+    <tableColumn id="9" name="minSpeed" dataDxfId="5">
       <calculatedColumnFormula>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed" dataDxfId="18">
+    <tableColumn id="6" name="idleSpeed" dataDxfId="4">
       <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="fromSpeed" dataDxfId="17">
+    <tableColumn id="5" name="fromSpeed" dataDxfId="3">
       <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="toSpeed" dataDxfId="16">
+    <tableColumn id="4" name="toSpeed" dataDxfId="2">
       <calculatedColumnFormula>$A$16*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="xml" dataDxfId="15">
+    <tableColumn id="3" name="xml" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6136,7 +5219,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A26:B51" totalsRowShown="0">
   <autoFilter ref="A26:B51"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="km/h" dataDxfId="14"/>
+    <tableColumn id="1" name="km/h" dataDxfId="0"/>
     <tableColumn id="2" name="Efficiency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6155,17 +5238,6 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table169" displayName="Table169" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="r"/>
-    <tableColumn id="2" name="e"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A1:B7" totalsRowShown="0">
   <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
@@ -6442,7 +5514,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6658,51 +5730,50 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f>Table2[minRatio]</f>
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>0.13125000000000003</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>0.26250000000000007</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>0.52500000000000013</v>
+        <v>0</v>
       </c>
       <c r="F8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>1.0500000000000003</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>5.0000000000000017E-2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="e">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>6031.8578948924023</v>
-      </c>
-      <c r="J8" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="5" t="e">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>753.98223686155029</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.021" factor="0.3"/&gt; &lt;!-- 0.05 .. 1.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0.6"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
       </c>
       <c r="L8" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.021" factor="0.3"/&gt; &lt;!-- 0.05 .. 1.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0.6"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6711,7 +5782,7 @@
         <v>0.21522222222222223</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="C9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
@@ -6747,11 +5818,11 @@
       </c>
       <c r="K9" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.215222" factor="0.5"/&gt; &lt;!-- 0.51 .. 10.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.215222" factor="0.68"/&gt; &lt;!-- 0.51 .. 10.8 --&gt;</v>
       </c>
       <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.215222" factor="0.5"/&gt; &lt;!-- 0.51 .. 10.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.215222" factor="0.68"/&gt; &lt;!-- 0.51 .. 10.8 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -7138,7 +6209,7 @@
       </c>
       <c r="G19" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>5.0000000000000017E-2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
@@ -7154,11 +6225,11 @@
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="6.25" name=""/&gt; &lt;!-- 0.05 1.59 4 8--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="6.25" name=""/&gt; &lt;!-- 0 1.59 4 8--&gt;</v>
       </c>
       <c r="L19" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="6.25" name=""/&gt; &lt;!-- 0.05 1.59 4 8--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="6.25" name=""/&gt; &lt;!-- 0 1.59 4 8--&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7171,7 +6242,7 @@
       </c>
       <c r="G20" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.10000000000000003</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
@@ -7187,11 +6258,11 @@
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="12.5" name=""/&gt; &lt;!-- 0.1 3.17 8 17--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="12.5" name=""/&gt; &lt;!-- 0 3.17 8 17--&gt;</v>
       </c>
       <c r="L20" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="12.5" name=""/&gt; &lt;!-- 0.1 3.17 8 17--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="12.5" name=""/&gt; &lt;!-- 0 3.17 8 17--&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -7204,7 +6275,7 @@
       </c>
       <c r="G21" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.20000000000000007</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
@@ -7220,11 +6291,11 @@
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="25" name=""/&gt; &lt;!-- 0.2 6.35 17 33--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="25" name=""/&gt; &lt;!-- 0 6.35 17 33--&gt;</v>
       </c>
       <c r="L21" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="25" name=""/&gt; &lt;!-- 0.2 6.35 17 33--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="25" name=""/&gt; &lt;!-- 0 6.35 17 33--&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -7237,7 +6308,7 @@
       </c>
       <c r="G22" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0.40000000000000013</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
@@ -7253,11 +6324,11 @@
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="50" name=""/&gt; &lt;!-- 0.4 12.7 33 67--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="50" name=""/&gt; &lt;!-- 0 12.7 33 67--&gt;</v>
       </c>
       <c r="L22" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="50" name=""/&gt; &lt;!-- 0.4 12.7 33 67--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="50" name=""/&gt; &lt;!-- 0 12.7 33 67--&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -7281,70 +6352,70 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f>C8</f>
-        <v>0.13125000000000003</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <f>B8</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <f>C10</f>
+        <f t="shared" ref="A28:A33" si="0">C10</f>
         <v>4.1666666666666679</v>
       </c>
       <c r="B28">
-        <f>B10</f>
+        <f t="shared" ref="B28:B33" si="1">B10</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>4.8611111111111116</v>
       </c>
       <c r="B29">
-        <f>B11</f>
+        <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>5.5555555555555562</v>
       </c>
       <c r="B30">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <f>C13</f>
+        <f t="shared" si="0"/>
         <v>6.2500000000000009</v>
       </c>
       <c r="B31">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <f>C14</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444455</v>
       </c>
       <c r="B32">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <f>C15</f>
+        <f t="shared" si="0"/>
         <v>7.6388888888888902</v>
       </c>
       <c r="B33">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
     </row>
@@ -7400,11 +6471,11 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <f t="shared" ref="A39" si="0">D16</f>
+        <f t="shared" ref="A39" si="2">D16</f>
         <v>16.666666666666668</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39" si="1">B16</f>
+        <f t="shared" ref="B39" si="3">B16</f>
         <v>0.9</v>
       </c>
     </row>
@@ -7460,11 +6531,11 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <f t="shared" ref="A45" si="2">E16</f>
+        <f t="shared" ref="A45" si="4">E16</f>
         <v>33.333333333333336</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45" si="3">B16</f>
+        <f t="shared" ref="B45" si="5">B16</f>
         <v>0.9</v>
       </c>
     </row>
@@ -7524,7 +6595,7 @@
         <v>66.666666666666671</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" si="4">B16</f>
+        <f t="shared" ref="B51" si="6">B16</f>
         <v>0.9</v>
       </c>
     </row>
@@ -7553,7 +6624,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7608,10 +6679,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.3333333000000001</v>
+        <v>1.5</v>
       </c>
       <c r="B7">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -7627,83 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-0.01</v>
-      </c>
-      <c r="B3">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.01</v>
-      </c>
-      <c r="B5">
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.4</v>
-      </c>
-      <c r="B7">
-        <v>0.92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="0" windowWidth="13200" windowHeight="11520" activeTab="2"/>
+    <workbookView xWindow="31920" yWindow="0" windowWidth="13200" windowHeight="11520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ZF" sheetId="1" r:id="rId1"/>
     <sheet name="Fendt" sheetId="2" r:id="rId2"/>
     <sheet name="Combine" sheetId="3" r:id="rId3"/>
+    <sheet name="Linde" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>ratio</t>
   </si>
@@ -227,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -244,11 +245,30 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="51">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -750,9 +770,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -826,72 +843,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$16</c:f>
+              <c:f>ZF!$A$8:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21522222222222223</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.1111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.3333333333333333</c:v>
+                <c:pt idx="7">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$C$8:$C$16</c:f>
+              <c:f>ZF!$C$8:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3451388888888891</c:v>
+                  <c:v>1.2674581005586592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1666666666666679</c:v>
+                  <c:v>3.8599860335195535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8611111111111116</c:v>
+                  <c:v>4.6089385474860336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5555555555555562</c:v>
+                  <c:v>5.1850558659217878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2500000000000009</c:v>
+                  <c:v>5.4731145251396649</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9444444444444455</c:v>
+                  <c:v>5.761173184357542</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6388888888888902</c:v>
+                  <c:v>5.9916201117318435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>6.3372905027932971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9134078212290504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6623603351955314</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.641759776536313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,72 +973,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$16</c:f>
+              <c:f>ZF!$A$8:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21522222222222223</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.1111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.3333333333333333</c:v>
+                <c:pt idx="7">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$F$8:$F$16</c:f>
+              <c:f>ZF!$F$8:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.761111111111113</c:v>
+                  <c:v>10.139664804469273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.333333333333343</c:v>
+                  <c:v>30.879888268156428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.888888888888893</c:v>
+                  <c:v>36.871508379888269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.44444444444445</c:v>
+                  <c:v>41.480446927374302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>43.784916201117319</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.555555555555564</c:v>
+                  <c:v>46.089385474860336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.111111111111121</c:v>
+                  <c:v>47.932960893854748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.666666666666671</c:v>
+                  <c:v>50.698324022346377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.307262569832403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.298882681564251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.134078212290504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,72 +1103,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$16</c:f>
+              <c:f>ZF!$A$8:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21522222222222223</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.1111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.3333333333333333</c:v>
+                <c:pt idx="7">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$G$8:$G$16</c:f>
+              <c:f>ZF!$G$8:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51243386243386257</c:v>
+                  <c:v>0.46089385474860334</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>1.5873015873015879</c:v>
+                  <c:v>1.4036312849162014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8518518518518521</c:v>
+                  <c:v>1.6759776536312849</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0">
-                  <c:v>2.1164021164021167</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>2.3809523809523814</c:v>
+                  <c:v>1.8854748603351956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.990223463687151</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0">
-                  <c:v>2.645502645502646</c:v>
+                  <c:v>2.0949720670391061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9100529100529107</c:v>
+                  <c:v>2.1787709497206706</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0">
-                  <c:v>3.1746031746031749</c:v>
+                  <c:v>2.3044692737430172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5139664804469275</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>2.7863128491620115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1424581005586592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,72 +1233,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$16</c:f>
+              <c:f>ZF!$A$8:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21522222222222223</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.1111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.3333333333333333</c:v>
+                <c:pt idx="7">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$H$8:$H$16</c:f>
+              <c:f>ZF!$H$8:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0994708994709006</c:v>
+                  <c:v>3.6871508379888267</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>12.698412698412703</c:v>
+                  <c:v>11.229050279329611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.814814814814817</c:v>
+                  <c:v>13.407821229050279</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0">
-                  <c:v>16.931216931216934</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>19.047619047619051</c:v>
+                  <c:v>15.083798882681565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.921787709497208</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.0">
-                  <c:v>21.164021164021168</c:v>
+                  <c:v>16.759776536312849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.280423280423285</c:v>
+                  <c:v>17.430167597765365</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.0">
-                  <c:v>25.396825396825399</c:v>
+                  <c:v>18.435754189944138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.11173184357542</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>22.290502793296092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.139664804469273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,8 +1331,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232328688"/>
-        <c:axId val="232329080"/>
+        <c:axId val="459772648"/>
+        <c:axId val="459774608"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1288,46 +1377,55 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$16</c:f>
+              <c:f>ZF!$A$8:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21522222222222223</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.1111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.3333333333333333</c:v>
+                <c:pt idx="7">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$B$8:$B$16</c:f>
+              <c:f>ZF!$B$8:$B$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1344,16 +1442,25 @@
                   <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,11 +1475,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232332608"/>
-        <c:axId val="232329472"/>
+        <c:axId val="459774216"/>
+        <c:axId val="459771864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232328688"/>
+        <c:axId val="459772648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1499,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1429,12 +1536,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232329080"/>
+        <c:crossAx val="459774608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232329080"/>
+        <c:axId val="459774608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1492,18 +1599,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232328688"/>
+        <c:crossAx val="459772648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232329472"/>
+        <c:axId val="459771864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1540,22 +1647,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232332608"/>
+        <c:crossAx val="459774216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232332608"/>
+        <c:axId val="459774216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232329472"/>
+        <c:crossAx val="459771864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1692,7 +1799,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ZF!$B$26</c:f>
+              <c:f>ZF!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1727,94 +1834,118 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$27:$A$51</c:f>
+              <c:f>ZF!$A$30:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1666666666666679</c:v>
+                  <c:v>3.8599860335195535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8611111111111116</c:v>
+                  <c:v>4.6089385474860336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5555555555555562</c:v>
+                  <c:v>5.1850558659217878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2500000000000009</c:v>
+                  <c:v>5.4731145251396649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9444444444444455</c:v>
+                  <c:v>5.761173184357542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6388888888888902</c:v>
+                  <c:v>5.9916201117318435</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3333333333333357</c:v>
+                  <c:v>6.3372905027932971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7222222222222232</c:v>
+                  <c:v>6.9134078212290504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.111111111111112</c:v>
+                  <c:v>7.719972067039107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.500000000000002</c:v>
+                  <c:v>9.2178770949720672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.888888888888891</c:v>
+                  <c:v>10.370111731843576</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.666666666666668</c:v>
+                  <c:v>10.94622905027933</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.666666666666671</c:v>
+                  <c:v>11.522346368715084</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.444444444444446</c:v>
+                  <c:v>11.983240223463687</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.222222222222225</c:v>
+                  <c:v>12.674581005586594</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.000000000000004</c:v>
+                  <c:v>15.324720670391063</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.777777777777782</c:v>
+                  <c:v>15.439944134078214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.333333333333336</c:v>
+                  <c:v>18.435754189944134</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.333333333333343</c:v>
+                  <c:v>20.740223463687151</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.888888888888893</c:v>
+                  <c:v>21.89245810055866</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.44444444444445</c:v>
+                  <c:v>23.044692737430168</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>23.966480446927374</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.555555555555564</c:v>
+                  <c:v>25.349162011173188</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>66.666666666666671</c:v>
+                  <c:v>30.649441340782126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.879888268156428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.871508379888269</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.480446927374302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.784916201117319</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.089385474860336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47.932960893854748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.698324022346377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.298882681564251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$B$27:$B$51</c:f>
+              <c:f>ZF!$B$30:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1828,67 +1959,91 @@
                   <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9</c:v>
+                  <c:v>0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.9</c:v>
+                <c:pt idx="30">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,11 +2058,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215133040"/>
-        <c:axId val="215131864"/>
+        <c:axId val="459775392"/>
+        <c:axId val="459773040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215133040"/>
+        <c:axId val="459775392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1965,12 +2120,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215131864"/>
+        <c:crossAx val="459773040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215131864"/>
+        <c:axId val="459773040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -2028,7 +2183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215133040"/>
+        <c:crossAx val="459775392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2230,11 +2385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235710640"/>
-        <c:axId val="235707504"/>
+        <c:axId val="459771472"/>
+        <c:axId val="459771080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235710640"/>
+        <c:axId val="459771472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2293,12 +2448,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235707504"/>
+        <c:crossAx val="459771080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235707504"/>
+        <c:axId val="459771080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235710640"/>
+        <c:crossAx val="459771472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2495,10 +2650,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Combine!$A$2:$A$7</c:f>
+              <c:f>Combine!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2506,15 +2661,24 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2522,10 +2686,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Combine!$B$2:$B$7</c:f>
+              <c:f>Combine!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -2533,15 +2697,24 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2557,11 +2730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235706328"/>
-        <c:axId val="235706720"/>
+        <c:axId val="459775784"/>
+        <c:axId val="459769120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235706328"/>
+        <c:axId val="459775784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,12 +2791,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235706720"/>
+        <c:crossAx val="459769120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235706720"/>
+        <c:axId val="459769120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,7 +2853,380 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235706328"/>
+        <c:crossAx val="459775784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Linde!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Linde!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Linde!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463942128"/>
+        <c:axId val="463936248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463942128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463936248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463936248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463942128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2889,6 +3435,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4438,6 +5024,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4959,13 +6061,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4989,14 +6091,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5067,7 +6169,44 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5093,35 +6232,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K19" totalsRowShown="0">
   <tableColumns count="11">
-    <tableColumn id="1" name="ratio"/>
-    <tableColumn id="2" name="factor"/>
-    <tableColumn id="3" name="speed1" dataDxfId="45">
+    <tableColumn id="1" name="ratio" dataDxfId="2"/>
+    <tableColumn id="2" name="factor" dataDxfId="0"/>
+    <tableColumn id="3" name="speed1" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s1]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="speed2" dataDxfId="44">
+    <tableColumn id="11" name="speed2" dataDxfId="50">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="speed3" dataDxfId="43">
+    <tableColumn id="10" name="speed3" dataDxfId="49">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s3]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="speed4" dataDxfId="42">
+    <tableColumn id="4" name="speed4" dataDxfId="48">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s4]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="idleSpeed1" dataDxfId="41">
+    <tableColumn id="7" name="idleSpeed1" dataDxfId="47">
       <calculatedColumnFormula>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed4" dataDxfId="40">
+    <tableColumn id="6" name="idleSpeed4" dataDxfId="46">
       <calculatedColumnFormula>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ratio1" dataDxfId="39">
+    <tableColumn id="9" name="ratio1" dataDxfId="45">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ratio2" dataDxfId="38">
+    <tableColumn id="8" name="ratio2" dataDxfId="44">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="37">
+    <tableColumn id="5" name="xml" dataDxfId="43">
       <calculatedColumnFormula>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5130,41 +6269,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="42">
   <tableColumns count="14">
-    <tableColumn id="1" name="s1" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" name="s1" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="s2" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="11" name="s2" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="s3" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="14" name="s3" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="s4" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="2" name="s4" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="minRatio" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="6" name="minRatio" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="minEff" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="9" name="maxEff" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" name="range" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="8" name="minEff" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="9" name="maxEff" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="3" name="range" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="zeroEff" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="10" name="zeroEff" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="constF1" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="13" name="constF2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="12" name="constF1" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="13" name="constF2" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
       <totalsRowFormula>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="rpm50" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="16" name="rpm50" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="rpm60" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="17" name="rpm60" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5173,25 +6312,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E18:K22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E21:K25" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="gear" dataDxfId="7"/>
-    <tableColumn id="2" name="speed" dataDxfId="6">
+    <tableColumn id="1" name="gear" dataDxfId="13"/>
+    <tableColumn id="2" name="speed" dataDxfId="12">
       <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="minSpeed" dataDxfId="5">
+    <tableColumn id="9" name="minSpeed" dataDxfId="11">
       <calculatedColumnFormula>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed" dataDxfId="4">
+    <tableColumn id="6" name="idleSpeed" dataDxfId="10">
       <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="fromSpeed" dataDxfId="3">
+    <tableColumn id="5" name="fromSpeed" dataDxfId="9">
       <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="toSpeed" dataDxfId="2">
-      <calculatedColumnFormula>$A$16*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    <tableColumn id="4" name="toSpeed" dataDxfId="8">
+      <calculatedColumnFormula>$A$18*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="xml" dataDxfId="1">
+    <tableColumn id="3" name="xml" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5216,10 +6355,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A26:B51" totalsRowShown="0">
-  <autoFilter ref="A26:B51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A29:B62" totalsRowShown="0">
+  <autoFilter ref="A29:B62"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="km/h" dataDxfId="0"/>
+    <tableColumn id="1" name="km/h" dataDxfId="6"/>
     <tableColumn id="2" name="Efficiency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5238,11 +6377,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10"/>
   <tableColumns count="2">
     <tableColumn id="1" name="r"/>
     <tableColumn id="2" name="e"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A1:B15" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:B15"/>
+  <sortState ref="A2:B12">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="r" dataDxfId="5"/>
+    <tableColumn id="2" name="e" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5511,10 +6664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5552,19 +6705,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>1890</v>
+        <v>1790</v>
       </c>
       <c r="D2">
         <v>800</v>
       </c>
       <c r="E2">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -5620,23 +6773,23 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</f>
-        <v>6.2500000000000009</v>
+        <v>5.761173184357542</v>
       </c>
       <c r="B5" s="7">
         <f>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</f>
-        <v>12.500000000000002</v>
+        <v>11.522346368715084</v>
       </c>
       <c r="C5" s="7">
         <f>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</f>
-        <v>25.000000000000004</v>
+        <v>23.044692737430168</v>
       </c>
       <c r="D5" s="7">
         <f>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</f>
-        <v>50.000000000000007</v>
+        <v>46.089385474860336</v>
       </c>
       <c r="E5" s="8">
         <f>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</f>
-        <v>2.1000000000000001E-2</v>
+        <v>9.5466666666666668E-3</v>
       </c>
       <c r="F5" s="9">
         <v>0.88</v>
@@ -5660,15 +6813,15 @@
       </c>
       <c r="L5" s="10">
         <f>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>1260</v>
+        <v>1432</v>
       </c>
       <c r="M5" s="10">
         <f>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>1575</v>
+        <v>1790</v>
       </c>
       <c r="N5" s="10">
         <f>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</f>
-        <v>1889.9999999999998</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -5685,7 +6838,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15" t="str">
         <f>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</f>
-        <v xml:space="preserve">      &lt;!-- 0.05..60 @1890 / 800..2100 / 2 --&gt;</v>
+        <v xml:space="preserve">      &lt;!-- 0.02..50 @1790 / 800..2200 / 2 --&gt;</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -5729,10 +6882,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="16">
         <v>0.6</v>
       </c>
       <c r="C8" s="6">
@@ -5777,534 +6930,581 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <f>(1-Table2[range]-Table2[minRatio])/3</f>
-        <v>0.21522222222222223</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="B9" s="16">
         <v>0.68</v>
       </c>
       <c r="C9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>1.3451388888888891</v>
+        <v>1.2674581005586592</v>
       </c>
       <c r="D9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>2.6902777777777782</v>
+        <v>2.5349162011173183</v>
       </c>
       <c r="E9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>5.3805555555555564</v>
+        <v>5.0698324022346366</v>
       </c>
       <c r="F9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>10.761111111111113</v>
+        <v>10.139664804469273</v>
       </c>
       <c r="G9" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>0.51243386243386257</v>
+        <v>0.46089385474860334</v>
       </c>
       <c r="H9" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>4.0994708994709006</v>
+        <v>3.6871508379888267</v>
       </c>
       <c r="I9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>588.54989268697159</v>
+        <v>654.3651898095394</v>
       </c>
       <c r="J9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>73.568736585871449</v>
+        <v>81.795648726192425</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.215222" factor="0.68"/&gt; &lt;!-- 0.51 .. 10.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.22" factor="0.68"/&gt; &lt;!-- 0.46 .. 10.1 --&gt;</v>
       </c>
       <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.215222" factor="0.68"/&gt; &lt;!-- 0.51 .. 10.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.22" factor="0.68"/&gt; &lt;!-- 0.46 .. 10.1 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>1-Table2[range]</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="B10" s="16">
         <v>0.87</v>
       </c>
       <c r="C10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>4.1666666666666679</v>
+        <v>3.8599860335195535</v>
       </c>
       <c r="D10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>8.3333333333333357</v>
+        <v>7.719972067039107</v>
       </c>
       <c r="E10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>16.666666666666671</v>
+        <v>15.439944134078214</v>
       </c>
       <c r="F10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>33.333333333333343</v>
+        <v>30.879888268156428</v>
       </c>
       <c r="G10" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>1.5873015873015879</v>
+        <v>1.4036312849162014</v>
       </c>
       <c r="H10" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>12.698412698412703</v>
+        <v>11.229050279329611</v>
       </c>
       <c r="I10" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>190.00352368911066</v>
+        <v>214.86618172850547</v>
       </c>
       <c r="J10" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>23.750440461138833</v>
+        <v>26.858272716063183</v>
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.87"/&gt; &lt;!-- 1.59 .. 33.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.67" factor="0.87"/&gt; &lt;!-- 1.4 .. 30.9 --&gt;</v>
       </c>
       <c r="L10" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.666667" factor="0.87"/&gt; &lt;!-- 1.59 .. 33.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.67" factor="0.87"/&gt; &lt;!-- 1.4 .. 30.9 --&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>1-2/3*Table2[range]</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="16">
         <v>0.93</v>
       </c>
       <c r="C11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>4.8611111111111116</v>
+        <v>4.6089385474860336</v>
       </c>
       <c r="D11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>9.7222222222222232</v>
+        <v>9.2178770949720672</v>
       </c>
       <c r="E11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>19.444444444444446</v>
+        <v>18.435754189944134</v>
       </c>
       <c r="F11" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>38.888888888888893</v>
+        <v>36.871508379888269</v>
       </c>
       <c r="G11" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>1.8518518518518521</v>
+        <v>1.6759776536312849</v>
       </c>
       <c r="H11" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>14.814814814814817</v>
+        <v>13.407821229050279</v>
       </c>
       <c r="I11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>162.86016316209486</v>
+        <v>179.95042719762336</v>
       </c>
       <c r="J11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>20.357520395261858</v>
+        <v>22.493803399702919</v>
       </c>
       <c r="K11" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.777778" factor="0.93"/&gt; &lt;!-- 1.85 .. 38.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 1.68 .. 36.9 --&gt;</v>
       </c>
       <c r="L11" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.777778" factor="0.93"/&gt; &lt;!-- 1.85 .. 38.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 1.68 .. 36.9 --&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>1-Table2[range]/3</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="B12" s="16">
         <v>0.97</v>
       </c>
       <c r="C12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>5.5555555555555562</v>
+        <v>5.1850558659217878</v>
       </c>
       <c r="D12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>11.111111111111112</v>
+        <v>10.370111731843576</v>
       </c>
       <c r="E12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>22.222222222222225</v>
+        <v>20.740223463687151</v>
       </c>
       <c r="F12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>44.44444444444445</v>
+        <v>41.480446927374302</v>
       </c>
       <c r="G12" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.1164021164021167</v>
+        <v>1.8854748603351956</v>
       </c>
       <c r="H12" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>16.931216931216934</v>
+        <v>15.083798882681565</v>
       </c>
       <c r="I12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>142.50264276683299</v>
+        <v>159.95593528677631</v>
       </c>
       <c r="J12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>17.812830345854124</v>
+        <v>19.994491910847039</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.888889" factor="0.97"/&gt; &lt;!-- 2.12 .. 44.4 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.97"/&gt; &lt;!-- 1.89 .. 41.5 --&gt;</v>
       </c>
       <c r="L12" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.888889" factor="0.97"/&gt; &lt;!-- 2.12 .. 44.4 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.97"/&gt; &lt;!-- 1.89 .. 41.5 --&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C13" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>5.4731145251396649</v>
+      </c>
+      <c r="D13" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>10.94622905027933</v>
+      </c>
+      <c r="E13" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>21.89245810055866</v>
+      </c>
+      <c r="F13" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>43.784916201117319</v>
+      </c>
+      <c r="G13" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>1.990223463687151</v>
+      </c>
+      <c r="H13" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>15.921787709497208</v>
+      </c>
+      <c r="I13" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>151.53720185063017</v>
+      </c>
+      <c r="J13" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>18.942150231328771</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.95" factor="0.978"/&gt; &lt;!-- 1.99 .. 43.8 --&gt;</v>
+      </c>
+      <c r="L13" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.95" factor="0.978"/&gt; &lt;!-- 1.99 .. 43.8 --&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="16">
         <f>Table2[maxEff]</f>
         <v>0.98</v>
       </c>
-      <c r="C13" s="6">
-        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>6.2500000000000009</v>
-      </c>
-      <c r="D13" s="6">
-        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>12.500000000000002</v>
-      </c>
-      <c r="E13" s="6">
-        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>25.000000000000004</v>
-      </c>
-      <c r="F13" s="6">
-        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>50.000000000000007</v>
-      </c>
-      <c r="G13" s="1">
-        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.3809523809523814</v>
-      </c>
-      <c r="H13" s="1">
-        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>19.047619047619051</v>
-      </c>
-      <c r="I13" s="5">
-        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>126.66901579274042</v>
-      </c>
-      <c r="J13" s="5">
-        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>15.833626974092553</v>
-      </c>
-      <c r="K13" t="str">
-        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.38 .. 50 --&gt;</v>
-      </c>
-      <c r="L13" t="str">
-        <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.38 .. 50 --&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>1+Table2[range]/3</f>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="B14">
-        <v>0.94</v>
-      </c>
       <c r="C14" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>6.9444444444444455</v>
+        <v>5.761173184357542</v>
       </c>
       <c r="D14" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>13.888888888888891</v>
+        <v>11.522346368715084</v>
       </c>
       <c r="E14" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>27.777777777777782</v>
+        <v>23.044692737430168</v>
       </c>
       <c r="F14" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>55.555555555555564</v>
+        <v>46.089385474860336</v>
       </c>
       <c r="G14" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.645502645502646</v>
+        <v>2.0949720670391061</v>
       </c>
       <c r="H14" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>21.164021164021168</v>
+        <v>16.759776536312849</v>
       </c>
       <c r="I14" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>114.00211421346638</v>
+        <v>143.96034175809868</v>
       </c>
       <c r="J14" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>14.250264276683298</v>
+        <v>17.995042719762335</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.111111" factor="0.94"/&gt; &lt;!-- 2.65 .. 55.6 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.09 .. 46.1 --&gt;</v>
       </c>
       <c r="L14" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.111111" factor="0.94"/&gt; &lt;!-- 2.65 .. 55.6 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.09 .. 46.1 --&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>1+2/3*Table2[range]</f>
-        <v>1.2222222222222223</v>
-      </c>
-      <c r="B15">
-        <v>0.91</v>
+      <c r="A15" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.97</v>
       </c>
       <c r="C15" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>7.6388888888888902</v>
+        <v>5.9916201117318435</v>
       </c>
       <c r="D15" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>15.27777777777778</v>
+        <v>11.983240223463687</v>
       </c>
       <c r="E15" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>30.555555555555561</v>
+        <v>23.966480446927374</v>
       </c>
       <c r="F15" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>61.111111111111121</v>
+        <v>47.932960893854748</v>
       </c>
       <c r="G15" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>2.9100529100529107</v>
+        <v>2.1787709497206706</v>
       </c>
       <c r="H15" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>23.280423280423285</v>
+        <v>17.430167597765365</v>
       </c>
       <c r="I15" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>103.63828564860582</v>
+        <v>138.42340553663334</v>
       </c>
       <c r="J15" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>12.954785706075727</v>
+        <v>17.302925692079167</v>
       </c>
       <c r="K15" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.222222" factor="0.91"/&gt; &lt;!-- 2.91 .. 61.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.04" factor="0.97"/&gt; &lt;!-- 2.18 .. 47.9 --&gt;</v>
       </c>
       <c r="L15" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.222222" factor="0.91"/&gt; &lt;!-- 2.91 .. 61.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.04" factor="0.97"/&gt; &lt;!-- 2.18 .. 47.9 --&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>1+Table2[range]</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="B16">
-        <v>0.9</v>
+      <c r="A16" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.94499999999999995</v>
       </c>
       <c r="C16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>8.3333333333333339</v>
+        <v>6.3372905027932971</v>
       </c>
       <c r="D16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>16.666666666666668</v>
+        <v>12.674581005586594</v>
       </c>
       <c r="E16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>33.333333333333336</v>
+        <v>25.349162011173188</v>
       </c>
       <c r="F16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>66.666666666666671</v>
+        <v>50.698324022346377</v>
       </c>
       <c r="G16" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>3.1746031746031749</v>
+        <v>2.3044692737430172</v>
       </c>
       <c r="H16" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>25.396825396825399</v>
+        <v>18.435754189944138</v>
       </c>
       <c r="I16" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>95.001761844555347</v>
+        <v>130.87303796190787</v>
       </c>
       <c r="J16" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>11.875220230569418</v>
+        <v>16.359129745238484</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.9"/&gt; &lt;!-- 3.17 .. 66.7 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.945"/&gt; &lt;!-- 2.3 .. 50.7 --&gt;</v>
       </c>
       <c r="L16" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.333333" factor="0.9"/&gt; &lt;!-- 3.17 .. 66.7 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.945"/&gt; &lt;!-- 2.3 .. 50.7 --&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
+      <c r="A17" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="C17" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>6.9134078212290504</v>
+      </c>
+      <c r="D17" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>13.826815642458101</v>
+      </c>
+      <c r="E17" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>27.653631284916202</v>
+      </c>
+      <c r="F17" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>55.307262569832403</v>
+      </c>
+      <c r="G17" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>2.5139664804469275</v>
+      </c>
+      <c r="H17" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>20.11173184357542</v>
+      </c>
+      <c r="I17" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>119.96695146508223</v>
+      </c>
+      <c r="J17" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>14.995868933135279</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.92"/&gt; &lt;!-- 2.51 .. 55.3 --&gt;</v>
+      </c>
+      <c r="L17" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.92"/&gt; &lt;!-- 2.51 .. 55.3 --&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="C18" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>7.6623603351955314</v>
+      </c>
+      <c r="D18" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>15.324720670391063</v>
+      </c>
+      <c r="E18" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>30.649441340782126</v>
+      </c>
+      <c r="F18" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>61.298882681564251</v>
+      </c>
+      <c r="G18" s="1">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>2.7863128491620115</v>
+      </c>
+      <c r="H18" s="1">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>22.290502793296092</v>
+      </c>
+      <c r="I18" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>108.24085846473584</v>
+      </c>
+      <c r="J18" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>13.53010730809198</v>
+      </c>
+      <c r="K18" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.33" factor="0.89"/&gt; &lt;!-- 2.79 .. 61.3 --&gt;</v>
+      </c>
+      <c r="L18" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.33" factor="0.89"/&gt; &lt;!-- 2.79 .. 61.3 --&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="C19" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>8.641759776536313</v>
+      </c>
+      <c r="D19" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>17.283519553072626</v>
+      </c>
+      <c r="E19" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>34.567039106145252</v>
+      </c>
+      <c r="F19" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>69.134078212290504</v>
+      </c>
+      <c r="G19" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>3.1424581005586592</v>
+      </c>
+      <c r="H19" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>25.139664804469273</v>
+      </c>
+      <c r="I19" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>95.973561172065786</v>
+      </c>
+      <c r="J19" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>11.996695146508223</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.5" factor="0.86"/&gt; &lt;!-- 3.14 .. 69.1 --&gt;</v>
+      </c>
+      <c r="L19" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.5" factor="0.86"/&gt; &lt;!-- 3.14 .. 69.1 --&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H21" t="s">
         <v>35</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I21" t="s">
         <v>29</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J21" t="s">
         <v>30</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K21" t="s">
         <v>4</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L21" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>6.2500000000000009</v>
-      </c>
-      <c r="G19" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>1.5873015873015879</v>
-      </c>
-      <c r="I19" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>4.1666666666666679</v>
-      </c>
-      <c r="J19" s="1">
-        <f>$A$16*Table3[[#This Row],[speed]]</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="K19" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="6.25" name=""/&gt; &lt;!-- 0 1.59 4 8--&gt;</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="6.25" name=""/&gt; &lt;!-- 0 1.59 4 8--&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>12.500000000000002</v>
-      </c>
-      <c r="G20" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>3.1746031746031758</v>
-      </c>
-      <c r="I20" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>8.3333333333333357</v>
-      </c>
-      <c r="J20" s="1">
-        <f>$A$16*Table3[[#This Row],[speed]]</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="K20" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="12.5" name=""/&gt; &lt;!-- 0 3.17 8 17--&gt;</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="12.5" name=""/&gt; &lt;!-- 0 3.17 8 17--&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="5">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>25.000000000000004</v>
-      </c>
-      <c r="G21" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>6.3492063492063515</v>
-      </c>
-      <c r="I21" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>16.666666666666671</v>
-      </c>
-      <c r="J21" s="1">
-        <f>$A$16*Table3[[#This Row],[speed]]</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K21" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="25" name=""/&gt; &lt;!-- 0 6.35 17 33--&gt;</v>
-      </c>
-      <c r="L21" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="25" name=""/&gt; &lt;!-- 0 6.35 17 33--&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>50.000000000000007</v>
+        <v>5.761173184357542</v>
       </c>
       <c r="G22" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
@@ -6312,298 +7512,477 @@
       </c>
       <c r="H22" s="1">
         <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>12.698412698412703</v>
+        <v>1.4036312849162014</v>
       </c>
       <c r="I22" s="1">
         <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>33.333333333333343</v>
+        <v>3.8599860335195535</v>
       </c>
       <c r="J22" s="1">
-        <f>$A$16*Table3[[#This Row],[speed]]</f>
-        <v>66.666666666666671</v>
+        <f>$A$18*Table3[[#This Row],[speed]]</f>
+        <v>7.6623603351955314</v>
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="50" name=""/&gt; &lt;!-- 0 12.7 33 67--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
       </c>
       <c r="L22" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="50" name=""/&gt; &lt;!-- 0 12.7 33 67--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L23" t="s">
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>11.522346368715084</v>
+      </c>
+      <c r="G23" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>2.8072625698324027</v>
+      </c>
+      <c r="I23" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>7.719972067039107</v>
+      </c>
+      <c r="J23" s="1">
+        <f>$A$18*Table3[[#This Row],[speed]]</f>
+        <v>15.324720670391063</v>
+      </c>
+      <c r="K23" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>23.044692737430168</v>
+      </c>
+      <c r="G24" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>5.6145251396648055</v>
+      </c>
+      <c r="I24" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>15.439944134078214</v>
+      </c>
+      <c r="J24" s="1">
+        <f>$A$18*Table3[[#This Row],[speed]]</f>
+        <v>30.649441340782126</v>
+      </c>
+      <c r="K24" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+      <c r="F25" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>46.089385474860336</v>
+      </c>
+      <c r="G25" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>11.229050279329611</v>
+      </c>
+      <c r="I25" s="1">
+        <f>$A$10*Table3[[#This Row],[speed]]</f>
+        <v>30.879888268156428</v>
+      </c>
+      <c r="J25" s="1">
+        <f>$A$18*Table3[[#This Row],[speed]]</f>
+        <v>61.298882681564251</v>
+      </c>
+      <c r="K25" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="46.09" name=""/&gt; &lt;!-- 0 11.23 31 61--&gt;</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="46.09" name=""/&gt; &lt;!-- 0 11.23 31 61--&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L24" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="B27">
+      <c r="B30">
         <f>B8</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <f t="shared" ref="A28:A33" si="0">C10</f>
-        <v>4.1666666666666679</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:B33" si="1">B10</f>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <f>C10</f>
+        <v>3.8599860335195535</v>
+      </c>
+      <c r="B31">
+        <f>B10</f>
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <f>C11</f>
+        <v>4.6089385474860336</v>
+      </c>
+      <c r="B32">
+        <f>B11</f>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <f>C12</f>
+        <v>5.1850558659217878</v>
+      </c>
+      <c r="B33">
+        <f>B12</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <f t="shared" ref="A34:A37" si="0">C13</f>
+        <v>5.4731145251396649</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B37" si="1">B13</f>
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <f t="shared" si="0"/>
-        <v>4.8611111111111116</v>
-      </c>
-      <c r="B29">
+        <v>5.761173184357542</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="1"/>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <f t="shared" si="0"/>
-        <v>5.5555555555555562</v>
-      </c>
-      <c r="B30">
+        <v>5.9916201117318435</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <f t="shared" si="0"/>
-        <v>6.2500000000000009</v>
-      </c>
-      <c r="B31">
+        <v>6.3372905027932971</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444455</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <f t="shared" si="0"/>
-        <v>7.6388888888888902</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <f>D10</f>
-        <v>8.3333333333333357</v>
-      </c>
-      <c r="B34">
-        <f>MAX(B10,B16)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <f>D11</f>
-        <v>9.7222222222222232</v>
-      </c>
-      <c r="B35">
-        <f>MAX(B11,B17)</f>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <f>D12</f>
-        <v>11.111111111111112</v>
-      </c>
-      <c r="B36">
-        <f>B12</f>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <f>D13</f>
-        <v>12.500000000000002</v>
-      </c>
-      <c r="B37">
-        <f>B13</f>
-        <v>0.98</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <f>D14</f>
-        <v>13.888888888888891</v>
+      <c r="A38" s="11">
+        <f t="shared" ref="A38" si="2">C17</f>
+        <v>6.9134078212290504</v>
       </c>
       <c r="B38">
-        <f>B14</f>
-        <v>0.94</v>
+        <f t="shared" ref="B38" si="3">B17</f>
+        <v>0.92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <f t="shared" ref="A39" si="2">D16</f>
-        <v>16.666666666666668</v>
+        <f>D10</f>
+        <v>7.719972067039107</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39" si="3">B16</f>
-        <v>0.9</v>
+        <f>MAX(B10,B18)</f>
+        <v>0.89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <f>E10</f>
-        <v>16.666666666666671</v>
+        <f>D11</f>
+        <v>9.2178770949720672</v>
       </c>
       <c r="B40">
-        <f>MAX(B10,B16)</f>
-        <v>0.9</v>
+        <f>MAX(B11,B19)</f>
+        <v>0.93</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
+        <f t="shared" ref="A41:A45" si="4">D12</f>
+        <v>10.370111731843576</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:B45" si="5">MAX(B12,B20)</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f t="shared" si="4"/>
+        <v>10.94622905027933</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="5"/>
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <f t="shared" si="4"/>
+        <v>11.522346368715084</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f t="shared" si="4"/>
+        <v>11.983240223463687</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <f t="shared" si="4"/>
+        <v>12.674581005586594</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="5"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <f t="shared" ref="A46" si="6">D18</f>
+        <v>15.324720670391063</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="7">B18</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <f>E10</f>
+        <v>15.439944134078214</v>
+      </c>
+      <c r="B47">
+        <f>MAX(B10,B18)</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <f>E11</f>
-        <v>19.444444444444446</v>
-      </c>
-      <c r="B41">
+        <v>18.435754189944134</v>
+      </c>
+      <c r="B48">
         <f>B11</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <f>E12</f>
-        <v>22.222222222222225</v>
-      </c>
-      <c r="B42">
-        <f>B12</f>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f t="shared" ref="A49:A53" si="8">E12</f>
+        <v>20.740223463687151</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:B53" si="9">B12</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <f>E13</f>
-        <v>25.000000000000004</v>
-      </c>
-      <c r="B43">
-        <f>B13</f>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <f t="shared" si="8"/>
+        <v>21.89245810055866</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="9"/>
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <f t="shared" si="8"/>
+        <v>23.044692737430168</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <f>E14</f>
-        <v>27.777777777777782</v>
-      </c>
-      <c r="B44">
-        <f>B14</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <f t="shared" ref="A45" si="4">E16</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ref="B45" si="5">B16</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <f t="shared" si="8"/>
+        <v>23.966480446927374</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="9"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <f t="shared" si="8"/>
+        <v>25.349162011173188</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="9"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <f t="shared" ref="A54" si="10">E18</f>
+        <v>30.649441340782126</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="11">B18</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <f>F10</f>
-        <v>33.333333333333343</v>
-      </c>
-      <c r="B46" s="6">
-        <f>MAX(B10,B16)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+        <v>30.879888268156428</v>
+      </c>
+      <c r="B55" s="6">
+        <f>MAX(B10,B18)</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <f>F11</f>
-        <v>38.888888888888893</v>
-      </c>
-      <c r="B47">
+        <v>36.871508379888269</v>
+      </c>
+      <c r="B56">
         <f>B11</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <f>F12</f>
-        <v>44.44444444444445</v>
-      </c>
-      <c r="B48">
-        <f>B12</f>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <f t="shared" ref="A57:A61" si="12">F12</f>
+        <v>41.480446927374302</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:B61" si="13">B12</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <f>F13</f>
-        <v>50.000000000000007</v>
-      </c>
-      <c r="B49">
-        <f>B13</f>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <f t="shared" si="12"/>
+        <v>43.784916201117319</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="13"/>
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <f t="shared" si="12"/>
+        <v>46.089385474860336</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="13"/>
         <v>0.98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <f>F14</f>
-        <v>55.555555555555564</v>
-      </c>
-      <c r="B50">
-        <f>B14</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <f>F16</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ref="B51" si="6">B16</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <f t="shared" si="12"/>
+        <v>47.932960893854748</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="13"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <f t="shared" si="12"/>
+        <v>50.698324022346377</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="13"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <f>F18</f>
+        <v>61.298882681564251</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="14">B18</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6696,10 +8075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6730,33 +8109,196 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="B4">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="B6">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.2</v>
+      </c>
+      <c r="B9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1.4</v>
       </c>
-      <c r="B7">
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>-0.85</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>-0.7</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>1</v>
+      </c>
+      <c r="B15" s="16">
         <v>0.9</v>
       </c>
     </row>

--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="0" windowWidth="13200" windowHeight="11520" activeTab="2"/>
+    <workbookView xWindow="33375" yWindow="0" windowWidth="13200" windowHeight="11520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ZF" sheetId="1" r:id="rId1"/>
     <sheet name="Fendt" sheetId="2" r:id="rId2"/>
     <sheet name="Combine" sheetId="3" r:id="rId3"/>
     <sheet name="Linde" sheetId="4" r:id="rId4"/>
+    <sheet name="Compound" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>ratio</t>
   </si>
@@ -166,6 +167,9 @@
   <si>
     <t>r</t>
   </si>
+  <si>
+    <t>lua</t>
+  </si>
 </sst>
 </file>
 
@@ -196,6 +200,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,15 +255,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="55">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -770,6 +778,15 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -843,44 +860,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$19</c:f>
+              <c:f>ZF!$A$8:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -888,44 +908,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$C$8:$C$19</c:f>
+              <c:f>ZF!$C$8:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2880586592178771</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.2674581005586592</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.8599860335195535</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.6089385474860336</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.1850558659217878</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.4731145251396649</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.761173184357542</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5.9916201117318435</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6.3372905027932971</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>6.9134078212290504</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>7.6623603351955314</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>8.641759776536313</c:v>
                 </c:pt>
               </c:numCache>
@@ -973,44 +996,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$19</c:f>
+              <c:f>ZF!$A$8:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1018,44 +1044,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$F$8:$F$19</c:f>
+              <c:f>ZF!$F$8:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.3044692737430168</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10.139664804469273</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>30.879888268156428</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>36.871508379888269</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41.480446927374302</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43.784916201117319</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>46.089385474860336</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>47.932960893854748</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>50.698324022346377</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>55.307262569832403</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>61.298882681564251</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>69.134078212290504</c:v>
                 </c:pt>
               </c:numCache>
@@ -1103,44 +1132,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$19</c:f>
+              <c:f>ZF!$A$8:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1148,44 +1180,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$G$8:$G$19</c:f>
+              <c:f>ZF!$G$8:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.10474860335195531</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.46089385474860334</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0">
+                <c:pt idx="3" formatCode="0.0">
                   <c:v>1.4036312849162014</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.6759776536312849</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.0">
+                <c:pt idx="5" formatCode="0.0">
                   <c:v>1.8854748603351956</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.990223463687151</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.0">
+                <c:pt idx="7" formatCode="0.0">
                   <c:v>2.0949720670391061</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.1787709497206706</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.0">
+                <c:pt idx="9" formatCode="0.0">
                   <c:v>2.3044692737430172</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.5139664804469275</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.0">
+                <c:pt idx="11" formatCode="0.0">
                   <c:v>2.7863128491620115</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3.1424581005586592</c:v>
                 </c:pt>
               </c:numCache>
@@ -1233,44 +1268,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$19</c:f>
+              <c:f>ZF!$A$8:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1278,44 +1316,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$H$8:$H$19</c:f>
+              <c:f>ZF!$H$8:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.83798882681564246</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.6871508379888267</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0">
+                <c:pt idx="3" formatCode="0.0">
                   <c:v>11.229050279329611</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.407821229050279</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.0">
+                <c:pt idx="5" formatCode="0.0">
                   <c:v>15.083798882681565</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15.921787709497208</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.0">
+                <c:pt idx="7" formatCode="0.0">
                   <c:v>16.759776536312849</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>17.430167597765365</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.0">
+                <c:pt idx="9" formatCode="0.0">
                   <c:v>18.435754189944138</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>20.11173184357542</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.0">
+                <c:pt idx="11" formatCode="0.0">
                   <c:v>22.290502793296092</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>25.139664804469273</c:v>
                 </c:pt>
               </c:numCache>
@@ -1331,8 +1372,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459772648"/>
-        <c:axId val="459774608"/>
+        <c:axId val="627416232"/>
+        <c:axId val="627417016"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1377,44 +1418,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$19</c:f>
+              <c:f>ZF!$A$8:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1422,44 +1466,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$B$8:$B$19</c:f>
+              <c:f>ZF!$B$8:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.97799999999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.94499999999999995</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.92</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -1475,11 +1522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459774216"/>
-        <c:axId val="459771864"/>
+        <c:axId val="627422504"/>
+        <c:axId val="627424856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459772648"/>
+        <c:axId val="627416232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,12 +1583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459774608"/>
+        <c:crossAx val="627417016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459774608"/>
+        <c:axId val="627417016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1599,12 +1646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459772648"/>
+        <c:crossAx val="627416232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459771864"/>
+        <c:axId val="627424856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,12 +1694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459774216"/>
+        <c:crossAx val="627422504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459774216"/>
+        <c:axId val="627422504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459771864"/>
+        <c:crossAx val="627424856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1799,7 +1846,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ZF!$B$29</c:f>
+              <c:f>ZF!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1834,7 +1881,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$30:$A$62</c:f>
+              <c:f>ZF!$A$31:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1942,12 +1989,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$B$30:$B$62</c:f>
+              <c:f>ZF!$B$31:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.87</c:v>
@@ -2058,11 +2105,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459775392"/>
-        <c:axId val="459773040"/>
+        <c:axId val="627423288"/>
+        <c:axId val="627413880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459775392"/>
+        <c:axId val="627423288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2120,15 +2167,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459773040"/>
+        <c:crossAx val="627413880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459773040"/>
+        <c:axId val="627413880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.60000000000000009"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2183,7 +2231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459775392"/>
+        <c:crossAx val="627423288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2361,7 +2409,7 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.82499999999999996</c:v>
@@ -2385,11 +2433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459771472"/>
-        <c:axId val="459771080"/>
+        <c:axId val="627413096"/>
+        <c:axId val="627422896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459771472"/>
+        <c:axId val="627413096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2448,12 +2496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459771080"/>
+        <c:crossAx val="627422896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459771080"/>
+        <c:axId val="627422896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +2558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459771472"/>
+        <c:crossAx val="627413096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2650,35 +2698,38 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Combine!$A$2:$A$10</c:f>
+              <c:f>Combine!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2686,35 +2737,38 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Combine!$B$2:$B$10</c:f>
+              <c:f>Combine!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2730,11 +2784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459775784"/>
-        <c:axId val="459769120"/>
+        <c:axId val="627418192"/>
+        <c:axId val="627423680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459775784"/>
+        <c:axId val="627418192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2791,12 +2845,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459769120"/>
+        <c:crossAx val="627423680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459769120"/>
+        <c:axId val="627423680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,7 +2907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459775784"/>
+        <c:crossAx val="627418192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2993,10 +3047,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Linde!$A$2:$A$15</c:f>
+              <c:f>Linde!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -3013,30 +3067,36 @@
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3044,10 +3104,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Linde!$B$2:$B$15</c:f>
+              <c:f>Linde!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.87</c:v>
                 </c:pt>
@@ -3064,30 +3124,36 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -3103,11 +3169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463942128"/>
-        <c:axId val="463936248"/>
+        <c:axId val="627416624"/>
+        <c:axId val="627412704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463942128"/>
+        <c:axId val="627416624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,12 +3230,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463936248"/>
+        <c:crossAx val="627412704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463936248"/>
+        <c:axId val="627412704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +3292,673 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463942128"/>
+        <c:crossAx val="627416624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compound!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compound!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compound!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compound!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lua</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compound!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compound!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="500283256"/>
+        <c:axId val="500282080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="500283256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500282080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="500282080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500283256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3475,6 +4207,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5540,6 +6312,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6091,13 +7379,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6124,14 +7412,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -6161,14 +7449,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -6198,14 +7486,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -6231,36 +7519,73 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K20" totalsRowShown="0">
   <tableColumns count="11">
-    <tableColumn id="1" name="ratio" dataDxfId="2"/>
-    <tableColumn id="2" name="factor" dataDxfId="0"/>
-    <tableColumn id="3" name="speed1" dataDxfId="1">
+    <tableColumn id="1" name="ratio" dataDxfId="54"/>
+    <tableColumn id="2" name="factor" dataDxfId="53"/>
+    <tableColumn id="3" name="speed1" dataDxfId="52">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s1]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="speed2" dataDxfId="50">
+    <tableColumn id="11" name="speed2" dataDxfId="51">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="speed3" dataDxfId="49">
+    <tableColumn id="10" name="speed3" dataDxfId="50">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s3]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="speed4" dataDxfId="48">
+    <tableColumn id="4" name="speed4" dataDxfId="49">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s4]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="idleSpeed1" dataDxfId="47">
+    <tableColumn id="7" name="idleSpeed1" dataDxfId="48">
       <calculatedColumnFormula>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed4" dataDxfId="46">
+    <tableColumn id="6" name="idleSpeed4" dataDxfId="47">
       <calculatedColumnFormula>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ratio1" dataDxfId="45">
+    <tableColumn id="9" name="ratio1" dataDxfId="46">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ratio2" dataDxfId="44">
+    <tableColumn id="8" name="ratio2" dataDxfId="45">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="43">
+    <tableColumn id="5" name="xml" dataDxfId="44">
       <calculatedColumnFormula>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6269,41 +7594,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="43">
   <tableColumns count="14">
-    <tableColumn id="1" name="s1" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="1" name="s1" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="s2" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="11" name="s2" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="s3" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="14" name="s3" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="s4" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="2" name="s4" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="minRatio" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="6" name="minRatio" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="minEff" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="9" name="maxEff" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="3" name="range" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="8" name="minEff" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="9" name="maxEff" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" name="range" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="zeroEff" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="10" name="zeroEff" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="constF1" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="13" name="constF2" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="12" name="constF1" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="13" name="constF2" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
       <totalsRowFormula>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="rpm50" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="16" name="rpm50" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="rpm60" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="17" name="rpm60" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6312,25 +7637,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E21:K25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E22:K26" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="gear" dataDxfId="13"/>
-    <tableColumn id="2" name="speed" dataDxfId="12">
+    <tableColumn id="1" name="gear" dataDxfId="14"/>
+    <tableColumn id="2" name="speed" dataDxfId="13">
       <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="minSpeed" dataDxfId="11">
+    <tableColumn id="9" name="minSpeed" dataDxfId="12">
       <calculatedColumnFormula>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed" dataDxfId="10">
-      <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
+    <tableColumn id="6" name="idleSpeed" dataDxfId="11">
+      <calculatedColumnFormula>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="fromSpeed" dataDxfId="9">
-      <calculatedColumnFormula>$A$10*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    <tableColumn id="5" name="fromSpeed" dataDxfId="10">
+      <calculatedColumnFormula>$A$11*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="toSpeed" dataDxfId="8">
-      <calculatedColumnFormula>$A$18*Table3[[#This Row],[speed]]</calculatedColumnFormula>
+    <tableColumn id="4" name="toSpeed" dataDxfId="9">
+      <calculatedColumnFormula>$A$19*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="xml" dataDxfId="7">
+    <tableColumn id="3" name="xml" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6355,10 +7680,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A29:B62" totalsRowShown="0">
-  <autoFilter ref="A29:B62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A30:B63" totalsRowShown="0">
+  <autoFilter ref="A30:B63"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="km/h" dataDxfId="6"/>
+    <tableColumn id="1" name="km/h" dataDxfId="7"/>
     <tableColumn id="2" name="Efficiency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6366,36 +7691,59 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="r"/>
     <tableColumn id="2" name="e"/>
+    <tableColumn id="3" name="lua" dataDxfId="1">
+      <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A1:B10" totalsRowShown="0">
-  <autoFilter ref="A1:B10"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="r"/>
     <tableColumn id="2" name="e"/>
+    <tableColumn id="3" name="lua" dataDxfId="2">
+      <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A1:B15" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A1:C17" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:C17"/>
   <sortState ref="A2:B12">
     <sortCondition ref="A1"/>
   </sortState>
-  <tableColumns count="2">
+  <tableColumns count="3">
     <tableColumn id="1" name="r" dataDxfId="5"/>
     <tableColumn id="2" name="e" dataDxfId="4"/>
+    <tableColumn id="3" name="lua" dataDxfId="3">
+      <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A1:C30" totalsRowShown="0">
+  <autoFilter ref="A1:C30"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="r"/>
+    <tableColumn id="2" name="e"/>
+    <tableColumn id="3" name="lua" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6664,10 +8012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6886,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
@@ -6922,715 +8270,757 @@
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0.6"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
       </c>
       <c r="L8" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0.6"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="B9" s="16">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
       <c r="C9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>1.2674581005586592</v>
+        <v>0.2880586592178771</v>
       </c>
       <c r="D9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>2.5349162011173183</v>
+        <v>0.5761173184357542</v>
       </c>
       <c r="E9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>5.0698324022346366</v>
+        <v>1.1522346368715084</v>
       </c>
       <c r="F9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
-        <v>10.139664804469273</v>
+        <v>2.3044692737430168</v>
       </c>
       <c r="G9" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
-        <v>0.46089385474860334</v>
+        <v>0.10474860335195531</v>
       </c>
       <c r="H9" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
-        <v>3.6871508379888267</v>
+        <v>0.83798882681564246</v>
       </c>
       <c r="I9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>654.3651898095394</v>
+        <v>2879.2068351619737</v>
       </c>
       <c r="J9" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
-        <v>81.795648726192425</v>
+        <v>359.90085439524671</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.22" factor="0.68"/&gt; &lt;!-- 0.46 .. 10.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.05" factor="0.4"/&gt; &lt;!-- 0.1 .. 2.3 --&gt;</v>
       </c>
       <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.22" factor="0.68"/&gt; &lt;!-- 0.46 .. 10.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.05" factor="0.4"/&gt; &lt;!-- 0.1 .. 2.3 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>0.67</v>
+        <v>0.22</v>
       </c>
       <c r="B10" s="16">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="C10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
-        <v>3.8599860335195535</v>
+        <v>1.2674581005586592</v>
       </c>
       <c r="D10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
-        <v>7.719972067039107</v>
+        <v>2.5349162011173183</v>
       </c>
       <c r="E10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
-        <v>15.439944134078214</v>
+        <v>5.0698324022346366</v>
       </c>
       <c r="F10" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>10.139664804469273</v>
+      </c>
+      <c r="G10" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>0.46089385474860334</v>
+      </c>
+      <c r="H10" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>3.6871508379888267</v>
+      </c>
+      <c r="I10" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>654.3651898095394</v>
+      </c>
+      <c r="J10" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>81.795648726192425</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.22" factor="0.68"/&gt; &lt;!-- 0.46 .. 10.1 --&gt;</v>
+      </c>
+      <c r="L10" t="str">
+        <f>Table1[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.22" factor="0.68"/&gt; &lt;!-- 0.46 .. 10.1 --&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="C11" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>3.8599860335195535</v>
+      </c>
+      <c r="D11" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>7.719972067039107</v>
+      </c>
+      <c r="E11" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>15.439944134078214</v>
+      </c>
+      <c r="F11" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>30.879888268156428</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>1.4036312849162014</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>11.229050279329611</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>214.86618172850547</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>26.858272716063183</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K11" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.67" factor="0.87"/&gt; &lt;!-- 1.4 .. 30.9 --&gt;</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L11" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.67" factor="0.87"/&gt; &lt;!-- 1.4 .. 30.9 --&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>0.8</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B12" s="16">
         <v>0.93</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>4.6089385474860336</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>9.2178770949720672</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>18.435754189944134</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>36.871508379888269</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>1.6759776536312849</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>13.407821229050279</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>179.95042719762336</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>22.493803399702919</v>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="K12" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 1.68 .. 36.9 --&gt;</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L12" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 1.68 .. 36.9 --&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>0.9</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B13" s="16">
         <v>0.97</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>5.1850558659217878</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>10.370111731843576</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>20.740223463687151</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>41.480446927374302</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>1.8854748603351956</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>15.083798882681565</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>159.95593528677631</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>19.994491910847039</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K13" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.97"/&gt; &lt;!-- 1.89 .. 41.5 --&gt;</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L13" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.97"/&gt; &lt;!-- 1.89 .. 41.5 --&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>0.95</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B14" s="16">
         <v>0.97799999999999998</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>5.4731145251396649</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>10.94622905027933</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>21.89245810055866</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>43.784916201117319</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>1.990223463687151</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>15.921787709497208</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I14" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>151.53720185063017</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>18.942150231328771</v>
       </c>
-      <c r="K13" s="4" t="str">
+      <c r="K14" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.95" factor="0.978"/&gt; &lt;!-- 1.99 .. 43.8 --&gt;</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L14" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="0.95" factor="0.978"/&gt; &lt;!-- 1.99 .. 43.8 --&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B15" s="16">
         <f>Table2[maxEff]</f>
         <v>0.98</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>5.761173184357542</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>11.522346368715084</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>23.044692737430168</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>46.089385474860336</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>2.0949720670391061</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>16.759776536312849</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I15" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>143.96034175809868</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>17.995042719762335</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K15" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.09 .. 46.1 --&gt;</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L15" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.09 .. 46.1 --&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>1.04</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B16" s="16">
         <v>0.97</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>5.9916201117318435</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>11.983240223463687</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>23.966480446927374</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>47.932960893854748</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>2.1787709497206706</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>17.430167597765365</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I16" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>138.42340553663334</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>17.302925692079167</v>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="K16" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.04" factor="0.97"/&gt; &lt;!-- 2.18 .. 47.9 --&gt;</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L16" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.04" factor="0.97"/&gt; &lt;!-- 2.18 .. 47.9 --&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B17" s="16">
         <v>0.94499999999999995</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>6.3372905027932971</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>12.674581005586594</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>25.349162011173188</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>50.698324022346377</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>2.3044692737430172</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>18.435754189944138</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>130.87303796190787</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>16.359129745238484</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K17" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.945"/&gt; &lt;!-- 2.3 .. 50.7 --&gt;</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L17" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.945"/&gt; &lt;!-- 2.3 .. 50.7 --&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>1.2</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B18" s="16">
         <v>0.92</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>6.9134078212290504</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>13.826815642458101</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>27.653631284916202</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>55.307262569832403</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>2.5139664804469275</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>20.11173184357542</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I18" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>119.96695146508223</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>14.995868933135279</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="K18" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.92"/&gt; &lt;!-- 2.51 .. 55.3 --&gt;</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L18" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.92"/&gt; &lt;!-- 2.51 .. 55.3 --&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>1.33</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B19" s="16">
         <v>0.89</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>7.6623603351955314</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>15.324720670391063</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>30.649441340782126</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>61.298882681564251</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>2.7863128491620115</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>22.290502793296092</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>108.24085846473584</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>13.53010730809198</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K19" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.33" factor="0.89"/&gt; &lt;!-- 2.79 .. 61.3 --&gt;</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L19" t="str">
         <f>Table1[[#This Row],[xml]]</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.33" factor="0.89"/&gt; &lt;!-- 2.79 .. 61.3 --&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>1.5</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B20" s="16">
         <v>0.86</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
         <v>8.641759776536313</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
         <v>17.283519553072626</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
         <v>34.567039106145252</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
         <v>69.134078212290504</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
         <v>3.1424581005586592</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
         <v>25.139664804469273</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
         <v>95.973561172065786</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
         <v>11.996695146508223</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="K20" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
         <v xml:space="preserve">        &lt;efficiency ratio="1.5" factor="0.86"/&gt; &lt;!-- 3.14 .. 69.1 --&gt;</v>
       </c>
-      <c r="L19" t="str">
-        <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.5" factor="0.86"/&gt; &lt;!-- 3.14 .. 69.1 --&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
       <c r="L20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" t="s">
-        <v>4</v>
-      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
       <c r="L21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="4" t="e">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
         <v>5.761173184357542</v>
-      </c>
-      <c r="G22" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>1.4036312849162014</v>
-      </c>
-      <c r="I22" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>3.8599860335195535</v>
-      </c>
-      <c r="J22" s="1">
-        <f>$A$18*Table3[[#This Row],[speed]]</f>
-        <v>7.6623603351955314</v>
-      </c>
-      <c r="K22" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
-      </c>
-      <c r="L22" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>11.522346368715084</v>
       </c>
       <c r="G23" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>2.8072625698324027</v>
+        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>1.4036312849162014</v>
       </c>
       <c r="I23" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>7.719972067039107</v>
+        <f>$A$11*Table3[[#This Row],[speed]]</f>
+        <v>3.8599860335195535</v>
       </c>
       <c r="J23" s="1">
-        <f>$A$18*Table3[[#This Row],[speed]]</f>
-        <v>15.324720670391063</v>
+        <f>$A$19*Table3[[#This Row],[speed]]</f>
+        <v>7.6623603351955314</v>
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
       </c>
       <c r="L23" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>23.044692737430168</v>
+        <v>11.522346368715084</v>
       </c>
       <c r="G24" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>5.6145251396648055</v>
+        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>2.8072625698324027</v>
       </c>
       <c r="I24" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>15.439944134078214</v>
+        <f>$A$11*Table3[[#This Row],[speed]]</f>
+        <v>7.719972067039107</v>
       </c>
       <c r="J24" s="1">
-        <f>$A$18*Table3[[#This Row],[speed]]</f>
-        <v>30.649441340782126</v>
+        <f>$A$19*Table3[[#This Row],[speed]]</f>
+        <v>15.324720670391063</v>
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
       </c>
       <c r="L24" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>46.089385474860336</v>
+        <v>23.044692737430168</v>
       </c>
       <c r="G25" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>11.229050279329611</v>
+        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>5.6145251396648055</v>
       </c>
       <c r="I25" s="1">
-        <f>$A$10*Table3[[#This Row],[speed]]</f>
-        <v>30.879888268156428</v>
+        <f>$A$11*Table3[[#This Row],[speed]]</f>
+        <v>15.439944134078214</v>
       </c>
       <c r="J25" s="1">
-        <f>$A$18*Table3[[#This Row],[speed]]</f>
-        <v>61.298882681564251</v>
+        <f>$A$19*Table3[[#This Row],[speed]]</f>
+        <v>30.649441340782126</v>
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="46.09" name=""/&gt; &lt;!-- 0 11.23 31 61--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
       </c>
       <c r="L25" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>46.089385474860336</v>
+      </c>
+      <c r="G26" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>11.229050279329611</v>
+      </c>
+      <c r="I26" s="1">
+        <f>$A$11*Table3[[#This Row],[speed]]</f>
+        <v>30.879888268156428</v>
+      </c>
+      <c r="J26" s="1">
+        <f>$A$19*Table3[[#This Row],[speed]]</f>
+        <v>61.298882681564251</v>
+      </c>
+      <c r="K26" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
         <v xml:space="preserve">        &lt;gear speed="46.09" name=""/&gt; &lt;!-- 0 11.23 31 61--&gt;</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>33</v>
       </c>
@@ -7640,349 +9030,349 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <f>B8</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <f>C10</f>
-        <v>3.8599860335195535</v>
-      </c>
-      <c r="B31">
-        <f>B10</f>
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <f>C11</f>
-        <v>4.6089385474860336</v>
+        <v>3.8599860335195535</v>
       </c>
       <c r="B32">
         <f>B11</f>
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <f>C12</f>
-        <v>5.1850558659217878</v>
+        <v>4.6089385474860336</v>
       </c>
       <c r="B33">
         <f>B12</f>
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <f t="shared" ref="A34:A37" si="0">C13</f>
-        <v>5.4731145251396649</v>
+        <f>C13</f>
+        <v>5.1850558659217878</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B37" si="1">B13</f>
-        <v>0.97799999999999998</v>
+        <f>B13</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <f t="shared" si="0"/>
-        <v>5.761173184357542</v>
+        <f t="shared" ref="A35:A38" si="0">C14</f>
+        <v>5.4731145251396649</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
+        <f t="shared" ref="B35:B38" si="1">B14</f>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
-        <v>5.9916201117318435</v>
+        <v>5.761173184357542</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <f t="shared" si="0"/>
-        <v>6.3372905027932971</v>
+        <v>5.9916201117318435</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>0.94499999999999995</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <f t="shared" ref="A38" si="2">C17</f>
+        <f t="shared" si="0"/>
+        <v>6.3372905027932971</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <f t="shared" ref="A39" si="2">C18</f>
         <v>6.9134078212290504</v>
       </c>
-      <c r="B38">
-        <f t="shared" ref="B38" si="3">B17</f>
+      <c r="B39">
+        <f t="shared" ref="B39" si="3">B18</f>
         <v>0.92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <f>D10</f>
-        <v>7.719972067039107</v>
-      </c>
-      <c r="B39">
-        <f>MAX(B10,B18)</f>
-        <v>0.89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f>D11</f>
-        <v>9.2178770949720672</v>
+        <v>7.719972067039107</v>
       </c>
       <c r="B40">
         <f>MAX(B11,B19)</f>
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <f t="shared" ref="A41:A45" si="4">D12</f>
-        <v>10.370111731843576</v>
+        <f>D12</f>
+        <v>9.2178770949720672</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B45" si="5">MAX(B12,B20)</f>
-        <v>0.97</v>
+        <f>MAX(B12,B20)</f>
+        <v>0.93</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <f t="shared" si="4"/>
-        <v>10.94622905027933</v>
+        <f t="shared" ref="A42:A46" si="4">D13</f>
+        <v>10.370111731843576</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
-        <v>0.97799999999999998</v>
+        <f t="shared" ref="B42:B46" si="5">MAX(B13,B21)</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" si="4"/>
-        <v>11.522346368715084</v>
+        <v>10.94622905027933</v>
       </c>
       <c r="B43">
         <f t="shared" si="5"/>
-        <v>0.98</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="4"/>
-        <v>11.983240223463687</v>
+        <v>11.522346368715084</v>
       </c>
       <c r="B44">
         <f t="shared" si="5"/>
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="4"/>
-        <v>12.674581005586594</v>
+        <v>11.983240223463687</v>
       </c>
       <c r="B45">
         <f t="shared" si="5"/>
-        <v>0.94499999999999995</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <f t="shared" ref="A46" si="6">D18</f>
-        <v>15.324720670391063</v>
+        <f t="shared" si="4"/>
+        <v>12.674581005586594</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46" si="7">B18</f>
-        <v>0.89</v>
+        <f t="shared" si="5"/>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <f>E10</f>
-        <v>15.439944134078214</v>
+        <f t="shared" ref="A47" si="6">D19</f>
+        <v>15.324720670391063</v>
       </c>
       <c r="B47">
-        <f>MAX(B10,B18)</f>
+        <f t="shared" ref="B47" si="7">B19</f>
         <v>0.89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f>E11</f>
-        <v>18.435754189944134</v>
+        <v>15.439944134078214</v>
       </c>
       <c r="B48">
-        <f>B11</f>
-        <v>0.93</v>
+        <f>MAX(B11,B19)</f>
+        <v>0.89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <f t="shared" ref="A49:A53" si="8">E12</f>
-        <v>20.740223463687151</v>
+        <f>E12</f>
+        <v>18.435754189944134</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B53" si="9">B12</f>
-        <v>0.97</v>
+        <f>B12</f>
+        <v>0.93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <f t="shared" si="8"/>
-        <v>21.89245810055866</v>
+        <f t="shared" ref="A50:A54" si="8">E13</f>
+        <v>20.740223463687151</v>
       </c>
       <c r="B50">
-        <f t="shared" si="9"/>
-        <v>0.97799999999999998</v>
+        <f t="shared" ref="B50:B54" si="9">B13</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" si="8"/>
-        <v>23.044692737430168</v>
+        <v>21.89245810055866</v>
       </c>
       <c r="B51">
         <f t="shared" si="9"/>
-        <v>0.98</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" si="8"/>
-        <v>23.966480446927374</v>
+        <v>23.044692737430168</v>
       </c>
       <c r="B52">
         <f t="shared" si="9"/>
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" si="8"/>
-        <v>25.349162011173188</v>
+        <v>23.966480446927374</v>
       </c>
       <c r="B53">
         <f t="shared" si="9"/>
-        <v>0.94499999999999995</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <f t="shared" ref="A54" si="10">E18</f>
-        <v>30.649441340782126</v>
+        <f t="shared" si="8"/>
+        <v>25.349162011173188</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54" si="11">B18</f>
-        <v>0.89</v>
+        <f t="shared" si="9"/>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <f>F10</f>
-        <v>30.879888268156428</v>
-      </c>
-      <c r="B55" s="6">
-        <f>MAX(B10,B18)</f>
+        <f t="shared" ref="A55" si="10">E19</f>
+        <v>30.649441340782126</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="11">B19</f>
         <v>0.89</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f>F11</f>
-        <v>36.871508379888269</v>
-      </c>
-      <c r="B56">
-        <f>B11</f>
-        <v>0.93</v>
+        <v>30.879888268156428</v>
+      </c>
+      <c r="B56" s="6">
+        <f>MAX(B11,B19)</f>
+        <v>0.89</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <f t="shared" ref="A57:A61" si="12">F12</f>
-        <v>41.480446927374302</v>
+        <f>F12</f>
+        <v>36.871508379888269</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="13">B12</f>
-        <v>0.97</v>
+        <f>B12</f>
+        <v>0.93</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <f t="shared" si="12"/>
-        <v>43.784916201117319</v>
+        <f t="shared" ref="A58:A62" si="12">F13</f>
+        <v>41.480446927374302</v>
       </c>
       <c r="B58">
-        <f t="shared" si="13"/>
-        <v>0.97799999999999998</v>
+        <f t="shared" ref="B58:B62" si="13">B13</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" si="12"/>
-        <v>46.089385474860336</v>
+        <v>43.784916201117319</v>
       </c>
       <c r="B59">
         <f t="shared" si="13"/>
-        <v>0.98</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <f t="shared" si="12"/>
-        <v>47.932960893854748</v>
+        <v>46.089385474860336</v>
       </c>
       <c r="B60">
         <f t="shared" si="13"/>
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <f t="shared" si="12"/>
-        <v>50.698324022346377</v>
+        <v>47.932960893854748</v>
       </c>
       <c r="B61">
         <f t="shared" si="13"/>
-        <v>0.94499999999999995</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <f>F18</f>
+        <f t="shared" si="12"/>
+        <v>50.698324022346377</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="13"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <f>F19</f>
         <v>61.298882681564251</v>
       </c>
-      <c r="B62">
-        <f t="shared" ref="B62" si="14">B18</f>
+      <c r="B63">
+        <f t="shared" ref="B63" si="14">B19</f>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8000,68 +9390,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-1 , v=0.65})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.01</v>
       </c>
       <c r="B3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.01 , v=0.82})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.000001})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.01</v>
       </c>
       <c r="B5">
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.01 , v=0.825})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0.98})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.5</v>
       </c>
       <c r="B7">
         <v>0.89</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1.5 , v=0.89})</v>
       </c>
     </row>
   </sheetData>
@@ -8075,92 +9492,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.000001})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.05 , v=0.4})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>0.2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.2 , v=0.75})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>0.4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C5" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.4 , v=0.84})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>0.7</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C6" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.7 , v=0.93})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>0.9</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C7" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.9 , v=0.97})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C8" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0.98})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C9" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1.1 , v=0.97})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1.2</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C10" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1.2 , v=0.95})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1.4</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0.9</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1.4 , v=0.9})</v>
       </c>
     </row>
   </sheetData>
@@ -8174,132 +9645,593 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>-1</v>
       </c>
       <c r="B2" s="16">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-1 , v=0.87})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>-0.85</v>
       </c>
       <c r="B3" s="16">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.85 , v=0.92})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>-0.7</v>
       </c>
       <c r="B4" s="16">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.7 , v=0.93})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>-0.5</v>
       </c>
       <c r="B5" s="16">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.5 , v=0.87})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>-0.15</v>
       </c>
       <c r="B6" s="16">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.15 , v=0.7})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.02 , v=0.4})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>0</v>
       </c>
-      <c r="B7" s="16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.000001})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.02 , v=0.4})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>0.15</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B10" s="16">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="C10" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.15 , v=0.75})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>0.3</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B11" s="16">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="C11" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.3 , v=0.85})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>0.5</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B12" s="16">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="C12" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.5 , v=0.93})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>0.65</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="B12" s="16">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>0.75</v>
       </c>
       <c r="B13" s="16">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.65 , v=0.975})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.7 , v=0.98})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.75 , v=0.975})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>0.85</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B16" s="16">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="C16" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.85 , v=0.95})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>1</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B17" s="16">
         <v>0.9</v>
+      </c>
+      <c r="C17" s="16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0.9})</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.000001})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.01 , v=0.4})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.07 , v=0.7})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.81</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.1 , v=0.81})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.17</v>
+      </c>
+      <c r="B6">
+        <v>0.96</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.17 , v=0.96})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.18</v>
+      </c>
+      <c r="B7">
+        <v>0.97</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.18 , v=0.97})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.19</v>
+      </c>
+      <c r="B8">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.19 , v=0.977})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.2</v>
+      </c>
+      <c r="B9">
+        <v>0.98</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.2 , v=0.98})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.21</v>
+      </c>
+      <c r="B10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.21 , v=0.975})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.22</v>
+      </c>
+      <c r="B11">
+        <v>0.94</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.22 , v=0.94})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.23</v>
+      </c>
+      <c r="B12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.23 , v=0.925})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.25</v>
+      </c>
+      <c r="B13">
+        <v>0.92</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.25 , v=0.92})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.3</v>
+      </c>
+      <c r="B14">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.3 , v=0.918})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.35</v>
+      </c>
+      <c r="B15">
+        <v>0.92</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.35 , v=0.92})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.4</v>
+      </c>
+      <c r="B16">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.4 , v=0.935})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.48</v>
+      </c>
+      <c r="B17">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.48 , v=0.965})</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.49</v>
+      </c>
+      <c r="B18">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.49 , v=0.969})</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.5</v>
+      </c>
+      <c r="B19">
+        <v>0.97</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.5 , v=0.97})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.51</v>
+      </c>
+      <c r="B20">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.51 , v=0.968})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.52</v>
+      </c>
+      <c r="B21">
+        <v>0.96</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.52 , v=0.96})</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.53</v>
+      </c>
+      <c r="B22">
+        <v>0.94</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.53 , v=0.94})</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.54</v>
+      </c>
+      <c r="B23">
+        <v>0.9</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.54 , v=0.9})</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B24">
+        <v>0.88</v>
+      </c>
+      <c r="C24" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.55 , v=0.88})</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B25">
+        <v>0.88</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.56 , v=0.88})</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.6</v>
+      </c>
+      <c r="B26">
+        <v>0.89</v>
+      </c>
+      <c r="C26" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.6 , v=0.89})</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.65</v>
+      </c>
+      <c r="B27">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C27" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.65 , v=0.895})</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.7</v>
+      </c>
+      <c r="B28">
+        <v>0.9</v>
+      </c>
+      <c r="C28" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.7 , v=0.9})</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.8</v>
+      </c>
+      <c r="B29">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C29" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.8 , v=0.908})</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.91</v>
+      </c>
+      <c r="C30" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0.91})</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33375" yWindow="0" windowWidth="13200" windowHeight="11520" activeTab="3"/>
+    <workbookView xWindow="1455" yWindow="0" windowWidth="13200" windowHeight="10320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ZF" sheetId="1" r:id="rId1"/>
@@ -260,10 +260,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -275,7 +272,10 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1372,8 +1372,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627416232"/>
-        <c:axId val="627417016"/>
+        <c:axId val="488981240"/>
+        <c:axId val="488981632"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1471,10 +1471,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.68</c:v>
@@ -1522,11 +1522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627422504"/>
-        <c:axId val="627424856"/>
+        <c:axId val="488982416"/>
+        <c:axId val="488982024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627416232"/>
+        <c:axId val="488981240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,12 +1583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627417016"/>
+        <c:crossAx val="488981632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627417016"/>
+        <c:axId val="488981632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1646,12 +1646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627416232"/>
+        <c:crossAx val="488981240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627424856"/>
+        <c:axId val="488982024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,12 +1694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627422504"/>
+        <c:crossAx val="488982416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627422504"/>
+        <c:axId val="488982416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,7 +1709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627424856"/>
+        <c:crossAx val="488982024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,7 +1994,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.87</c:v>
@@ -2105,11 +2105,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627423288"/>
-        <c:axId val="627413880"/>
+        <c:axId val="488976144"/>
+        <c:axId val="488974968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627423288"/>
+        <c:axId val="488976144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2167,12 +2167,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627413880"/>
+        <c:crossAx val="488974968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627413880"/>
+        <c:axId val="488974968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2231,7 +2231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627423288"/>
+        <c:crossAx val="488976144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2295,7 +2295,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2433,11 +2432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627413096"/>
-        <c:axId val="627422896"/>
+        <c:axId val="488971832"/>
+        <c:axId val="488973008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627413096"/>
+        <c:axId val="488971832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2496,12 +2495,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627422896"/>
+        <c:crossAx val="488973008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627422896"/>
+        <c:axId val="488973008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627413096"/>
+        <c:crossAx val="488971832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2622,7 +2621,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2784,11 +2782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627418192"/>
-        <c:axId val="627423680"/>
+        <c:axId val="488976928"/>
+        <c:axId val="488973400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627418192"/>
+        <c:axId val="488976928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,12 +2843,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627423680"/>
+        <c:crossAx val="488973400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627423680"/>
+        <c:axId val="488973400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,7 +2905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627418192"/>
+        <c:crossAx val="488976928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3067,13 +3065,13 @@
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.02</c:v>
+                  <c:v>-0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.15</c:v>
@@ -3121,16 +3119,16 @@
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.75</c:v>
@@ -3169,13 +3167,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627416624"/>
-        <c:axId val="627412704"/>
+        <c:axId val="488978888"/>
+        <c:axId val="488977712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627416624"/>
+        <c:axId val="488978888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3230,14 +3230,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627412704"/>
+        <c:crossAx val="488977712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627412704"/>
+        <c:axId val="488977712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3292,7 +3293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627416624"/>
+        <c:crossAx val="488978888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3502,13 +3503,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.81</c:v>
@@ -3833,11 +3834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500283256"/>
-        <c:axId val="500282080"/>
+        <c:axId val="488971440"/>
+        <c:axId val="488977320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500283256"/>
+        <c:axId val="488971440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3895,12 +3896,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500282080"/>
+        <c:crossAx val="488977320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500282080"/>
+        <c:axId val="488977320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3958,7 +3959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500283256"/>
+        <c:crossAx val="488971440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7696,7 +7697,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="r"/>
     <tableColumn id="2" name="e"/>
-    <tableColumn id="3" name="lua" dataDxfId="1">
+    <tableColumn id="3" name="lua" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7710,7 +7711,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="r"/>
     <tableColumn id="2" name="e"/>
-    <tableColumn id="3" name="lua" dataDxfId="2">
+    <tableColumn id="3" name="lua" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7719,15 +7720,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A1:C17" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A1:C17" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:C17"/>
   <sortState ref="A2:B12">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="r" dataDxfId="5"/>
-    <tableColumn id="2" name="e" dataDxfId="4"/>
-    <tableColumn id="3" name="lua" dataDxfId="3">
+    <tableColumn id="1" name="r" dataDxfId="3"/>
+    <tableColumn id="2" name="e" dataDxfId="2"/>
+    <tableColumn id="3" name="lua" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8014,8 +8015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8234,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
@@ -8270,11 +8271,11 @@
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0.5"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
       </c>
       <c r="L8" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0.5"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -8282,7 +8283,7 @@
         <v>0.05</v>
       </c>
       <c r="B9" s="16">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C9" s="6">
         <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
@@ -8318,11 +8319,11 @@
       </c>
       <c r="K9" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.05" factor="0.4"/&gt; &lt;!-- 0.1 .. 2.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.05" factor="0.55"/&gt; &lt;!-- 0.1 .. 2.3 --&gt;</v>
       </c>
       <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.05" factor="0.4"/&gt; &lt;!-- 0.1 .. 2.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0.05" factor="0.55"/&gt; &lt;!-- 0.1 .. 2.3 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -9045,7 +9046,7 @@
       </c>
       <c r="B31">
         <f>B8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -9647,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9717,23 +9718,23 @@
         <v>-0.15</v>
       </c>
       <c r="B6" s="16">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="C6" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.15 , v=0.7})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.15 , v=0.71})</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="B7" s="16">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C7" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.02 , v=0.4})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.01 , v=0.6})</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9741,23 +9742,23 @@
         <v>0</v>
       </c>
       <c r="B8" s="16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.000001})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.5})</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="B9" s="16">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C9" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.02 , v=0.4})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.01 , v=0.6})</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9869,8 +9870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9891,11 +9892,11 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.000001})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.5})</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9903,11 +9904,11 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.01 , v=0.4})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.01 , v=0.57})</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9915,11 +9916,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.07 , v=0.7})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.07 , v=0.75})</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="0" windowWidth="13200" windowHeight="10320" activeTab="4"/>
+    <workbookView xWindow="2910" yWindow="0" windowWidth="13200" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="ZF" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Linde" sheetId="4" r:id="rId4"/>
     <sheet name="Compound" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -860,10 +860,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$20</c:f>
+              <c:f>ZF!$A$8:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -902,16 +902,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$C$8:$C$20</c:f>
+              <c:f>ZF!$C$8:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -950,11 +959,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>8.641759776536313</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6211592178770946</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.082053072625698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.522346368715084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CD5-49B6-8BF0-9694BD3BC9D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -996,10 +1019,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$20</c:f>
+              <c:f>ZF!$A$8:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1038,16 +1061,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$F$8:$F$20</c:f>
+              <c:f>ZF!$F$8:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1086,11 +1118,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>69.134078212290504</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.969273743016757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.656424581005581</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.178770949720672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CD5-49B6-8BF0-9694BD3BC9D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1132,10 +1178,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$20</c:f>
+              <c:f>ZF!$A$8:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1174,16 +1220,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$G$8:$G$20</c:f>
+              <c:f>ZF!$G$8:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1222,11 +1277,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.1424581005586592</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4986033519553073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6662011173184355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1899441340782122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3CD5-49B6-8BF0-9694BD3BC9D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1268,10 +1337,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$20</c:f>
+              <c:f>ZF!$A$8:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1310,16 +1379,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$H$8:$H$20</c:f>
+              <c:f>ZF!$H$8:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1358,11 +1436,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>25.139664804469273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.988826815642458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.329608938547484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.519553072625698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3CD5-49B6-8BF0-9694BD3BC9D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1418,10 +1510,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$8:$A$20</c:f>
+              <c:f>ZF!$A$8:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1460,16 +1552,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$B$8:$B$20</c:f>
+              <c:f>ZF!$B$8:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -1508,11 +1609,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3CD5-49B6-8BF0-9694BD3BC9D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1580,7 +1695,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488981632"/>
@@ -1643,7 +1758,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488981240"/>
@@ -1691,7 +1806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488982416"/>
@@ -1723,7 +1838,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1749,7 +1863,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1779,7 +1893,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1791,7 +1905,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1805,7 +1919,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1831,7 +1944,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1846,7 +1959,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ZF!$B$30</c:f>
+              <c:f>ZF!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1881,7 +1994,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZF!$A$31:$A$63</c:f>
+              <c:f>ZF!$A$34:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1989,7 +2102,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZF!$B$31:$B$63</c:f>
+              <c:f>ZF!$B$34:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2096,6 +2209,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C684-47B5-B439-7DB43776DDE0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2164,7 +2282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488974968"/>
@@ -2228,7 +2346,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488976144"/>
@@ -2269,7 +2387,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2281,7 +2399,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2320,7 +2438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2423,6 +2541,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0742-4804-9B0B-F9CD1588DA27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2492,7 +2615,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488973008"/>
@@ -2554,7 +2677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488971832"/>
@@ -2595,7 +2718,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2607,7 +2730,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2646,7 +2769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2773,6 +2896,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B34B-45DB-B83C-DA6CDFDA4019}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2840,7 +2968,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488973400"/>
@@ -2902,7 +3030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488976928"/>
@@ -2943,7 +3071,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2955,7 +3083,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2969,7 +3097,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2995,7 +3122,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3158,6 +3285,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6199-49FA-B073-C275BFF9849B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3227,7 +3359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488977712"/>
@@ -3290,7 +3422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488978888"/>
@@ -3331,7 +3463,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3343,7 +3475,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3593,6 +3725,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA58-48FF-8643-3C133C103EAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3825,6 +3962,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA58-48FF-8643-3C133C103EAC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3893,7 +4035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488977320"/>
@@ -3956,7 +4098,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488971440"/>
@@ -3997,7 +4139,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7350,18 +7492,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7380,18 +7528,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7426,7 +7580,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7463,7 +7623,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7500,7 +7666,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7537,7 +7709,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7558,7 +7736,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K20" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K23" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" name="ratio" dataDxfId="54"/>
     <tableColumn id="2" name="factor" dataDxfId="53"/>
@@ -7638,7 +7816,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E22:K26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E25:K29" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" name="gear" dataDxfId="14"/>
     <tableColumn id="2" name="speed" dataDxfId="13">
@@ -7681,8 +7859,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A30:B63" totalsRowShown="0">
-  <autoFilter ref="A30:B63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A33:B66" totalsRowShown="0">
+  <autoFilter ref="A33:B66"/>
   <tableColumns count="2">
     <tableColumn id="1" name="km/h" dataDxfId="7"/>
     <tableColumn id="2" name="Efficiency"/>
@@ -7826,6 +8004,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7861,6 +8056,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8013,10 +8225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8855,152 +9067,185 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="L21" t="s">
+      <c r="A21" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>9.6211592178770946</v>
+      </c>
+      <c r="D21" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>19.242318435754189</v>
+      </c>
+      <c r="E21" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>38.484636871508378</v>
+      </c>
+      <c r="F21" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>76.969273743016757</v>
+      </c>
+      <c r="G21" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>3.4986033519553073</v>
+      </c>
+      <c r="H21" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>27.988826815642458</v>
+      </c>
+      <c r="I21" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>86.203797459939324</v>
+      </c>
+      <c r="J21" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>10.775474682492415</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.67" factor="0.8"/&gt; &lt;!-- 3.5 .. 77 --&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>10.082053072625698</v>
+      </c>
+      <c r="D22" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>20.164106145251395</v>
+      </c>
+      <c r="E22" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>40.32821229050279</v>
+      </c>
+      <c r="F22" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>80.656424581005581</v>
+      </c>
+      <c r="G22" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>3.6662011173184355</v>
+      </c>
+      <c r="H22" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>29.329608938547484</v>
+      </c>
+      <c r="I22" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>82.263052433199249</v>
+      </c>
+      <c r="J22" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>10.282881554149906</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="1.75" factor="0.75"/&gt; &lt;!-- 3.67 .. 80.7 --&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>2</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s1]</f>
+        <v>11.522346368715084</v>
+      </c>
+      <c r="D23" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s2]</f>
+        <v>23.044692737430168</v>
+      </c>
+      <c r="E23" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s3]</f>
+        <v>46.089385474860336</v>
+      </c>
+      <c r="F23" s="6">
+        <f>Table1[[#This Row],[ratio]]*Table2[s4]</f>
+        <v>92.178770949720672</v>
+      </c>
+      <c r="G23" s="2">
+        <f>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</f>
+        <v>4.1899441340782122</v>
+      </c>
+      <c r="H23" s="3">
+        <f>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</f>
+        <v>33.519553072625698</v>
+      </c>
+      <c r="I23" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>71.980170879049339</v>
+      </c>
+      <c r="J23" s="5">
+        <f>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</f>
+        <v>8.9975213598811674</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
+        <v xml:space="preserve">        &lt;efficiency ratio="2" factor="0.5"/&gt; &lt;!-- 4.19 .. 92.2 --&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H25" t="s">
         <v>35</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I25" t="s">
         <v>29</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J25" t="s">
         <v>30</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K25" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="4" t="e">
+      <c r="L25" s="4" t="e">
         <f>Table3[[#This Row],[xml]]</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F26" s="6">
         <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
         <v>5.761173184357542</v>
-      </c>
-      <c r="G23" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>1.4036312849162014</v>
-      </c>
-      <c r="I23" s="1">
-        <f>$A$11*Table3[[#This Row],[speed]]</f>
-        <v>3.8599860335195535</v>
-      </c>
-      <c r="J23" s="1">
-        <f>$A$19*Table3[[#This Row],[speed]]</f>
-        <v>7.6623603351955314</v>
-      </c>
-      <c r="K23" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
-      </c>
-      <c r="L23" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>11.522346368715084</v>
-      </c>
-      <c r="G24" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>2.8072625698324027</v>
-      </c>
-      <c r="I24" s="1">
-        <f>$A$11*Table3[[#This Row],[speed]]</f>
-        <v>7.719972067039107</v>
-      </c>
-      <c r="J24" s="1">
-        <f>$A$19*Table3[[#This Row],[speed]]</f>
-        <v>15.324720670391063</v>
-      </c>
-      <c r="K24" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>23.044692737430168</v>
-      </c>
-      <c r="G25" s="6">
-        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>5.6145251396648055</v>
-      </c>
-      <c r="I25" s="1">
-        <f>$A$11*Table3[[#This Row],[speed]]</f>
-        <v>15.439944134078214</v>
-      </c>
-      <c r="J25" s="1">
-        <f>$A$19*Table3[[#This Row],[speed]]</f>
-        <v>30.649441340782126</v>
-      </c>
-      <c r="K25" t="str">
-        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
-      </c>
-      <c r="L25" s="4" t="str">
-        <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="5">
-        <v>4</v>
-      </c>
-      <c r="F26" s="6">
-        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
-        <v>46.089385474860336</v>
       </c>
       <c r="G26" s="6">
         <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
@@ -9008,372 +9253,471 @@
       </c>
       <c r="H26" s="1">
         <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
-        <v>11.229050279329611</v>
+        <v>1.4036312849162014</v>
       </c>
       <c r="I26" s="1">
         <f>$A$11*Table3[[#This Row],[speed]]</f>
-        <v>30.879888268156428</v>
+        <v>3.8599860335195535</v>
       </c>
       <c r="J26" s="1">
         <f>$A$19*Table3[[#This Row],[speed]]</f>
-        <v>61.298882681564251</v>
+        <v>7.6623603351955314</v>
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>11.522346368715084</v>
+      </c>
+      <c r="G27" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>2.8072625698324027</v>
+      </c>
+      <c r="I27" s="1">
+        <f>$A$11*Table3[[#This Row],[speed]]</f>
+        <v>7.719972067039107</v>
+      </c>
+      <c r="J27" s="1">
+        <f>$A$19*Table3[[#This Row],[speed]]</f>
+        <v>15.324720670391063</v>
+      </c>
+      <c r="K27" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>23.044692737430168</v>
+      </c>
+      <c r="G28" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>5.6145251396648055</v>
+      </c>
+      <c r="I28" s="1">
+        <f>$A$11*Table3[[#This Row],[speed]]</f>
+        <v>15.439944134078214</v>
+      </c>
+      <c r="J28" s="1">
+        <f>$A$19*Table3[[#This Row],[speed]]</f>
+        <v>30.649441340782126</v>
+      </c>
+      <c r="K28" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
+        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <f>Table3[[#This Row],[xml]]</f>
+        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="5">
+        <v>4</v>
+      </c>
+      <c r="F29" s="6">
+        <f>INDEX(Table2[],1,Table3[[#This Row],[gear]])</f>
+        <v>46.089385474860336</v>
+      </c>
+      <c r="G29" s="6">
+        <f>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</f>
+        <v>11.229050279329611</v>
+      </c>
+      <c r="I29" s="1">
+        <f>$A$11*Table3[[#This Row],[speed]]</f>
+        <v>30.879888268156428</v>
+      </c>
+      <c r="J29" s="1">
+        <f>$A$19*Table3[[#This Row],[speed]]</f>
+        <v>61.298882681564251</v>
+      </c>
+      <c r="K29" t="str">
+        <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
         <v xml:space="preserve">        &lt;gear speed="46.09" name=""/&gt; &lt;!-- 0 11.23 31 61--&gt;</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <f>B8</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <f>C11</f>
         <v>3.8599860335195535</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <f>B11</f>
         <v>0.87</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <f>C12</f>
         <v>4.6089385474860336</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <f>B12</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <f>C13</f>
         <v>5.1850558659217878</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <f>B13</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <f t="shared" ref="A35:A38" si="0">C14</f>
-        <v>5.4731145251396649</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35:B38" si="1">B14</f>
-        <v>0.97799999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <f t="shared" si="0"/>
-        <v>5.761173184357542</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <f t="shared" si="0"/>
-        <v>5.9916201117318435</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="1"/>
-        <v>0.97</v>
-      </c>
-    </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <f t="shared" si="0"/>
-        <v>6.3372905027932971</v>
+        <f>C14</f>
+        <v>5.4731145251396649</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
-        <v>0.94499999999999995</v>
+        <f>B14</f>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <f t="shared" ref="A39" si="2">C18</f>
+        <f>C15</f>
+        <v>5.761173184357542</v>
+      </c>
+      <c r="B39">
+        <f>B15</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <f>C16</f>
+        <v>5.9916201117318435</v>
+      </c>
+      <c r="B40">
+        <f>B16</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <f>C17</f>
+        <v>6.3372905027932971</v>
+      </c>
+      <c r="B41">
+        <f>B17</f>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <f t="shared" ref="A42" si="0">C18</f>
         <v>6.9134078212290504</v>
       </c>
-      <c r="B39">
-        <f t="shared" ref="B39" si="3">B18</f>
+      <c r="B42">
+        <f t="shared" ref="B42" si="1">B18</f>
         <v>0.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
         <f>D11</f>
         <v>7.719972067039107</v>
       </c>
-      <c r="B40">
+      <c r="B43">
         <f>MAX(B11,B19)</f>
         <v>0.89</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <f>D12</f>
         <v>9.2178770949720672</v>
       </c>
-      <c r="B41">
+      <c r="B44">
         <f>MAX(B12,B20)</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <f t="shared" ref="A42:A46" si="4">D13</f>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <f>D13</f>
         <v>10.370111731843576</v>
       </c>
-      <c r="B42">
-        <f t="shared" ref="B42:B46" si="5">MAX(B13,B21)</f>
+      <c r="B45">
+        <f>MAX(B13,B24)</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <f>D14</f>
+        <v>10.94622905027933</v>
+      </c>
+      <c r="B46">
+        <f>MAX(B14,B25)</f>
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <f>D15</f>
+        <v>11.522346368715084</v>
+      </c>
+      <c r="B47">
+        <f>MAX(B15,B26)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <f>D16</f>
+        <v>11.983240223463687</v>
+      </c>
+      <c r="B48">
+        <f>MAX(B16,B27)</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f>D17</f>
+        <v>12.674581005586594</v>
+      </c>
+      <c r="B49">
+        <f>MAX(B17,B28)</f>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <f t="shared" ref="A50" si="2">D19</f>
+        <v>15.324720670391063</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="3">B19</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <f>E11</f>
+        <v>15.439944134078214</v>
+      </c>
+      <c r="B51">
+        <f>MAX(B11,B19)</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <f>E12</f>
+        <v>18.435754189944134</v>
+      </c>
+      <c r="B52">
+        <f>B12</f>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <f t="shared" ref="A53:A57" si="4">E13</f>
+        <v>20.740223463687151</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:B57" si="5">B13</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <f t="shared" si="4"/>
-        <v>10.94622905027933</v>
-      </c>
-      <c r="B43">
+        <v>21.89245810055866</v>
+      </c>
+      <c r="B54">
         <f t="shared" si="5"/>
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <f t="shared" si="4"/>
-        <v>11.522346368715084</v>
-      </c>
-      <c r="B44">
+        <v>23.044692737430168</v>
+      </c>
+      <c r="B55">
         <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <f t="shared" si="4"/>
-        <v>11.983240223463687</v>
-      </c>
-      <c r="B45">
+        <v>23.966480446927374</v>
+      </c>
+      <c r="B56">
         <f t="shared" si="5"/>
         <v>0.97</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
         <f t="shared" si="4"/>
-        <v>12.674581005586594</v>
-      </c>
-      <c r="B46">
+        <v>25.349162011173188</v>
+      </c>
+      <c r="B57">
         <f t="shared" si="5"/>
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <f t="shared" ref="A47" si="6">D19</f>
-        <v>15.324720670391063</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ref="B47" si="7">B19</f>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <f t="shared" ref="A58" si="6">E19</f>
+        <v>30.649441340782126</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="7">B19</f>
         <v>0.89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <f>E11</f>
-        <v>15.439944134078214</v>
-      </c>
-      <c r="B48">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <f>F11</f>
+        <v>30.879888268156428</v>
+      </c>
+      <c r="B59" s="6">
         <f>MAX(B11,B19)</f>
         <v>0.89</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <f>E12</f>
-        <v>18.435754189944134</v>
-      </c>
-      <c r="B49">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <f>F12</f>
+        <v>36.871508379888269</v>
+      </c>
+      <c r="B60">
         <f>B12</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <f t="shared" ref="A50:A54" si="8">E13</f>
-        <v>20.740223463687151</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ref="B50:B54" si="9">B13</f>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <f t="shared" ref="A61:A65" si="8">F13</f>
+        <v>41.480446927374302</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:B65" si="9">B13</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
         <f t="shared" si="8"/>
-        <v>21.89245810055866</v>
-      </c>
-      <c r="B51">
+        <v>43.784916201117319</v>
+      </c>
+      <c r="B62">
         <f t="shared" si="9"/>
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
         <f t="shared" si="8"/>
-        <v>23.044692737430168</v>
-      </c>
-      <c r="B52">
+        <v>46.089385474860336</v>
+      </c>
+      <c r="B63">
         <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
         <f t="shared" si="8"/>
-        <v>23.966480446927374</v>
-      </c>
-      <c r="B53">
+        <v>47.932960893854748</v>
+      </c>
+      <c r="B64">
         <f t="shared" si="9"/>
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
         <f t="shared" si="8"/>
-        <v>25.349162011173188</v>
-      </c>
-      <c r="B54">
+        <v>50.698324022346377</v>
+      </c>
+      <c r="B65">
         <f t="shared" si="9"/>
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <f t="shared" ref="A55" si="10">E19</f>
-        <v>30.649441340782126</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ref="B55" si="11">B19</f>
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <f>F11</f>
-        <v>30.879888268156428</v>
-      </c>
-      <c r="B56" s="6">
-        <f>MAX(B11,B19)</f>
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <f>F12</f>
-        <v>36.871508379888269</v>
-      </c>
-      <c r="B57">
-        <f>B12</f>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <f t="shared" ref="A58:A62" si="12">F13</f>
-        <v>41.480446927374302</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ref="B58:B62" si="13">B13</f>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <f t="shared" si="12"/>
-        <v>43.784916201117319</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="13"/>
-        <v>0.97799999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <f t="shared" si="12"/>
-        <v>46.089385474860336</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="13"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <f t="shared" si="12"/>
-        <v>47.932960893854748</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="13"/>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <f t="shared" si="12"/>
-        <v>50.698324022346377</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="13"/>
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <f>F19</f>
         <v>61.298882681564251</v>
       </c>
-      <c r="B63">
-        <f t="shared" ref="B63" si="14">B19</f>
+      <c r="B66">
+        <f t="shared" ref="B66" si="10">B19</f>
         <v>0.89</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9870,7 +10214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>

--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Documents\GitHub\GearboxAddon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="0" windowWidth="13200" windowHeight="10320"/>
+    <workbookView xWindow="4710" yWindow="0" windowWidth="13200" windowHeight="10320" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ZF" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Combine" sheetId="3" r:id="rId3"/>
     <sheet name="Linde" sheetId="4" r:id="rId4"/>
     <sheet name="Compound" sheetId="5" r:id="rId5"/>
+    <sheet name="Claas" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>ratio</t>
   </si>
@@ -212,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -229,11 +230,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,11 +285,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="58">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1695,7 +1741,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488981632"/>
@@ -1758,7 +1804,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488981240"/>
@@ -1806,7 +1852,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488982416"/>
@@ -1863,7 +1909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1893,7 +1939,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1944,7 +1990,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2282,7 +2328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488974968"/>
@@ -2346,7 +2392,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488976144"/>
@@ -2387,7 +2433,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2438,7 +2484,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2615,7 +2661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488973008"/>
@@ -2677,7 +2723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488971832"/>
@@ -2718,7 +2764,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2769,7 +2815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2968,7 +3014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488973400"/>
@@ -3030,7 +3076,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488976928"/>
@@ -3071,7 +3117,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3122,7 +3168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3359,7 +3405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488977712"/>
@@ -3422,7 +3468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488978888"/>
@@ -3463,7 +3509,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4035,7 +4081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488977320"/>
@@ -4098,7 +4144,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488971440"/>
@@ -4139,7 +4185,587 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Claas!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Claas!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.251000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13394999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.156275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20092500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24557500000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29022500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33487500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.379525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53579999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Claas!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.521505376344086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83440860215053758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9178494623655914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90220430107526872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89698924731182783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88655913978494616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89698924731182783</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92827956989247307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93870967741935474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94913978494623652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95956989247311819</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96478494623655908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93870967741935474</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90741935483870961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F14-4E6E-9150-CC1440DD95E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Claas!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lua</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Claas!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.251000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13394999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.156275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20092500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24557500000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29022500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33487500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.379525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53579999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Claas!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F14-4E6E-9150-CC1440DD95E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488971440"/>
+        <c:axId val="488977320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488971440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488977320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488977320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488971440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4390,6 +5016,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6971,6 +7637,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7735,36 +8917,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC1A430-7BCB-4B69-8C8C-745E7C531579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K23" totalsRowShown="0">
   <tableColumns count="11">
-    <tableColumn id="1" name="ratio" dataDxfId="54"/>
-    <tableColumn id="2" name="factor" dataDxfId="53"/>
-    <tableColumn id="3" name="speed1" dataDxfId="52">
+    <tableColumn id="1" name="ratio" dataDxfId="57"/>
+    <tableColumn id="2" name="factor" dataDxfId="56"/>
+    <tableColumn id="3" name="speed1" dataDxfId="55">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s1]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="speed2" dataDxfId="51">
+    <tableColumn id="11" name="speed2" dataDxfId="54">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="speed3" dataDxfId="50">
+    <tableColumn id="10" name="speed3" dataDxfId="53">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s3]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="speed4" dataDxfId="49">
+    <tableColumn id="4" name="speed4" dataDxfId="52">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s4]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="idleSpeed1" dataDxfId="48">
+    <tableColumn id="7" name="idleSpeed1" dataDxfId="51">
       <calculatedColumnFormula>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed4" dataDxfId="47">
+    <tableColumn id="6" name="idleSpeed4" dataDxfId="50">
       <calculatedColumnFormula>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ratio1" dataDxfId="46">
+    <tableColumn id="9" name="ratio1" dataDxfId="49">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ratio2" dataDxfId="45">
+    <tableColumn id="8" name="ratio2" dataDxfId="48">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="44">
+    <tableColumn id="5" name="xml" dataDxfId="47">
       <calculatedColumnFormula>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7772,42 +8997,60 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1681011" displayName="Table1681011" ref="D1:F22" totalsRowShown="0">
+  <autoFilter ref="D1:F22"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="r" dataDxfId="1">
+      <calculatedColumnFormula>C2*0.893</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="e" dataDxfId="2">
+      <calculatedColumnFormula>B2*0.97/0.93</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="lua" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="46">
   <tableColumns count="14">
-    <tableColumn id="1" name="s1" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="1" name="s1" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="s2" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="11" name="s2" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="s3" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="14" name="s3" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="s4" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="2" name="s4" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="minRatio" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="6" name="minRatio" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="minEff" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="9" name="maxEff" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" name="range" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="8" name="minEff" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="9" name="maxEff" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" name="range" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="zeroEff" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="10" name="zeroEff" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="constF1" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="13" name="constF2" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="12" name="constF1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="13" name="constF2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
       <totalsRowFormula>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="rpm50" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="16" name="rpm50" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="rpm60" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="17" name="rpm60" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7818,23 +9061,23 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E25:K29" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="gear" dataDxfId="14"/>
-    <tableColumn id="2" name="speed" dataDxfId="13">
+    <tableColumn id="1" name="gear" dataDxfId="17"/>
+    <tableColumn id="2" name="speed" dataDxfId="16">
       <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="minSpeed" dataDxfId="12">
+    <tableColumn id="9" name="minSpeed" dataDxfId="15">
       <calculatedColumnFormula>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed" dataDxfId="11">
+    <tableColumn id="6" name="idleSpeed" dataDxfId="14">
       <calculatedColumnFormula>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="fromSpeed" dataDxfId="10">
+    <tableColumn id="5" name="fromSpeed" dataDxfId="13">
       <calculatedColumnFormula>$A$11*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="toSpeed" dataDxfId="9">
+    <tableColumn id="4" name="toSpeed" dataDxfId="12">
       <calculatedColumnFormula>$A$19*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="xml" dataDxfId="8">
+    <tableColumn id="3" name="xml" dataDxfId="11">
       <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7862,7 +9105,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A33:B66" totalsRowShown="0">
   <autoFilter ref="A33:B66"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="km/h" dataDxfId="7"/>
+    <tableColumn id="1" name="km/h" dataDxfId="10"/>
     <tableColumn id="2" name="Efficiency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7875,7 +9118,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="r"/>
     <tableColumn id="2" name="e"/>
-    <tableColumn id="3" name="lua" dataDxfId="6">
+    <tableColumn id="3" name="lua" dataDxfId="9">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7889,7 +9132,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="r"/>
     <tableColumn id="2" name="e"/>
-    <tableColumn id="3" name="lua" dataDxfId="5">
+    <tableColumn id="3" name="lua" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7898,15 +9141,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A1:C17" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A1:C17" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:C17"/>
   <sortState ref="A2:B12">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="r" dataDxfId="3"/>
-    <tableColumn id="2" name="e" dataDxfId="2"/>
-    <tableColumn id="3" name="lua" dataDxfId="1">
+    <tableColumn id="1" name="r" dataDxfId="6"/>
+    <tableColumn id="2" name="e" dataDxfId="5"/>
+    <tableColumn id="3" name="lua" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7920,7 +9163,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="r"/>
     <tableColumn id="2" name="e"/>
-    <tableColumn id="3" name="lua" dataDxfId="0">
+    <tableColumn id="3" name="lua" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8227,8 +9470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9395,87 +10638,87 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <f>C11</f>
+        <f t="shared" ref="A35:A41" si="0">C11</f>
         <v>3.8599860335195535</v>
       </c>
       <c r="B35">
-        <f>B11</f>
+        <f t="shared" ref="B35:B41" si="1">B11</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>4.6089385474860336</v>
       </c>
       <c r="B36">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <f>C13</f>
+        <f t="shared" si="0"/>
         <v>5.1850558659217878</v>
       </c>
       <c r="B37">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <f>C14</f>
+        <f t="shared" si="0"/>
         <v>5.4731145251396649</v>
       </c>
       <c r="B38">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <f>C15</f>
+        <f t="shared" si="0"/>
         <v>5.761173184357542</v>
       </c>
       <c r="B39">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <f>C16</f>
+        <f t="shared" si="0"/>
         <v>5.9916201117318435</v>
       </c>
       <c r="B40">
-        <f>B16</f>
+        <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <f>C17</f>
+        <f t="shared" si="0"/>
         <v>6.3372905027932971</v>
       </c>
       <c r="B41">
-        <f>B17</f>
+        <f t="shared" si="1"/>
         <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <f t="shared" ref="A42" si="0">C18</f>
+        <f t="shared" ref="A42" si="2">C18</f>
         <v>6.9134078212290504</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42" si="1">B18</f>
+        <f t="shared" ref="B42" si="3">B18</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <f>D11</f>
+        <f t="shared" ref="A43:A49" si="4">D11</f>
         <v>7.719972067039107</v>
       </c>
       <c r="B43">
@@ -9485,7 +10728,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <f>D12</f>
+        <f t="shared" si="4"/>
         <v>9.2178770949720672</v>
       </c>
       <c r="B44">
@@ -9495,7 +10738,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <f>D13</f>
+        <f t="shared" si="4"/>
         <v>10.370111731843576</v>
       </c>
       <c r="B45">
@@ -9505,7 +10748,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <f>D14</f>
+        <f t="shared" si="4"/>
         <v>10.94622905027933</v>
       </c>
       <c r="B46">
@@ -9515,7 +10758,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <f>D15</f>
+        <f t="shared" si="4"/>
         <v>11.522346368715084</v>
       </c>
       <c r="B47">
@@ -9525,7 +10768,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <f>D16</f>
+        <f t="shared" si="4"/>
         <v>11.983240223463687</v>
       </c>
       <c r="B48">
@@ -9535,7 +10778,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <f>D17</f>
+        <f t="shared" si="4"/>
         <v>12.674581005586594</v>
       </c>
       <c r="B49">
@@ -9545,11 +10788,11 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <f t="shared" ref="A50" si="2">D19</f>
+        <f t="shared" ref="A50" si="5">D19</f>
         <v>15.324720670391063</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50" si="3">B19</f>
+        <f t="shared" ref="B50" si="6">B19</f>
         <v>0.89</v>
       </c>
     </row>
@@ -9575,61 +10818,61 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <f t="shared" ref="A53:A57" si="4">E13</f>
+        <f t="shared" ref="A53:A57" si="7">E13</f>
         <v>20.740223463687151</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:B57" si="5">B13</f>
+        <f t="shared" ref="B53:B57" si="8">B13</f>
         <v>0.97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21.89245810055866</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23.044692737430168</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23.966480446927374</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.97</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25.349162011173188</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <f t="shared" ref="A58" si="6">E19</f>
+        <f t="shared" ref="A58" si="9">E19</f>
         <v>30.649441340782126</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58" si="7">B19</f>
+        <f t="shared" ref="B58" si="10">B19</f>
         <v>0.89</v>
       </c>
     </row>
@@ -9655,51 +10898,51 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <f t="shared" ref="A61:A65" si="8">F13</f>
+        <f t="shared" ref="A61:A65" si="11">F13</f>
         <v>41.480446927374302</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B65" si="9">B13</f>
+        <f t="shared" ref="B61:B65" si="12">B13</f>
         <v>0.97</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43.784916201117319</v>
       </c>
       <c r="B62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>46.089385474860336</v>
       </c>
       <c r="B63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.98</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>47.932960893854748</v>
       </c>
       <c r="B64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.97</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>50.698324022346377</v>
       </c>
       <c r="B65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94499999999999995</v>
       </c>
     </row>
@@ -9709,7 +10952,7 @@
         <v>61.298882681564251</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66" si="10">B19</f>
+        <f t="shared" ref="B66" si="13">B19</f>
         <v>0.89</v>
       </c>
     </row>
@@ -10586,4 +11829,545 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <f>C2*0.893</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <f t="shared" ref="E2:E22" si="0">B2*0.97/0.93</f>
+        <v>0.521505376344086</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0,522})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>3.5005600000000006</v>
+      </c>
+      <c r="B3">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3" s="16">
+        <f t="shared" ref="D3:D22" si="1">C3*0.893</f>
+        <v>6.251000000000001E-2</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" si="0"/>
+        <v>0.83440860215053758</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,063 , v=0,834})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>6.2510000000000003</v>
+      </c>
+      <c r="B4">
+        <v>0.87</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" si="1"/>
+        <v>0.111625</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90741935483870961</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,112 , v=0,907})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>7.501199999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.88</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="1"/>
+        <v>0.13394999999999999</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.9178494623655914</v>
+      </c>
+      <c r="F5" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,134 , v=0,918})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>8.7514000000000003</v>
+      </c>
+      <c r="B6">
+        <v>0.87</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.156275</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90741935483870961</v>
+      </c>
+      <c r="F6" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,156 , v=0,907})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>10.0016</v>
+      </c>
+      <c r="B7">
+        <v>0.87</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90741935483870961</v>
+      </c>
+      <c r="F7" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,179 , v=0,907})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>11.251800000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.87</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.20092500000000002</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90741935483870961</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,201 , v=0,907})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>12.502000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.87</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="1"/>
+        <v>0.22325</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90741935483870961</v>
+      </c>
+      <c r="F9" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,223 , v=0,907})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>13.7522</v>
+      </c>
+      <c r="B10">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.24557500000000002</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90220430107526872</v>
+      </c>
+      <c r="F10" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,246 , v=0,902})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>15.002399999999998</v>
+      </c>
+      <c r="B11">
+        <v>0.86</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="1"/>
+        <v>0.26789999999999997</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.89698924731182783</v>
+      </c>
+      <c r="F11" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,268 , v=0,897})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>16.252600000000001</v>
+      </c>
+      <c r="B12">
+        <v>0.85</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="1"/>
+        <v>0.29022500000000001</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.88655913978494616</v>
+      </c>
+      <c r="F12" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,29 , v=0,887})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>17.502800000000001</v>
+      </c>
+      <c r="B13">
+        <v>0.86</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="1"/>
+        <v>0.31254999999999999</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.89698924731182783</v>
+      </c>
+      <c r="F13" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,313 , v=0,897})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>18.753</v>
+      </c>
+      <c r="B14">
+        <v>0.89</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="1"/>
+        <v>0.33487500000000003</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
+        <v>0.92827956989247307</v>
+      </c>
+      <c r="F14" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,335 , v=0,928})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>20.0032</v>
+      </c>
+      <c r="B15">
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.93870967741935474</v>
+      </c>
+      <c r="F15" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,357 , v=0,939})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>21.253399999999999</v>
+      </c>
+      <c r="B16">
+        <v>0.91</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="1"/>
+        <v>0.379525</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
+        <v>0.94913978494623652</v>
+      </c>
+      <c r="F16" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,38 , v=0,949})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>25.004000000000001</v>
+      </c>
+      <c r="B17">
+        <v>0.92</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="1"/>
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.95956989247311819</v>
+      </c>
+      <c r="F17" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,447 , v=0,96})</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>30.004799999999996</v>
+      </c>
+      <c r="B18">
+        <v>0.93</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.53579999999999994</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,536 , v=0,97})</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>35.005600000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.93</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="1"/>
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+      <c r="F19" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,625 , v=0,97})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>40.006399999999999</v>
+      </c>
+      <c r="B20">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="1"/>
+        <v>0.71440000000000003</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
+        <v>0.96478494623655908</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,714 , v=0,965})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>50.008000000000003</v>
+      </c>
+      <c r="B21">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="1"/>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.93870967741935474</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,893 , v=0,939})</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>56*Table1681011[[#This Row],[r]]</f>
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>0.87</v>
+      </c>
+      <c r="C22" s="19">
+        <f>1/0.893</f>
+        <v>1.1198208286674132</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90741935483870961</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0,907})</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documents/hydro.xlsx
+++ b/Documents/hydro.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Documents\GitHub\GearboxAddon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3754659F-B15B-46B6-8287-BFA15675FD5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="0" windowWidth="13200" windowHeight="10320" activeTab="5"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="13200" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZF" sheetId="1" r:id="rId1"/>
     <sheet name="Fendt" sheetId="2" r:id="rId2"/>
     <sheet name="Combine" sheetId="3" r:id="rId3"/>
     <sheet name="Linde" sheetId="4" r:id="rId4"/>
-    <sheet name="Compound" sheetId="5" r:id="rId5"/>
-    <sheet name="Claas" sheetId="6" r:id="rId6"/>
+    <sheet name="Variator" sheetId="7" r:id="rId5"/>
+    <sheet name="Compound" sheetId="5" r:id="rId6"/>
+    <sheet name="Claas" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>ratio</t>
   </si>
@@ -171,11 +173,23 @@
   <si>
     <t>lua</t>
   </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>hMin</t>
+  </si>
+  <si>
+    <t>hMax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -292,7 +306,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="62">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3534,6 +3560,389 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Variator!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Variator!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Variator!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02A8-46A4-85B9-B81ACA4A1203}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466351864"/>
+        <c:axId val="466352192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466351864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466352192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466352192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466351864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4196,7 +4605,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5056,6 +5465,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8153,6 +8602,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8878,6 +9843,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BCA4FE-C066-423C-8880-0F8C521A7277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -8917,7 +9923,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8961,35 +9967,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:K23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:K23" totalsRowShown="0">
   <tableColumns count="11">
-    <tableColumn id="1" name="ratio" dataDxfId="57"/>
-    <tableColumn id="2" name="factor" dataDxfId="56"/>
-    <tableColumn id="3" name="speed1" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ratio" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="factor" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="speed1" dataDxfId="59">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s1]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="speed2" dataDxfId="54">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="speed2" dataDxfId="58">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s2]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="speed3" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="speed3" dataDxfId="57">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s3]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="speed4" dataDxfId="52">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="speed4" dataDxfId="56">
       <calculatedColumnFormula>Table1[[#This Row],[ratio]]*Table2[s4]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="idleSpeed1" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="idleSpeed1" dataDxfId="55">
       <calculatedColumnFormula>Table1[[#This Row],[speed1]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed4" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="idleSpeed4" dataDxfId="54">
       <calculatedColumnFormula>Table1[[#This Row],[speed4]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ratio1" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ratio1" dataDxfId="53">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed1]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ratio2" dataDxfId="48">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ratio2" dataDxfId="52">
       <calculatedColumnFormula>Table4[rated]/(Table1[[#This Row],[speed4]]/3.6 * 60 / (1*2*PI()))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="xml" dataDxfId="51">
       <calculatedColumnFormula>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8998,16 +10004,49 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1681011" displayName="Table1681011" ref="D1:F22" totalsRowShown="0">
-  <autoFilter ref="D1:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6B42099A-F183-4411-8607-105AD1BDE54C}" name="Table12" displayName="Table12" ref="A21:D29" totalsRowShown="0">
+  <autoFilter ref="A21:D29" xr:uid="{D95C7FD6-2240-4757-9E92-4D3EB69DB379}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3037435B-4956-47B3-9C69-54D2CAEBECDC}" name="f"/>
+    <tableColumn id="2" xr3:uid="{F27FD565-A1CD-4766-BCE8-B200299C2549}" name="delta" dataDxfId="2">
+      <calculatedColumnFormula>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C37D3EB2-97E0-4C85-AFC3-7456D1450D4D}" name="hMin" dataDxfId="1">
+      <calculatedColumnFormula>1-Table12[[#This Row],[delta]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A7DE08CB-BA8D-4877-8EE5-7C86A43B589C}" name="hMax" dataDxfId="0">
+      <calculatedColumnFormula>1+Table12[[#This Row],[delta]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table16810" displayName="Table16810" ref="A1:C30" totalsRowShown="0">
+  <autoFilter ref="A1:C30" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="r" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="r"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="e"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="lua" dataDxfId="7">
+      <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table1681011" displayName="Table1681011" ref="D1:F22" totalsRowShown="0">
+  <autoFilter ref="D1:F22" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="r" dataDxfId="6">
       <calculatedColumnFormula>C2*0.893</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="e" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="e" dataDxfId="5">
       <calculatedColumnFormula>B2*0.97/0.93</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="lua" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="lua" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",ROUND(Table1681011[[#This Row],[r]],3)," , v=",ROUND(MAX(Table1681011[[#This Row],[e]],0.000001),3),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9016,41 +10055,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A4:N6" totalsRowCount="1" dataDxfId="50">
   <tableColumns count="14">
-    <tableColumn id="1" name="s1" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="s1" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>IF(Table4[gears]&gt;3,Table2[s2]/Table4[gear2gear],Table2[s2])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="s2" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="s2" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>IF(Table4[gears]&gt;2,Table2[s3]/Table4[gear2gear],Table2[s3])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="s3" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="s3" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>IF(Table4[gears]&gt;1,Table2[s4]/Table4[gear2gear],Table2[s4])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="s4" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="s4" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>Table4[maxSpeed]*Table4[rated]/Table4[rpm]/(1+Table2[range])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="minRatio" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="minRatio" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>Table4[minSpeed]/Table2[s1]/Table4[idle]*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="minEff" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="9" name="maxEff" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="3" name="range" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="minEff" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="maxEff" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="range" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>(Table4[gear2gear]-1)/(Table4[gear2gear]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="zeroEff" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="zeroEff" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>IF(ISBLANK(Table4[zeroEff]),Table2[maxEff]-(Table2[maxEff]-Table2[minEff])/Table2[range],Table4[zeroEff])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="constF1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="13" name="constF2" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="15" name="rpm40" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="constF1" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="constF2" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="rpm40" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>40/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
       <totalsRowFormula>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="rpm50" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="rpm50" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>50/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="rpm60" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="rpm60" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>60/(Table2[s4]*(1+Table2[range]))*Table4[rated]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9059,25 +10098,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E25:K29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="E25:K29" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="gear" dataDxfId="17"/>
-    <tableColumn id="2" name="speed" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="gear" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="speed" dataDxfId="20">
       <calculatedColumnFormula>INDEX(Table2[],1,Table3[[#This Row],[gear]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="minSpeed" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="minSpeed" dataDxfId="19">
       <calculatedColumnFormula>$A$8*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="idleSpeed" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="idleSpeed" dataDxfId="18">
       <calculatedColumnFormula>$A$11*Table3[[#This Row],[speed]]*Table4[idle]/Table4[rated]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="fromSpeed" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="fromSpeed" dataDxfId="17">
       <calculatedColumnFormula>$A$11*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="toSpeed" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="toSpeed" dataDxfId="16">
       <calculatedColumnFormula>$A$19*Table3[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="xml" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="xml" dataDxfId="15">
       <calculatedColumnFormula>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9086,39 +10125,39 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:H2" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="8" name="minSpeed"/>
-    <tableColumn id="1" name="maxSpeed"/>
-    <tableColumn id="2" name="rpm"/>
-    <tableColumn id="3" name="idle"/>
-    <tableColumn id="4" name="rated"/>
-    <tableColumn id="6" name="gear2gear"/>
-    <tableColumn id="7" name="gears"/>
-    <tableColumn id="5" name="zeroEff"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="minSpeed"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="maxSpeed"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="rpm"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="idle"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="rated"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="gear2gear"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="gears"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="zeroEff"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A33:B66" totalsRowShown="0">
-  <autoFilter ref="A33:B66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A33:B66" totalsRowShown="0">
+  <autoFilter ref="A33:B66" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="km/h" dataDxfId="10"/>
-    <tableColumn id="2" name="Efficiency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="km/h" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Efficiency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table16" displayName="Table16" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="r"/>
-    <tableColumn id="2" name="e"/>
-    <tableColumn id="3" name="lua" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="r"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="e"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="lua" dataDxfId="13">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9127,12 +10166,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table168" displayName="Table168" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="r"/>
-    <tableColumn id="2" name="e"/>
-    <tableColumn id="3" name="lua" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="r"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="e"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="lua" dataDxfId="12">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9141,15 +10180,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A1:C17" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table1689" displayName="Table1689" ref="A1:C17" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:C17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <sortState ref="A2:B12">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="r" dataDxfId="6"/>
-    <tableColumn id="2" name="e" dataDxfId="5"/>
-    <tableColumn id="3" name="lua" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="r" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="e" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="lua" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9158,13 +10197,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A1:C30" totalsRowShown="0">
-  <autoFilter ref="A1:C30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9C78D5CE-9885-4076-A92C-44949F2ED6A2}" name="Table16812" displayName="Table16812" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{7FFD9320-1D42-4D69-B6E7-F071AAEB6B17}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="r"/>
-    <tableColumn id="2" name="e"/>
-    <tableColumn id="3" name="lua" dataDxfId="3">
-      <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{69D05133-6504-42AA-B000-86EDD0520065}" name="r"/>
+    <tableColumn id="2" xr3:uid="{B625586C-950C-43C2-8F4B-0104BBB7E5F9}" name="e"/>
+    <tableColumn id="3" xr3:uid="{2F8B6407-71F9-4A6F-90A9-D3AE3F0E66CF}" name="lua" dataDxfId="3">
+      <calculatedColumnFormula>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9467,7 +10506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9642,7 +10681,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15" t="str">
         <f>CONCATENATE("      &lt;!-- ",Table4[minSpeed],"..",Table4[maxSpeed]," @",Table4[rpm]," / ",Table4[idle],"..",Table4[rated]," / ",Table4[gear2gear]," --&gt;")</f>
-        <v xml:space="preserve">      &lt;!-- 0.02..50 @1790 / 800..2200 / 2 --&gt;</v>
+        <v xml:space="preserve">      &lt;!-- 0,02..50 @1790 / 800..2200 / 2 --&gt;</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -9726,11 +10765,11 @@
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0.5"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0,5"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
       </c>
       <c r="L8" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0.5"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0" factor="0,5"/&gt; &lt;!-- 0 .. 0 --&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -9774,11 +10813,11 @@
       </c>
       <c r="K9" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.05" factor="0.55"/&gt; &lt;!-- 0.1 .. 2.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,05" factor="0,55"/&gt; &lt;!-- 0,1 .. 2,3 --&gt;</v>
       </c>
       <c r="L9" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.05" factor="0.55"/&gt; &lt;!-- 0.1 .. 2.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,05" factor="0,55"/&gt; &lt;!-- 0,1 .. 2,3 --&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -9822,11 +10861,11 @@
       </c>
       <c r="K10" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.22" factor="0.68"/&gt; &lt;!-- 0.46 .. 10.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,22" factor="0,68"/&gt; &lt;!-- 0,46 .. 10,1 --&gt;</v>
       </c>
       <c r="L10" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.22" factor="0.68"/&gt; &lt;!-- 0.46 .. 10.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,22" factor="0,68"/&gt; &lt;!-- 0,46 .. 10,1 --&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -9870,11 +10909,11 @@
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.67" factor="0.87"/&gt; &lt;!-- 1.4 .. 30.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,67" factor="0,87"/&gt; &lt;!-- 1,4 .. 30,9 --&gt;</v>
       </c>
       <c r="L11" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.67" factor="0.87"/&gt; &lt;!-- 1.4 .. 30.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,67" factor="0,87"/&gt; &lt;!-- 1,4 .. 30,9 --&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -9918,11 +10957,11 @@
       </c>
       <c r="K12" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 1.68 .. 36.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,8" factor="0,93"/&gt; &lt;!-- 1,68 .. 36,9 --&gt;</v>
       </c>
       <c r="L12" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.8" factor="0.93"/&gt; &lt;!-- 1.68 .. 36.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,8" factor="0,93"/&gt; &lt;!-- 1,68 .. 36,9 --&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -9966,11 +11005,11 @@
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.97"/&gt; &lt;!-- 1.89 .. 41.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,9" factor="0,97"/&gt; &lt;!-- 1,89 .. 41,5 --&gt;</v>
       </c>
       <c r="L13" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.9" factor="0.97"/&gt; &lt;!-- 1.89 .. 41.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,9" factor="0,97"/&gt; &lt;!-- 1,89 .. 41,5 --&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -10014,11 +11053,11 @@
       </c>
       <c r="K14" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.95" factor="0.978"/&gt; &lt;!-- 1.99 .. 43.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,95" factor="0,978"/&gt; &lt;!-- 1,99 .. 43,8 --&gt;</v>
       </c>
       <c r="L14" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="0.95" factor="0.978"/&gt; &lt;!-- 1.99 .. 43.8 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="0,95" factor="0,978"/&gt; &lt;!-- 1,99 .. 43,8 --&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -10063,11 +11102,11 @@
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.09 .. 46.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0,98"/&gt; &lt;!-- 2,09 .. 46,1 --&gt;</v>
       </c>
       <c r="L15" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0.98"/&gt; &lt;!-- 2.09 .. 46.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1" factor="0,98"/&gt; &lt;!-- 2,09 .. 46,1 --&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -10111,11 +11150,11 @@
       </c>
       <c r="K16" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.04" factor="0.97"/&gt; &lt;!-- 2.18 .. 47.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,04" factor="0,97"/&gt; &lt;!-- 2,18 .. 47,9 --&gt;</v>
       </c>
       <c r="L16" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.04" factor="0.97"/&gt; &lt;!-- 2.18 .. 47.9 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,04" factor="0,97"/&gt; &lt;!-- 2,18 .. 47,9 --&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -10159,11 +11198,11 @@
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.945"/&gt; &lt;!-- 2.3 .. 50.7 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,1" factor="0,945"/&gt; &lt;!-- 2,3 .. 50,7 --&gt;</v>
       </c>
       <c r="L17" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.1" factor="0.945"/&gt; &lt;!-- 2.3 .. 50.7 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,1" factor="0,945"/&gt; &lt;!-- 2,3 .. 50,7 --&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -10207,11 +11246,11 @@
       </c>
       <c r="K18" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.92"/&gt; &lt;!-- 2.51 .. 55.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,2" factor="0,92"/&gt; &lt;!-- 2,51 .. 55,3 --&gt;</v>
       </c>
       <c r="L18" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.2" factor="0.92"/&gt; &lt;!-- 2.51 .. 55.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,2" factor="0,92"/&gt; &lt;!-- 2,51 .. 55,3 --&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -10255,11 +11294,11 @@
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.33" factor="0.89"/&gt; &lt;!-- 2.79 .. 61.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,33" factor="0,89"/&gt; &lt;!-- 2,79 .. 61,3 --&gt;</v>
       </c>
       <c r="L19" t="str">
         <f>Table1[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.33" factor="0.89"/&gt; &lt;!-- 2.79 .. 61.3 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,33" factor="0,89"/&gt; &lt;!-- 2,79 .. 61,3 --&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -10303,7 +11342,7 @@
       </c>
       <c r="K20" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.5" factor="0.86"/&gt; &lt;!-- 3.14 .. 69.1 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,5" factor="0,86"/&gt; &lt;!-- 3,14 .. 69,1 --&gt;</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
@@ -10350,7 +11389,7 @@
       </c>
       <c r="K21" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.67" factor="0.8"/&gt; &lt;!-- 3.5 .. 77 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,67" factor="0,8"/&gt; &lt;!-- 3,5 .. 77 --&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -10394,7 +11433,7 @@
       </c>
       <c r="K22" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="1.75" factor="0.75"/&gt; &lt;!-- 3.67 .. 80.7 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="1,75" factor="0,75"/&gt; &lt;!-- 3,67 .. 80,7 --&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -10438,7 +11477,7 @@
       </c>
       <c r="K23" s="4" t="str">
         <f>CONCATENATE("        &lt;efficiency ratio=""",ROUND(Table1[[#This Row],[ratio]],6),""" factor=""",ROUND(Table1[[#This Row],[factor]],3),"""/&gt; &lt;!-- ",ROUND(Table1[[#This Row],[idleSpeed1]],2)," .. ",ROUND(Table1[[#This Row],[speed4]],1)," --&gt;")</f>
-        <v xml:space="preserve">        &lt;efficiency ratio="2" factor="0.5"/&gt; &lt;!-- 4.19 .. 92.2 --&gt;</v>
+        <v xml:space="preserve">        &lt;efficiency ratio="2" factor="0,5"/&gt; &lt;!-- 4,19 .. 92,2 --&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -10508,11 +11547,11 @@
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="5,76" name=""/&gt; &lt;!-- 0 1,4 4 8--&gt;</v>
       </c>
       <c r="L26" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="5.76" name=""/&gt; &lt;!-- 0 1.4 4 8--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="5,76" name=""/&gt; &lt;!-- 0 1,4 4 8--&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -10541,11 +11580,11 @@
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="11,52" name=""/&gt; &lt;!-- 0 2,81 8 15--&gt;</v>
       </c>
       <c r="L27" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="11.52" name=""/&gt; &lt;!-- 0 2.81 8 15--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="11,52" name=""/&gt; &lt;!-- 0 2,81 8 15--&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -10574,11 +11613,11 @@
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="23,04" name=""/&gt; &lt;!-- 0 5,61 15 31--&gt;</v>
       </c>
       <c r="L28" s="4" t="str">
         <f>Table3[[#This Row],[xml]]</f>
-        <v xml:space="preserve">        &lt;gear speed="23.04" name=""/&gt; &lt;!-- 0 5.61 15 31--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="23,04" name=""/&gt; &lt;!-- 0 5,61 15 31--&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -10607,7 +11646,7 @@
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE("        &lt;gear speed=""",ROUND(Table3[[#This Row],[speed]],2),""" name=""""/&gt; &lt;!-- ",ROUND(Table3[[#This Row],[minSpeed]],2)," ",ROUND(Table3[[#This Row],[idleSpeed]],2)," ",ROUND(Table3[[#This Row],[fromSpeed]],0)," ",ROUND(Table3[[#This Row],[toSpeed]],0),"--&gt;")</f>
-        <v xml:space="preserve">        &lt;gear speed="46.09" name=""/&gt; &lt;!-- 0 11.23 31 61--&gt;</v>
+        <v xml:space="preserve">        &lt;gear speed="46,09" name=""/&gt; &lt;!-- 0 11,23 31 61--&gt;</v>
       </c>
       <c r="L29" t="s">
         <v>33</v>
@@ -10977,7 +12016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11006,7 +12045,7 @@
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-1 , v=0.65})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-1 , v=0,65})</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11018,7 +12057,7 @@
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.01 , v=0.82})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0,01 , v=0,82})</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11030,7 +12069,7 @@
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.000001})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0,000001})</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11042,7 +12081,7 @@
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.01 , v=0.825})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,01 , v=0,825})</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11054,7 +12093,7 @@
       </c>
       <c r="C6" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0.98})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0,98})</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11066,7 +12105,7 @@
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16[[#This Row],[r]]," , v=",MAX(Table16[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1.5 , v=0.89})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,5 , v=0,89})</v>
       </c>
     </row>
   </sheetData>
@@ -11079,11 +12118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11111,7 +12150,7 @@
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.000001})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0,000001})</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11123,7 +12162,7 @@
       </c>
       <c r="C3" s="4" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.05 , v=0.4})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,05 , v=0,4})</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11135,7 +12174,7 @@
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.2 , v=0.75})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,2 , v=0,75})</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11147,7 +12186,7 @@
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.4 , v=0.84})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,4 , v=0,84})</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11159,7 +12198,7 @@
       </c>
       <c r="C6" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.7 , v=0.93})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,7 , v=0,93})</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11171,7 +12210,7 @@
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.9 , v=0.97})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,9 , v=0,97})</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11183,7 +12222,7 @@
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0.98})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0,98})</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11195,7 +12234,7 @@
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1.1 , v=0.97})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,1 , v=0,97})</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11207,7 +12246,7 @@
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1.2 , v=0.95})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,2 , v=0,95})</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11219,7 +12258,7 @@
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table168[[#This Row],[r]]," , v=",MAX(Table168[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1.4 , v=0.9})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,4 , v=0,9})</v>
       </c>
     </row>
   </sheetData>
@@ -11232,11 +12271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11261,7 +12300,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-1 , v=0.87})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-1 , v=0,87})</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11273,7 +12312,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.85 , v=0.92})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0,85 , v=0,92})</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11285,7 +12324,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.7 , v=0.93})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0,7 , v=0,93})</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11297,7 +12336,7 @@
       </c>
       <c r="C5" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.5 , v=0.87})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0,5 , v=0,87})</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11309,7 +12348,7 @@
       </c>
       <c r="C6" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.15 , v=0.71})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0,15 , v=0,71})</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11321,7 +12360,7 @@
       </c>
       <c r="C7" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0.01 , v=0.6})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=-0,01 , v=0,6})</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11333,7 +12372,7 @@
       </c>
       <c r="C8" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.5})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0,5})</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11345,7 +12384,7 @@
       </c>
       <c r="C9" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.01 , v=0.6})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,01 , v=0,6})</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11357,7 +12396,7 @@
       </c>
       <c r="C10" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.15 , v=0.75})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,15 , v=0,75})</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11369,7 +12408,7 @@
       </c>
       <c r="C11" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.3 , v=0.85})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,3 , v=0,85})</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11381,7 +12420,7 @@
       </c>
       <c r="C12" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.5 , v=0.93})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,5 , v=0,93})</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11393,7 +12432,7 @@
       </c>
       <c r="C13" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.65 , v=0.975})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,65 , v=0,975})</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11405,7 +12444,7 @@
       </c>
       <c r="C14" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.7 , v=0.98})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,7 , v=0,98})</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11417,7 +12456,7 @@
       </c>
       <c r="C15" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.75 , v=0.975})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,75 , v=0,975})</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11429,7 +12468,7 @@
       </c>
       <c r="C16" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.85 , v=0.95})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,85 , v=0,95})</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11441,7 +12480,7 @@
       </c>
       <c r="C17" s="16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table1689[[#This Row],[r]]," , v=",MAX(Table1689[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0.9})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0,9})</v>
       </c>
     </row>
   </sheetData>
@@ -11454,7 +12493,368 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F42134-6CD1-421B-84C8-81FD8EE40BCC}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0,000001})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,05 , v=0,4})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,2 , v=0,6})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,4 , v=0,75})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.6</v>
+      </c>
+      <c r="B6">
+        <v>0.87</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,6 , v=0,87})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.8</v>
+      </c>
+      <c r="B7">
+        <v>0.95</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,8 , v=0,95})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.9</v>
+      </c>
+      <c r="B8">
+        <v>0.97</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,9 , v=0,97})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.98</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0,98})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10">
+        <v>0.97</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,1 , v=0,97})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.2</v>
+      </c>
+      <c r="B11">
+        <v>0.95</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,2 , v=0,95})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.4</v>
+      </c>
+      <c r="B12">
+        <v>0.87</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,4 , v=0,87})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.6</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,6 , v=0,75})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.8</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,8 , v=0,6})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.95</v>
+      </c>
+      <c r="B15">
+        <v>0.4</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1,95 , v=0,4})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16812[[#This Row],[r]]," , v=",MAX(Table16812[[#This Row],[e]],0.000001),"})")</f>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=2 , v=0,000001})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B22">
+        <f>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</f>
+        <v>4.7619047619047658E-2</v>
+      </c>
+      <c r="C22">
+        <f>1-Table12[[#This Row],[delta]]</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="D22">
+        <f>1+Table12[[#This Row],[delta]]</f>
+        <v>1.0476190476190477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23">
+        <f>1-Table12[[#This Row],[delta]]</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="D23">
+        <f>1+Table12[[#This Row],[delta]]</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <f>1-Table12[[#This Row],[delta]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <f>1+Table12[[#This Row],[delta]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <f>1-Table12[[#This Row],[delta]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="D25">
+        <f>1+Table12[[#This Row],[delta]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <f>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C26" s="4">
+        <f>1-Table12[[#This Row],[delta]]</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="D26" s="4">
+        <f>1+Table12[[#This Row],[delta]]</f>
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <f>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C27" s="4">
+        <f>1-Table12[[#This Row],[delta]]</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D27" s="4">
+        <f>1+Table12[[#This Row],[delta]]</f>
+        <v>1.7142857142857144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4">
+        <f>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="4">
+        <f>1-Table12[[#This Row],[delta]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="4">
+        <f>1+Table12[[#This Row],[delta]]</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <f>(Table12[[#This Row],[f]]-1)/(Table12[[#This Row],[f]]+1)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C29" s="4">
+        <f>1-Table12[[#This Row],[delta]]</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D29" s="4">
+        <f>1+Table12[[#This Row],[delta]]</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11483,7 +12883,7 @@
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0.5})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0 , v=0,5})</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11495,7 +12895,7 @@
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.01 , v=0.57})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,01 , v=0,57})</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11507,7 +12907,7 @@
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.07 , v=0.75})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,07 , v=0,75})</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11519,7 +12919,7 @@
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.1 , v=0.81})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,1 , v=0,81})</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11531,7 +12931,7 @@
       </c>
       <c r="C6" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.17 , v=0.96})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,17 , v=0,96})</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11543,7 +12943,7 @@
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.18 , v=0.97})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,18 , v=0,97})</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11555,7 +12955,7 @@
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.19 , v=0.977})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,19 , v=0,977})</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11567,7 +12967,7 @@
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.2 , v=0.98})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,2 , v=0,98})</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11579,7 +12979,7 @@
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.21 , v=0.975})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,21 , v=0,975})</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11591,7 +12991,7 @@
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.22 , v=0.94})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,22 , v=0,94})</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11603,7 +13003,7 @@
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.23 , v=0.925})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,23 , v=0,925})</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11615,7 +13015,7 @@
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.25 , v=0.92})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,25 , v=0,92})</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11627,7 +13027,7 @@
       </c>
       <c r="C14" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.3 , v=0.918})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,3 , v=0,918})</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11639,7 +13039,7 @@
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.35 , v=0.92})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,35 , v=0,92})</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11651,7 +13051,7 @@
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.4 , v=0.935})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,4 , v=0,935})</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11663,7 +13063,7 @@
       </c>
       <c r="C17" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.48 , v=0.965})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,48 , v=0,965})</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -11675,7 +13075,7 @@
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.49 , v=0.969})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,49 , v=0,969})</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -11687,7 +13087,7 @@
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.5 , v=0.97})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,5 , v=0,97})</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11699,7 +13099,7 @@
       </c>
       <c r="C20" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.51 , v=0.968})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,51 , v=0,968})</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -11711,7 +13111,7 @@
       </c>
       <c r="C21" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.52 , v=0.96})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,52 , v=0,96})</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -11723,7 +13123,7 @@
       </c>
       <c r="C22" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.53 , v=0.94})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,53 , v=0,94})</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -11735,7 +13135,7 @@
       </c>
       <c r="C23" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.54 , v=0.9})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,54 , v=0,9})</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -11747,7 +13147,7 @@
       </c>
       <c r="C24" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.55 , v=0.88})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,55 , v=0,88})</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -11759,7 +13159,7 @@
       </c>
       <c r="C25" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.56 , v=0.88})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,56 , v=0,88})</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11771,7 +13171,7 @@
       </c>
       <c r="C26" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.6 , v=0.89})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,6 , v=0,89})</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -11783,7 +13183,7 @@
       </c>
       <c r="C27" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.65 , v=0.895})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,65 , v=0,895})</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -11795,7 +13195,7 @@
       </c>
       <c r="C28" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.7 , v=0.9})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,7 , v=0,9})</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11807,7 +13207,7 @@
       </c>
       <c r="C29" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0.8 , v=0.908})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=0,8 , v=0,908})</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -11819,7 +13219,7 @@
       </c>
       <c r="C30" t="str">
         <f>CONCATENATE("   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=",Table16810[[#This Row],[r]]," , v=",MAX(Table16810[[#This Row],[e]],0.000001),"})")</f>
-        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0.91})</v>
+        <v xml:space="preserve">   table.insert(self.mrGbMS.HydrostaticEfficiency, {time=1 , v=0,91})</v>
       </c>
     </row>
   </sheetData>
@@ -11831,11 +13231,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F22"/>
     </sheetView>
   </sheetViews>
